--- a/Översikt TORSÅS.xlsx
+++ b/Översikt TORSÅS.xlsx
@@ -572,7 +572,7 @@
         <v>43536</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>43922</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>43693</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>43425</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43682</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
         <v>43840</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>45001</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>43783</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>44459</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>43434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>43608</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>43703</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>43705</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>43712</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>44216</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>44410</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>44568</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44939</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43349</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43363</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43494</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>43579</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>43669</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43682</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>43703</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>44125</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>44231</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>44263</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>44453</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>44454</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>44804</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>45019</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>45079</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>43322</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         <v>43326</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         <v>43326</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>43326</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>43332</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>43339</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>43349</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>43349</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>43361</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         <v>43361</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         <v>43363</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>43363</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v>43376</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>43381</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4247,7 +4247,7 @@
         <v>43389</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         <v>43391</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4361,7 +4361,7 @@
         <v>43396</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
         <v>43396</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43396</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43398</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>43412</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>43419</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>43425</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43425</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43432</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43434</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43455</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43455</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43473</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43475</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43483</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43483</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43486</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43488</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>43488</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43488</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43490</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43490</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>43490</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5957,7 +5957,7 @@
         <v>43493</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43494</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>43497</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>43501</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>43504</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>43504</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>43511</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>43523</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6413,7 +6413,7 @@
         <v>43523</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6470,7 +6470,7 @@
         <v>43524</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>43524</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>43524</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>43528</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>43529</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43529</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43536</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43537</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43537</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43542</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43544</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43563</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>43563</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>43565</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7268,7 +7268,7 @@
         <v>43566</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7325,7 +7325,7 @@
         <v>43571</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>43577</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>43577</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>43578</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>43579</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43579</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43579</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>43598</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>43598</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>43600</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         <v>43612</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>43612</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>43612</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>43613</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>43613</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>43613</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>43614</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>43614</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>43616</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8408,7 +8408,7 @@
         <v>43626</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8465,7 +8465,7 @@
         <v>43627</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>43627</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>43629</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>43629</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8693,7 +8693,7 @@
         <v>43629</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>43629</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>43630</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>43630</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>43640</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>43640</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>43642</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>43643</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9149,7 +9149,7 @@
         <v>43643</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9206,7 +9206,7 @@
         <v>43645</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9263,7 +9263,7 @@
         <v>43648</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9320,7 +9320,7 @@
         <v>43648</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>43648</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9434,7 +9434,7 @@
         <v>43648</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9491,7 +9491,7 @@
         <v>43648</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9548,7 +9548,7 @@
         <v>43650</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9605,7 +9605,7 @@
         <v>43650</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9662,7 +9662,7 @@
         <v>43651</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>43664</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>43670</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9833,7 +9833,7 @@
         <v>43670</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9890,7 +9890,7 @@
         <v>43670</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9947,7 +9947,7 @@
         <v>43672</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10004,7 +10004,7 @@
         <v>43674</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10061,7 +10061,7 @@
         <v>43675</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10118,7 +10118,7 @@
         <v>43675</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10175,7 +10175,7 @@
         <v>43675</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10232,7 +10232,7 @@
         <v>43675</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>43675</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>43675</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>43676</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>43676</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>43676</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>43677</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>43677</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>43677</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>43679</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>43680</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>43682</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>43682</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>43682</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>43683</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>43683</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>43683</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>43683</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11258,7 +11258,7 @@
         <v>43684</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11315,7 +11315,7 @@
         <v>43686</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11372,7 +11372,7 @@
         <v>43689</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11429,7 +11429,7 @@
         <v>43689</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11486,7 +11486,7 @@
         <v>43689</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11543,7 +11543,7 @@
         <v>43689</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11600,7 +11600,7 @@
         <v>43689</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11657,7 +11657,7 @@
         <v>43690</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>43691</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>43691</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11828,7 +11828,7 @@
         <v>43692</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>43692</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>43692</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>43692</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>43692</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         <v>43693</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>43693</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>43693</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>43693</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>43693</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>43696</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>43698</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>43698</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>43705</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>43705</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>43705</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>43710</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>43710</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>43710</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12931,7 +12931,7 @@
         <v>43710</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         <v>43711</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>43711</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>43712</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>43712</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>43712</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13278,7 +13278,7 @@
         <v>43712</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13335,7 +13335,7 @@
         <v>43713</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>43714</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>43717</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>43717</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>43718</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>43718</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>43718</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>43719</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13791,7 +13791,7 @@
         <v>43724</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         <v>43724</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13905,7 +13905,7 @@
         <v>43726</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13962,7 +13962,7 @@
         <v>43728</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14019,7 +14019,7 @@
         <v>43732</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14076,7 +14076,7 @@
         <v>43732</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14133,7 +14133,7 @@
         <v>43732</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>43732</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>43733</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14304,7 +14304,7 @@
         <v>43734</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>43738</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>43740</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14475,7 +14475,7 @@
         <v>43740</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         <v>43747</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         <v>43752</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14646,7 +14646,7 @@
         <v>43753</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>43755</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14760,7 +14760,7 @@
         <v>43755</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14817,7 +14817,7 @@
         <v>43755</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14874,7 +14874,7 @@
         <v>43766</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14931,7 +14931,7 @@
         <v>43766</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14988,7 +14988,7 @@
         <v>43766</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>43766</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15102,7 +15102,7 @@
         <v>43766</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>43766</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15216,7 +15216,7 @@
         <v>43773</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>43775</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>43776</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>43781</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>43781</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>43782</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15558,7 +15558,7 @@
         <v>43789</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15615,7 +15615,7 @@
         <v>43789</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>43790</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>43794</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         <v>43794</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15843,7 +15843,7 @@
         <v>43794</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15900,7 +15900,7 @@
         <v>43795</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15957,7 +15957,7 @@
         <v>43795</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16014,7 +16014,7 @@
         <v>43796</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16071,7 +16071,7 @@
         <v>43796</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16128,7 +16128,7 @@
         <v>43797</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16185,7 +16185,7 @@
         <v>43804</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16242,7 +16242,7 @@
         <v>43810</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16299,7 +16299,7 @@
         <v>43811</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>43815</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16413,7 +16413,7 @@
         <v>43819</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16470,7 +16470,7 @@
         <v>43822</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16527,7 +16527,7 @@
         <v>43837</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16584,7 +16584,7 @@
         <v>43840</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16641,7 +16641,7 @@
         <v>43840</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16698,7 +16698,7 @@
         <v>43846</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>43851</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16812,7 +16812,7 @@
         <v>43857</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>43859</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>43861</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>43866</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>43867</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>43867</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>43878</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17211,7 +17211,7 @@
         <v>43885</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17268,7 +17268,7 @@
         <v>43885</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17325,7 +17325,7 @@
         <v>43887</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17382,7 +17382,7 @@
         <v>43892</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17439,7 +17439,7 @@
         <v>43892</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17496,7 +17496,7 @@
         <v>43892</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>43898</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>43903</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>43907</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>43907</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>43908</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>43908</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>43909</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>43909</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>43911</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         <v>43911</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>43917</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18180,7 +18180,7 @@
         <v>43920</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>43920</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18294,7 +18294,7 @@
         <v>43922</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18351,7 +18351,7 @@
         <v>43923</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18408,7 +18408,7 @@
         <v>43928</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18465,7 +18465,7 @@
         <v>43929</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18522,7 +18522,7 @@
         <v>43936</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18579,7 +18579,7 @@
         <v>43936</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18636,7 +18636,7 @@
         <v>43942</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         <v>43944</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18750,7 +18750,7 @@
         <v>43944</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18807,7 +18807,7 @@
         <v>43956</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18864,7 +18864,7 @@
         <v>43956</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18921,7 +18921,7 @@
         <v>43988</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18978,7 +18978,7 @@
         <v>43988</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19035,7 +19035,7 @@
         <v>44012</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19092,7 +19092,7 @@
         <v>44013</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19149,7 +19149,7 @@
         <v>44013</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19206,7 +19206,7 @@
         <v>44019</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19263,7 +19263,7 @@
         <v>44019</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19320,7 +19320,7 @@
         <v>44025</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19377,7 +19377,7 @@
         <v>44025</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19434,7 +19434,7 @@
         <v>44035</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19496,7 +19496,7 @@
         <v>44041</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19553,7 +19553,7 @@
         <v>44046</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19610,7 +19610,7 @@
         <v>44055</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19667,7 +19667,7 @@
         <v>44055</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>44055</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>44057</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44057</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19915,7 +19915,7 @@
         <v>44057</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         <v>44057</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>44057</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20086,7 +20086,7 @@
         <v>44057</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20143,7 +20143,7 @@
         <v>44057</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20200,7 +20200,7 @@
         <v>44057</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20257,7 +20257,7 @@
         <v>44063</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>44068</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>44074</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>44077</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>44078</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>44078</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>44095</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>44096</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>44098</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>44098</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>44102</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>44104</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>44105</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>44107</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>44107</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>44109</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>44110</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>44110</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>44110</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>44111</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44111</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44111</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44118</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44118</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44131</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>44134</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>44134</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
         <v>44138</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>44140</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44144</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>44146</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22029,7 +22029,7 @@
         <v>44150</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22086,7 +22086,7 @@
         <v>44152</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22143,7 +22143,7 @@
         <v>44155</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22205,7 +22205,7 @@
         <v>44155</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>44165</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>44172</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
         <v>44172</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>44173</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22495,7 +22495,7 @@
         <v>44174</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22552,7 +22552,7 @@
         <v>44181</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22609,7 +22609,7 @@
         <v>44182</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22666,7 +22666,7 @@
         <v>44187</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22723,7 +22723,7 @@
         <v>44201</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22780,7 +22780,7 @@
         <v>44207</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>44208</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22894,7 +22894,7 @@
         <v>44208</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22951,7 +22951,7 @@
         <v>44208</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>44208</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
         <v>44208</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23122,7 +23122,7 @@
         <v>44210</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23179,7 +23179,7 @@
         <v>44211</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23236,7 +23236,7 @@
         <v>44211</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23293,7 +23293,7 @@
         <v>44214</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23350,7 +23350,7 @@
         <v>44217</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23407,7 +23407,7 @@
         <v>44217</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23464,7 +23464,7 @@
         <v>44224</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23521,7 +23521,7 @@
         <v>44228</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23578,7 +23578,7 @@
         <v>44235</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         <v>44242</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23692,7 +23692,7 @@
         <v>44243</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23749,7 +23749,7 @@
         <v>44245</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23806,7 +23806,7 @@
         <v>44250</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23863,7 +23863,7 @@
         <v>44250</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23920,7 +23920,7 @@
         <v>44250</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23977,7 +23977,7 @@
         <v>44252</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44252</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44252</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44259</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24205,7 +24205,7 @@
         <v>44260</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24262,7 +24262,7 @@
         <v>44266</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24319,7 +24319,7 @@
         <v>44275</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24376,7 +24376,7 @@
         <v>44277</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24433,7 +24433,7 @@
         <v>44277</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24490,7 +24490,7 @@
         <v>44278</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24547,7 +24547,7 @@
         <v>44280</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24604,7 +24604,7 @@
         <v>44306</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24661,7 +24661,7 @@
         <v>44308</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24718,7 +24718,7 @@
         <v>44308</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24775,7 +24775,7 @@
         <v>44313</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24832,7 +24832,7 @@
         <v>44313</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24889,7 +24889,7 @@
         <v>44314</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         <v>44315</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         <v>44330</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25060,7 +25060,7 @@
         <v>44347</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25117,7 +25117,7 @@
         <v>44357</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25174,7 +25174,7 @@
         <v>44363</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25231,7 +25231,7 @@
         <v>44368</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25288,7 +25288,7 @@
         <v>44379</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25345,7 +25345,7 @@
         <v>44411</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25402,7 +25402,7 @@
         <v>44420</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25459,7 +25459,7 @@
         <v>44434</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25516,7 +25516,7 @@
         <v>44434</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>44442</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>44445</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>44447</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         <v>44453</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>44457</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25863,7 +25863,7 @@
         <v>44459</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25920,7 +25920,7 @@
         <v>44459</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25977,7 +25977,7 @@
         <v>44466</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>44466</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>44467</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>44467</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>44468</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>44473</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>44474</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26376,7 +26376,7 @@
         <v>44475</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26433,7 +26433,7 @@
         <v>44476</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26490,7 +26490,7 @@
         <v>44476</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26547,7 +26547,7 @@
         <v>44482</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26604,7 +26604,7 @@
         <v>44487</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26661,7 +26661,7 @@
         <v>44502</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26718,7 +26718,7 @@
         <v>44514</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26775,7 +26775,7 @@
         <v>44516</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26832,7 +26832,7 @@
         <v>44516</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26889,7 +26889,7 @@
         <v>44529</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         <v>44530</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27003,7 +27003,7 @@
         <v>44532</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27060,7 +27060,7 @@
         <v>44536</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         <v>44536</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27174,7 +27174,7 @@
         <v>44537</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27231,7 +27231,7 @@
         <v>44546</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27288,7 +27288,7 @@
         <v>44564</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27345,7 +27345,7 @@
         <v>44568</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27402,7 +27402,7 @@
         <v>44580</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27459,7 +27459,7 @@
         <v>44586</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27516,7 +27516,7 @@
         <v>44593</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27573,7 +27573,7 @@
         <v>44599</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27630,7 +27630,7 @@
         <v>44610</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27687,7 +27687,7 @@
         <v>44621</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27744,7 +27744,7 @@
         <v>44636</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27801,7 +27801,7 @@
         <v>44640</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27858,7 +27858,7 @@
         <v>44651</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27915,7 +27915,7 @@
         <v>44652</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27972,7 +27972,7 @@
         <v>44657</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28029,7 +28029,7 @@
         <v>44658</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28086,7 +28086,7 @@
         <v>44670</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28143,7 +28143,7 @@
         <v>44671</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28200,7 +28200,7 @@
         <v>44679</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28257,7 +28257,7 @@
         <v>44706</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28314,7 +28314,7 @@
         <v>44722</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28371,7 +28371,7 @@
         <v>44725</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28428,7 +28428,7 @@
         <v>44739</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         <v>44740</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28542,7 +28542,7 @@
         <v>44748</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>44763</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>44776</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>44788</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         <v>44795</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28827,7 +28827,7 @@
         <v>44795</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28884,7 +28884,7 @@
         <v>44795</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28941,7 +28941,7 @@
         <v>44811</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28998,7 +28998,7 @@
         <v>44811</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29055,7 +29055,7 @@
         <v>44812</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29112,7 +29112,7 @@
         <v>44812</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29169,7 +29169,7 @@
         <v>44816</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29226,7 +29226,7 @@
         <v>44818</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29283,7 +29283,7 @@
         <v>44827</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>44830</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
         <v>44841</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>44845</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>44849</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29568,7 +29568,7 @@
         <v>44851</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29625,7 +29625,7 @@
         <v>44852</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29682,7 +29682,7 @@
         <v>44852</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29739,7 +29739,7 @@
         <v>44861</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29796,7 +29796,7 @@
         <v>44862</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29853,7 +29853,7 @@
         <v>44865</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29910,7 +29910,7 @@
         <v>44865</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29967,7 +29967,7 @@
         <v>44879</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30024,7 +30024,7 @@
         <v>44890</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30081,7 +30081,7 @@
         <v>44896</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30138,7 +30138,7 @@
         <v>44900</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30195,7 +30195,7 @@
         <v>44902</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30252,7 +30252,7 @@
         <v>44902</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30309,7 +30309,7 @@
         <v>44902</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30366,7 +30366,7 @@
         <v>44910</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30423,7 +30423,7 @@
         <v>44928</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30480,7 +30480,7 @@
         <v>44928</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30537,7 +30537,7 @@
         <v>44938</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30594,7 +30594,7 @@
         <v>44942</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30651,7 +30651,7 @@
         <v>44943</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30708,7 +30708,7 @@
         <v>44944</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30765,7 +30765,7 @@
         <v>44949</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30822,7 +30822,7 @@
         <v>44949</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30879,7 +30879,7 @@
         <v>44958</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30936,7 +30936,7 @@
         <v>44965</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30993,7 +30993,7 @@
         <v>44977</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31050,7 +31050,7 @@
         <v>44984</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31107,7 +31107,7 @@
         <v>44985</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31164,7 +31164,7 @@
         <v>44987</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31221,7 +31221,7 @@
         <v>44988</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31278,7 +31278,7 @@
         <v>44988</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31335,7 +31335,7 @@
         <v>44988</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31392,7 +31392,7 @@
         <v>44988</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31449,7 +31449,7 @@
         <v>44992</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31506,7 +31506,7 @@
         <v>44993</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31563,7 +31563,7 @@
         <v>44999</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31620,7 +31620,7 @@
         <v>45006</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31677,7 +31677,7 @@
         <v>45008</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31734,7 +31734,7 @@
         <v>45008</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31791,7 +31791,7 @@
         <v>45008</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31848,7 +31848,7 @@
         <v>45019</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31905,7 +31905,7 @@
         <v>45019</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31962,7 +31962,7 @@
         <v>45036</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32019,7 +32019,7 @@
         <v>45040</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32076,7 +32076,7 @@
         <v>45040</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32133,7 +32133,7 @@
         <v>45040</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32190,7 +32190,7 @@
         <v>45040</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32247,7 +32247,7 @@
         <v>45056</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32304,7 +32304,7 @@
         <v>45063</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32361,7 +32361,7 @@
         <v>45069</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32418,7 +32418,7 @@
         <v>45075</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32475,7 +32475,7 @@
         <v>45075</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32532,7 +32532,7 @@
         <v>45089</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32589,7 +32589,7 @@
         <v>45093</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32646,7 +32646,7 @@
         <v>45113</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32703,7 +32703,7 @@
         <v>45121</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32760,7 +32760,7 @@
         <v>45126</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32817,7 +32817,7 @@
         <v>45132</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32874,7 +32874,7 @@
         <v>45132</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32931,7 +32931,7 @@
         <v>45132</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32988,7 +32988,7 @@
         <v>45139</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33045,7 +33045,7 @@
         <v>45167</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33102,7 +33102,7 @@
         <v>45167</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>

--- a/Översikt TORSÅS.xlsx
+++ b/Översikt TORSÅS.xlsx
@@ -572,7 +572,7 @@
         <v>43536</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>43922</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>43693</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>43425</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43682</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
         <v>43840</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>45001</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>43783</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>44459</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>43434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>43608</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>43703</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>43705</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>43712</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>44216</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>44410</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>44568</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44939</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43349</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43363</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43494</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>43579</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>43669</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43682</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>43703</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>44125</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>44231</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>44263</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>44453</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>44454</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>44804</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>45019</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>45079</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>43322</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         <v>43326</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         <v>43326</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>43326</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>43332</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>43339</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>43349</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>43349</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>43361</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         <v>43361</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         <v>43363</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>43363</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v>43376</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>43381</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4247,7 +4247,7 @@
         <v>43389</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         <v>43391</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4361,7 +4361,7 @@
         <v>43396</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
         <v>43396</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43396</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43398</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>43412</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>43419</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>43425</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43425</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43432</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43434</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43455</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43455</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43473</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43475</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43483</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43483</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43486</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43488</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>43488</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43488</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43490</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43490</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>43490</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5957,7 +5957,7 @@
         <v>43493</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43494</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>43497</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>43501</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>43504</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>43504</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>43511</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>43523</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6413,7 +6413,7 @@
         <v>43523</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6470,7 +6470,7 @@
         <v>43524</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>43524</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>43524</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>43528</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>43529</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43529</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43536</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43537</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43537</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43542</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43544</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43563</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>43563</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>43565</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7268,7 +7268,7 @@
         <v>43566</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7325,7 +7325,7 @@
         <v>43571</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>43577</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>43577</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>43578</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>43579</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43579</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43579</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>43598</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>43598</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>43600</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         <v>43612</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>43612</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>43612</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>43613</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>43613</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>43613</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>43614</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>43614</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>43616</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8408,7 +8408,7 @@
         <v>43626</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8465,7 +8465,7 @@
         <v>43627</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>43627</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>43629</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>43629</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8693,7 +8693,7 @@
         <v>43629</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>43629</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>43630</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>43630</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>43640</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>43640</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>43642</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>43643</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9149,7 +9149,7 @@
         <v>43643</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9206,7 +9206,7 @@
         <v>43645</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9263,7 +9263,7 @@
         <v>43648</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9320,7 +9320,7 @@
         <v>43648</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>43648</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9434,7 +9434,7 @@
         <v>43648</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9491,7 +9491,7 @@
         <v>43648</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9548,7 +9548,7 @@
         <v>43650</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9605,7 +9605,7 @@
         <v>43650</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9662,7 +9662,7 @@
         <v>43651</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>43664</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>43670</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9833,7 +9833,7 @@
         <v>43670</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9890,7 +9890,7 @@
         <v>43670</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9947,7 +9947,7 @@
         <v>43672</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10004,7 +10004,7 @@
         <v>43674</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10061,7 +10061,7 @@
         <v>43675</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10118,7 +10118,7 @@
         <v>43675</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10175,7 +10175,7 @@
         <v>43675</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10232,7 +10232,7 @@
         <v>43675</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>43675</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>43675</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>43676</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>43676</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>43676</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>43677</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>43677</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>43677</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>43679</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>43680</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>43682</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>43682</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>43682</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>43683</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>43683</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>43683</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>43683</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11258,7 +11258,7 @@
         <v>43684</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11315,7 +11315,7 @@
         <v>43686</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11372,7 +11372,7 @@
         <v>43689</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11429,7 +11429,7 @@
         <v>43689</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11486,7 +11486,7 @@
         <v>43689</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11543,7 +11543,7 @@
         <v>43689</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11600,7 +11600,7 @@
         <v>43689</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11657,7 +11657,7 @@
         <v>43690</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>43691</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>43691</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11828,7 +11828,7 @@
         <v>43692</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>43692</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>43692</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>43692</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>43692</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         <v>43693</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>43693</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>43693</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>43693</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>43693</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>43696</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>43698</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>43698</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>43705</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>43705</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>43705</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>43710</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>43710</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>43710</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12931,7 +12931,7 @@
         <v>43710</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         <v>43711</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>43711</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>43712</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>43712</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>43712</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13278,7 +13278,7 @@
         <v>43712</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13335,7 +13335,7 @@
         <v>43713</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>43714</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>43717</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>43717</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>43718</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>43718</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>43718</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>43719</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13791,7 +13791,7 @@
         <v>43724</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         <v>43724</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13905,7 +13905,7 @@
         <v>43726</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13962,7 +13962,7 @@
         <v>43728</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14019,7 +14019,7 @@
         <v>43732</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14076,7 +14076,7 @@
         <v>43732</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14133,7 +14133,7 @@
         <v>43732</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>43732</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>43733</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14304,7 +14304,7 @@
         <v>43734</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>43738</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>43740</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14475,7 +14475,7 @@
         <v>43740</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         <v>43747</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         <v>43752</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14646,7 +14646,7 @@
         <v>43753</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>43755</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14760,7 +14760,7 @@
         <v>43755</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14817,7 +14817,7 @@
         <v>43755</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14874,7 +14874,7 @@
         <v>43766</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14931,7 +14931,7 @@
         <v>43766</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14988,7 +14988,7 @@
         <v>43766</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>43766</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15102,7 +15102,7 @@
         <v>43766</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>43766</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15216,7 +15216,7 @@
         <v>43773</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>43775</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>43776</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>43781</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>43781</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>43782</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15558,7 +15558,7 @@
         <v>43789</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15615,7 +15615,7 @@
         <v>43789</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>43790</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>43794</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         <v>43794</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15843,7 +15843,7 @@
         <v>43794</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15900,7 +15900,7 @@
         <v>43795</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15957,7 +15957,7 @@
         <v>43795</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16014,7 +16014,7 @@
         <v>43796</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16071,7 +16071,7 @@
         <v>43796</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16128,7 +16128,7 @@
         <v>43797</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16185,7 +16185,7 @@
         <v>43804</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16242,7 +16242,7 @@
         <v>43810</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16299,7 +16299,7 @@
         <v>43811</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>43815</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16413,7 +16413,7 @@
         <v>43819</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16470,7 +16470,7 @@
         <v>43822</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16527,7 +16527,7 @@
         <v>43837</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16584,7 +16584,7 @@
         <v>43840</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16641,7 +16641,7 @@
         <v>43840</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16698,7 +16698,7 @@
         <v>43846</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>43851</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16812,7 +16812,7 @@
         <v>43857</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>43859</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>43861</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>43866</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>43867</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>43867</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>43878</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17211,7 +17211,7 @@
         <v>43885</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17268,7 +17268,7 @@
         <v>43885</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17325,7 +17325,7 @@
         <v>43887</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17382,7 +17382,7 @@
         <v>43892</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17439,7 +17439,7 @@
         <v>43892</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17496,7 +17496,7 @@
         <v>43892</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>43898</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>43903</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>43907</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>43907</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>43908</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>43908</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>43909</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>43909</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>43911</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         <v>43911</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>43917</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18180,7 +18180,7 @@
         <v>43920</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>43920</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18294,7 +18294,7 @@
         <v>43922</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18351,7 +18351,7 @@
         <v>43923</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18408,7 +18408,7 @@
         <v>43928</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18465,7 +18465,7 @@
         <v>43929</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18522,7 +18522,7 @@
         <v>43936</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18579,7 +18579,7 @@
         <v>43936</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18636,7 +18636,7 @@
         <v>43942</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         <v>43944</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18750,7 +18750,7 @@
         <v>43944</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18807,7 +18807,7 @@
         <v>43956</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18864,7 +18864,7 @@
         <v>43956</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18921,7 +18921,7 @@
         <v>43988</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18978,7 +18978,7 @@
         <v>43988</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19035,7 +19035,7 @@
         <v>44012</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19092,7 +19092,7 @@
         <v>44013</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19149,7 +19149,7 @@
         <v>44013</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19206,7 +19206,7 @@
         <v>44019</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19263,7 +19263,7 @@
         <v>44019</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19320,7 +19320,7 @@
         <v>44025</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19377,7 +19377,7 @@
         <v>44025</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19434,7 +19434,7 @@
         <v>44035</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19496,7 +19496,7 @@
         <v>44041</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19553,7 +19553,7 @@
         <v>44046</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19610,7 +19610,7 @@
         <v>44055</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19667,7 +19667,7 @@
         <v>44055</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>44055</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>44057</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44057</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19915,7 +19915,7 @@
         <v>44057</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         <v>44057</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>44057</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20086,7 +20086,7 @@
         <v>44057</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20143,7 +20143,7 @@
         <v>44057</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20200,7 +20200,7 @@
         <v>44057</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20257,7 +20257,7 @@
         <v>44063</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>44068</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>44074</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>44077</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>44078</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>44078</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>44095</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>44096</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>44098</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>44098</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>44102</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>44104</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>44105</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>44107</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>44107</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>44109</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>44110</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>44110</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>44110</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>44111</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44111</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44111</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44118</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44118</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44131</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>44134</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>44134</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
         <v>44138</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>44140</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44144</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>44146</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22029,7 +22029,7 @@
         <v>44150</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22086,7 +22086,7 @@
         <v>44152</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22143,7 +22143,7 @@
         <v>44155</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22205,7 +22205,7 @@
         <v>44155</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>44165</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>44172</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
         <v>44172</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>44173</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22495,7 +22495,7 @@
         <v>44174</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22552,7 +22552,7 @@
         <v>44181</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22609,7 +22609,7 @@
         <v>44182</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22666,7 +22666,7 @@
         <v>44187</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22723,7 +22723,7 @@
         <v>44201</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22780,7 +22780,7 @@
         <v>44207</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>44208</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22894,7 +22894,7 @@
         <v>44208</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22951,7 +22951,7 @@
         <v>44208</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>44208</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
         <v>44208</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23122,7 +23122,7 @@
         <v>44210</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23179,7 +23179,7 @@
         <v>44211</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23236,7 +23236,7 @@
         <v>44211</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23293,7 +23293,7 @@
         <v>44214</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23350,7 +23350,7 @@
         <v>44217</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23407,7 +23407,7 @@
         <v>44217</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23464,7 +23464,7 @@
         <v>44224</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23521,7 +23521,7 @@
         <v>44228</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23578,7 +23578,7 @@
         <v>44235</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         <v>44242</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23692,7 +23692,7 @@
         <v>44243</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23749,7 +23749,7 @@
         <v>44245</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23806,7 +23806,7 @@
         <v>44250</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23863,7 +23863,7 @@
         <v>44250</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23920,7 +23920,7 @@
         <v>44250</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23977,7 +23977,7 @@
         <v>44252</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44252</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44252</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44259</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24205,7 +24205,7 @@
         <v>44260</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24262,7 +24262,7 @@
         <v>44266</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24319,7 +24319,7 @@
         <v>44275</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24376,7 +24376,7 @@
         <v>44277</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24433,7 +24433,7 @@
         <v>44277</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24490,7 +24490,7 @@
         <v>44278</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24547,7 +24547,7 @@
         <v>44280</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24604,7 +24604,7 @@
         <v>44306</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24661,7 +24661,7 @@
         <v>44308</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24718,7 +24718,7 @@
         <v>44308</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24775,7 +24775,7 @@
         <v>44313</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24832,7 +24832,7 @@
         <v>44313</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24889,7 +24889,7 @@
         <v>44314</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         <v>44315</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         <v>44330</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25060,7 +25060,7 @@
         <v>44347</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25117,7 +25117,7 @@
         <v>44357</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25174,7 +25174,7 @@
         <v>44363</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25231,7 +25231,7 @@
         <v>44368</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25288,7 +25288,7 @@
         <v>44379</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25345,7 +25345,7 @@
         <v>44411</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25402,7 +25402,7 @@
         <v>44420</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25459,7 +25459,7 @@
         <v>44434</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25516,7 +25516,7 @@
         <v>44434</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>44442</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>44445</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>44447</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         <v>44453</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>44457</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25863,7 +25863,7 @@
         <v>44459</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25920,7 +25920,7 @@
         <v>44459</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25977,7 +25977,7 @@
         <v>44466</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>44466</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>44467</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>44467</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>44468</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>44473</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>44474</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26376,7 +26376,7 @@
         <v>44475</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26433,7 +26433,7 @@
         <v>44476</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26490,7 +26490,7 @@
         <v>44476</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26547,7 +26547,7 @@
         <v>44482</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26604,7 +26604,7 @@
         <v>44487</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26661,7 +26661,7 @@
         <v>44502</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26718,7 +26718,7 @@
         <v>44514</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26775,7 +26775,7 @@
         <v>44516</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26832,7 +26832,7 @@
         <v>44516</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26889,7 +26889,7 @@
         <v>44529</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         <v>44530</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27003,7 +27003,7 @@
         <v>44532</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27060,7 +27060,7 @@
         <v>44536</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         <v>44536</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27174,7 +27174,7 @@
         <v>44537</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27231,7 +27231,7 @@
         <v>44546</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27288,7 +27288,7 @@
         <v>44564</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27345,7 +27345,7 @@
         <v>44568</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27402,7 +27402,7 @@
         <v>44580</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27459,7 +27459,7 @@
         <v>44586</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27516,7 +27516,7 @@
         <v>44593</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27573,7 +27573,7 @@
         <v>44599</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27630,7 +27630,7 @@
         <v>44610</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27687,7 +27687,7 @@
         <v>44621</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27744,7 +27744,7 @@
         <v>44636</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27801,7 +27801,7 @@
         <v>44640</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27858,7 +27858,7 @@
         <v>44651</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27915,7 +27915,7 @@
         <v>44652</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27972,7 +27972,7 @@
         <v>44657</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28029,7 +28029,7 @@
         <v>44658</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28086,7 +28086,7 @@
         <v>44670</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28143,7 +28143,7 @@
         <v>44671</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28200,7 +28200,7 @@
         <v>44679</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28257,7 +28257,7 @@
         <v>44706</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28314,7 +28314,7 @@
         <v>44722</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28371,7 +28371,7 @@
         <v>44725</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28428,7 +28428,7 @@
         <v>44739</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         <v>44740</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28542,7 +28542,7 @@
         <v>44748</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>44763</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>44776</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>44788</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         <v>44795</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28827,7 +28827,7 @@
         <v>44795</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28884,7 +28884,7 @@
         <v>44795</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28941,7 +28941,7 @@
         <v>44811</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28998,7 +28998,7 @@
         <v>44811</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29055,7 +29055,7 @@
         <v>44812</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29112,7 +29112,7 @@
         <v>44812</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29169,7 +29169,7 @@
         <v>44816</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29226,7 +29226,7 @@
         <v>44818</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29283,7 +29283,7 @@
         <v>44827</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>44830</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
         <v>44841</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>44845</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>44849</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29568,7 +29568,7 @@
         <v>44851</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29625,7 +29625,7 @@
         <v>44852</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29682,7 +29682,7 @@
         <v>44852</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29739,7 +29739,7 @@
         <v>44861</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29796,7 +29796,7 @@
         <v>44862</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29853,7 +29853,7 @@
         <v>44865</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29910,7 +29910,7 @@
         <v>44865</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29967,7 +29967,7 @@
         <v>44879</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30024,7 +30024,7 @@
         <v>44890</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30081,7 +30081,7 @@
         <v>44896</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30138,7 +30138,7 @@
         <v>44900</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30195,7 +30195,7 @@
         <v>44902</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30252,7 +30252,7 @@
         <v>44902</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30309,7 +30309,7 @@
         <v>44902</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30366,7 +30366,7 @@
         <v>44910</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30423,7 +30423,7 @@
         <v>44928</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30480,7 +30480,7 @@
         <v>44928</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30537,7 +30537,7 @@
         <v>44938</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30594,7 +30594,7 @@
         <v>44942</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30651,7 +30651,7 @@
         <v>44943</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30708,7 +30708,7 @@
         <v>44944</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30765,7 +30765,7 @@
         <v>44949</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30822,7 +30822,7 @@
         <v>44949</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30879,7 +30879,7 @@
         <v>44958</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30936,7 +30936,7 @@
         <v>44965</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30993,7 +30993,7 @@
         <v>44977</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31050,7 +31050,7 @@
         <v>44984</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31107,7 +31107,7 @@
         <v>44985</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31164,7 +31164,7 @@
         <v>44987</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31221,7 +31221,7 @@
         <v>44988</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31278,7 +31278,7 @@
         <v>44988</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31335,7 +31335,7 @@
         <v>44988</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31392,7 +31392,7 @@
         <v>44988</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31449,7 +31449,7 @@
         <v>44992</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31506,7 +31506,7 @@
         <v>44993</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31563,7 +31563,7 @@
         <v>44999</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31620,7 +31620,7 @@
         <v>45006</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31677,7 +31677,7 @@
         <v>45008</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31734,7 +31734,7 @@
         <v>45008</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31791,7 +31791,7 @@
         <v>45008</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31848,7 +31848,7 @@
         <v>45019</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31905,7 +31905,7 @@
         <v>45019</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31962,7 +31962,7 @@
         <v>45036</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32019,7 +32019,7 @@
         <v>45040</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32076,7 +32076,7 @@
         <v>45040</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32133,7 +32133,7 @@
         <v>45040</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32190,7 +32190,7 @@
         <v>45040</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32247,7 +32247,7 @@
         <v>45056</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32304,7 +32304,7 @@
         <v>45063</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32361,7 +32361,7 @@
         <v>45069</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32418,7 +32418,7 @@
         <v>45075</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32475,7 +32475,7 @@
         <v>45075</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32532,7 +32532,7 @@
         <v>45089</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32589,7 +32589,7 @@
         <v>45093</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32646,7 +32646,7 @@
         <v>45113</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32703,7 +32703,7 @@
         <v>45121</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32760,7 +32760,7 @@
         <v>45126</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32817,7 +32817,7 @@
         <v>45132</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32874,7 +32874,7 @@
         <v>45132</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32931,7 +32931,7 @@
         <v>45132</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32988,7 +32988,7 @@
         <v>45139</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33045,7 +33045,7 @@
         <v>45167</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33102,7 +33102,7 @@
         <v>45167</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>

--- a/Översikt TORSÅS.xlsx
+++ b/Översikt TORSÅS.xlsx
@@ -572,7 +572,7 @@
         <v>43536</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>43922</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>43693</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>43425</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43682</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
         <v>43840</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>45001</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>43783</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>44459</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>43434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>43608</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>43703</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>43705</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>43712</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>44216</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>44410</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>44568</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44939</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43349</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43363</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43494</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>43579</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>43669</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43682</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>43703</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>44125</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>44231</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>44263</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>44453</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>44454</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>44804</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>45019</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>45079</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>43322</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         <v>43326</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         <v>43326</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>43326</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>43332</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>43339</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>43349</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>43349</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>43361</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         <v>43361</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         <v>43363</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>43363</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v>43376</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>43381</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4247,7 +4247,7 @@
         <v>43389</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         <v>43391</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4361,7 +4361,7 @@
         <v>43396</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
         <v>43396</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43396</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43398</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>43412</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>43419</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>43425</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43425</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43432</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43434</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43455</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43455</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43473</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43475</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43483</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43483</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43486</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43488</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>43488</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43488</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43490</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43490</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>43490</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5957,7 +5957,7 @@
         <v>43493</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43494</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>43497</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>43501</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>43504</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>43504</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>43511</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>43523</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6413,7 +6413,7 @@
         <v>43523</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6470,7 +6470,7 @@
         <v>43524</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>43524</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>43524</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>43528</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>43529</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43529</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43536</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43537</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43537</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43542</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43544</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43563</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>43563</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>43565</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7268,7 +7268,7 @@
         <v>43566</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7325,7 +7325,7 @@
         <v>43571</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>43577</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>43577</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>43578</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>43579</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43579</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43579</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>43598</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>43598</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>43600</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         <v>43612</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>43612</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>43612</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>43613</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>43613</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>43613</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>43614</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>43614</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>43616</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8408,7 +8408,7 @@
         <v>43626</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8465,7 +8465,7 @@
         <v>43627</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>43627</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>43629</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>43629</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8693,7 +8693,7 @@
         <v>43629</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>43629</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>43630</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>43630</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>43640</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>43640</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>43642</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>43643</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9149,7 +9149,7 @@
         <v>43643</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9206,7 +9206,7 @@
         <v>43645</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9263,7 +9263,7 @@
         <v>43648</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9320,7 +9320,7 @@
         <v>43648</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>43648</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9434,7 +9434,7 @@
         <v>43648</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9491,7 +9491,7 @@
         <v>43648</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9548,7 +9548,7 @@
         <v>43650</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9605,7 +9605,7 @@
         <v>43650</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9662,7 +9662,7 @@
         <v>43651</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>43664</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>43670</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9833,7 +9833,7 @@
         <v>43670</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9890,7 +9890,7 @@
         <v>43670</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9947,7 +9947,7 @@
         <v>43672</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10004,7 +10004,7 @@
         <v>43674</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10061,7 +10061,7 @@
         <v>43675</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10118,7 +10118,7 @@
         <v>43675</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10175,7 +10175,7 @@
         <v>43675</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10232,7 +10232,7 @@
         <v>43675</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>43675</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>43675</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>43676</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>43676</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>43676</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>43677</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>43677</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>43677</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>43679</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>43680</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>43682</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>43682</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>43682</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>43683</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>43683</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>43683</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>43683</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11258,7 +11258,7 @@
         <v>43684</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11315,7 +11315,7 @@
         <v>43686</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11372,7 +11372,7 @@
         <v>43689</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11429,7 +11429,7 @@
         <v>43689</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11486,7 +11486,7 @@
         <v>43689</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11543,7 +11543,7 @@
         <v>43689</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11600,7 +11600,7 @@
         <v>43689</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11657,7 +11657,7 @@
         <v>43690</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>43691</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>43691</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11828,7 +11828,7 @@
         <v>43692</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>43692</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>43692</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>43692</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>43692</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         <v>43693</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>43693</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>43693</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>43693</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>43693</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>43696</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>43698</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>43698</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>43705</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>43705</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>43705</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>43710</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>43710</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>43710</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12931,7 +12931,7 @@
         <v>43710</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         <v>43711</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>43711</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>43712</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>43712</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>43712</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13278,7 +13278,7 @@
         <v>43712</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13335,7 +13335,7 @@
         <v>43713</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>43714</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>43717</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>43717</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>43718</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>43718</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>43718</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>43719</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13791,7 +13791,7 @@
         <v>43724</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         <v>43724</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13905,7 +13905,7 @@
         <v>43726</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13962,7 +13962,7 @@
         <v>43728</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14019,7 +14019,7 @@
         <v>43732</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14076,7 +14076,7 @@
         <v>43732</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14133,7 +14133,7 @@
         <v>43732</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>43732</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>43733</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14304,7 +14304,7 @@
         <v>43734</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>43738</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>43740</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14475,7 +14475,7 @@
         <v>43740</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         <v>43747</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         <v>43752</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14646,7 +14646,7 @@
         <v>43753</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>43755</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14760,7 +14760,7 @@
         <v>43755</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14817,7 +14817,7 @@
         <v>43755</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14874,7 +14874,7 @@
         <v>43766</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14931,7 +14931,7 @@
         <v>43766</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14988,7 +14988,7 @@
         <v>43766</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>43766</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15102,7 +15102,7 @@
         <v>43766</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>43766</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15216,7 +15216,7 @@
         <v>43773</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>43775</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>43776</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>43781</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>43781</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>43782</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15558,7 +15558,7 @@
         <v>43789</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15615,7 +15615,7 @@
         <v>43789</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>43790</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>43794</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         <v>43794</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15843,7 +15843,7 @@
         <v>43794</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15900,7 +15900,7 @@
         <v>43795</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15957,7 +15957,7 @@
         <v>43795</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16014,7 +16014,7 @@
         <v>43796</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16071,7 +16071,7 @@
         <v>43796</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16128,7 +16128,7 @@
         <v>43797</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16185,7 +16185,7 @@
         <v>43804</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16242,7 +16242,7 @@
         <v>43810</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16299,7 +16299,7 @@
         <v>43811</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>43815</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16413,7 +16413,7 @@
         <v>43819</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16470,7 +16470,7 @@
         <v>43822</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16527,7 +16527,7 @@
         <v>43837</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16584,7 +16584,7 @@
         <v>43840</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16641,7 +16641,7 @@
         <v>43840</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16698,7 +16698,7 @@
         <v>43846</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>43851</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16812,7 +16812,7 @@
         <v>43857</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>43859</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>43861</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>43866</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>43867</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>43867</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>43878</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17211,7 +17211,7 @@
         <v>43885</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17268,7 +17268,7 @@
         <v>43885</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17325,7 +17325,7 @@
         <v>43887</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17382,7 +17382,7 @@
         <v>43892</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17439,7 +17439,7 @@
         <v>43892</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17496,7 +17496,7 @@
         <v>43892</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>43898</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>43903</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>43907</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>43907</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>43908</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>43908</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>43909</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>43909</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>43911</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         <v>43911</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>43917</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18180,7 +18180,7 @@
         <v>43920</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>43920</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18294,7 +18294,7 @@
         <v>43922</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18351,7 +18351,7 @@
         <v>43923</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18408,7 +18408,7 @@
         <v>43928</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18465,7 +18465,7 @@
         <v>43929</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18522,7 +18522,7 @@
         <v>43936</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18579,7 +18579,7 @@
         <v>43936</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18636,7 +18636,7 @@
         <v>43942</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         <v>43944</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18750,7 +18750,7 @@
         <v>43944</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18807,7 +18807,7 @@
         <v>43956</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18864,7 +18864,7 @@
         <v>43956</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18921,7 +18921,7 @@
         <v>43988</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18978,7 +18978,7 @@
         <v>43988</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19035,7 +19035,7 @@
         <v>44012</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19092,7 +19092,7 @@
         <v>44013</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19149,7 +19149,7 @@
         <v>44013</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19206,7 +19206,7 @@
         <v>44019</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19263,7 +19263,7 @@
         <v>44019</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19320,7 +19320,7 @@
         <v>44025</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19377,7 +19377,7 @@
         <v>44025</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19434,7 +19434,7 @@
         <v>44035</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19496,7 +19496,7 @@
         <v>44041</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19553,7 +19553,7 @@
         <v>44046</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19610,7 +19610,7 @@
         <v>44055</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19667,7 +19667,7 @@
         <v>44055</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>44055</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>44057</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44057</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19915,7 +19915,7 @@
         <v>44057</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         <v>44057</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>44057</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20086,7 +20086,7 @@
         <v>44057</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20143,7 +20143,7 @@
         <v>44057</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20200,7 +20200,7 @@
         <v>44057</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20257,7 +20257,7 @@
         <v>44063</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>44068</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>44074</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>44077</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>44078</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>44078</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>44095</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>44096</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>44098</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>44098</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>44102</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>44104</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>44105</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>44107</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>44107</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>44109</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>44110</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>44110</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>44110</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>44111</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44111</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44111</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44118</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44118</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44131</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>44134</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>44134</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
         <v>44138</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>44140</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44144</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>44146</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22029,7 +22029,7 @@
         <v>44150</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22086,7 +22086,7 @@
         <v>44152</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22143,7 +22143,7 @@
         <v>44155</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22205,7 +22205,7 @@
         <v>44155</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>44165</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>44172</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
         <v>44172</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>44173</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22495,7 +22495,7 @@
         <v>44174</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22552,7 +22552,7 @@
         <v>44181</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22609,7 +22609,7 @@
         <v>44182</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22666,7 +22666,7 @@
         <v>44187</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22723,7 +22723,7 @@
         <v>44201</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22780,7 +22780,7 @@
         <v>44207</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>44208</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22894,7 +22894,7 @@
         <v>44208</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22951,7 +22951,7 @@
         <v>44208</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>44208</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
         <v>44208</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23122,7 +23122,7 @@
         <v>44210</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23179,7 +23179,7 @@
         <v>44211</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23236,7 +23236,7 @@
         <v>44211</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23293,7 +23293,7 @@
         <v>44214</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23350,7 +23350,7 @@
         <v>44217</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23407,7 +23407,7 @@
         <v>44217</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23464,7 +23464,7 @@
         <v>44224</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23521,7 +23521,7 @@
         <v>44228</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23578,7 +23578,7 @@
         <v>44235</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         <v>44242</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23692,7 +23692,7 @@
         <v>44243</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23749,7 +23749,7 @@
         <v>44245</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23806,7 +23806,7 @@
         <v>44250</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23863,7 +23863,7 @@
         <v>44250</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23920,7 +23920,7 @@
         <v>44250</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23977,7 +23977,7 @@
         <v>44252</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44252</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44252</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44259</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24205,7 +24205,7 @@
         <v>44260</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24262,7 +24262,7 @@
         <v>44266</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24319,7 +24319,7 @@
         <v>44275</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24376,7 +24376,7 @@
         <v>44277</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24433,7 +24433,7 @@
         <v>44277</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24490,7 +24490,7 @@
         <v>44278</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24547,7 +24547,7 @@
         <v>44280</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24604,7 +24604,7 @@
         <v>44306</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24661,7 +24661,7 @@
         <v>44308</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24718,7 +24718,7 @@
         <v>44308</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24775,7 +24775,7 @@
         <v>44313</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24832,7 +24832,7 @@
         <v>44313</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24889,7 +24889,7 @@
         <v>44314</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         <v>44315</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         <v>44330</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25060,7 +25060,7 @@
         <v>44347</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25117,7 +25117,7 @@
         <v>44357</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25174,7 +25174,7 @@
         <v>44363</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25231,7 +25231,7 @@
         <v>44368</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25288,7 +25288,7 @@
         <v>44379</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25345,7 +25345,7 @@
         <v>44411</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25402,7 +25402,7 @@
         <v>44420</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25459,7 +25459,7 @@
         <v>44434</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25516,7 +25516,7 @@
         <v>44434</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>44442</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>44445</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>44447</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         <v>44453</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>44457</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25863,7 +25863,7 @@
         <v>44459</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25920,7 +25920,7 @@
         <v>44459</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25977,7 +25977,7 @@
         <v>44466</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>44466</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>44467</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>44467</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>44468</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>44473</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>44474</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26376,7 +26376,7 @@
         <v>44475</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26433,7 +26433,7 @@
         <v>44476</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26490,7 +26490,7 @@
         <v>44476</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26547,7 +26547,7 @@
         <v>44482</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26604,7 +26604,7 @@
         <v>44487</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26661,7 +26661,7 @@
         <v>44502</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26718,7 +26718,7 @@
         <v>44514</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26775,7 +26775,7 @@
         <v>44516</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26832,7 +26832,7 @@
         <v>44516</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26889,7 +26889,7 @@
         <v>44529</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         <v>44530</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27003,7 +27003,7 @@
         <v>44532</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27060,7 +27060,7 @@
         <v>44536</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         <v>44536</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27174,7 +27174,7 @@
         <v>44537</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27231,7 +27231,7 @@
         <v>44546</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27288,7 +27288,7 @@
         <v>44564</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27345,7 +27345,7 @@
         <v>44568</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27402,7 +27402,7 @@
         <v>44580</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27459,7 +27459,7 @@
         <v>44586</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27516,7 +27516,7 @@
         <v>44593</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27573,7 +27573,7 @@
         <v>44599</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27630,7 +27630,7 @@
         <v>44610</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27687,7 +27687,7 @@
         <v>44621</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27744,7 +27744,7 @@
         <v>44636</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27801,7 +27801,7 @@
         <v>44640</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27858,7 +27858,7 @@
         <v>44651</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27915,7 +27915,7 @@
         <v>44652</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27972,7 +27972,7 @@
         <v>44657</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28029,7 +28029,7 @@
         <v>44658</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28086,7 +28086,7 @@
         <v>44670</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28143,7 +28143,7 @@
         <v>44671</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28200,7 +28200,7 @@
         <v>44679</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28257,7 +28257,7 @@
         <v>44706</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28314,7 +28314,7 @@
         <v>44722</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28371,7 +28371,7 @@
         <v>44725</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28428,7 +28428,7 @@
         <v>44739</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         <v>44740</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28542,7 +28542,7 @@
         <v>44748</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>44763</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>44776</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>44788</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         <v>44795</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28827,7 +28827,7 @@
         <v>44795</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28884,7 +28884,7 @@
         <v>44795</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28941,7 +28941,7 @@
         <v>44811</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28998,7 +28998,7 @@
         <v>44811</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29055,7 +29055,7 @@
         <v>44812</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29112,7 +29112,7 @@
         <v>44812</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29169,7 +29169,7 @@
         <v>44816</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29226,7 +29226,7 @@
         <v>44818</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29283,7 +29283,7 @@
         <v>44827</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>44830</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
         <v>44841</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>44845</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>44849</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29568,7 +29568,7 @@
         <v>44851</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29625,7 +29625,7 @@
         <v>44852</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29682,7 +29682,7 @@
         <v>44852</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29739,7 +29739,7 @@
         <v>44861</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29796,7 +29796,7 @@
         <v>44862</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29853,7 +29853,7 @@
         <v>44865</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29910,7 +29910,7 @@
         <v>44865</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29967,7 +29967,7 @@
         <v>44879</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30024,7 +30024,7 @@
         <v>44890</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30081,7 +30081,7 @@
         <v>44896</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30138,7 +30138,7 @@
         <v>44900</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30195,7 +30195,7 @@
         <v>44902</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30252,7 +30252,7 @@
         <v>44902</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30309,7 +30309,7 @@
         <v>44902</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30366,7 +30366,7 @@
         <v>44910</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30423,7 +30423,7 @@
         <v>44928</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30480,7 +30480,7 @@
         <v>44928</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30537,7 +30537,7 @@
         <v>44938</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30594,7 +30594,7 @@
         <v>44942</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30651,7 +30651,7 @@
         <v>44943</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30708,7 +30708,7 @@
         <v>44944</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30765,7 +30765,7 @@
         <v>44949</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30822,7 +30822,7 @@
         <v>44949</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30879,7 +30879,7 @@
         <v>44958</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30936,7 +30936,7 @@
         <v>44965</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30993,7 +30993,7 @@
         <v>44977</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31050,7 +31050,7 @@
         <v>44984</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31107,7 +31107,7 @@
         <v>44985</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31164,7 +31164,7 @@
         <v>44987</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31221,7 +31221,7 @@
         <v>44988</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31278,7 +31278,7 @@
         <v>44988</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31335,7 +31335,7 @@
         <v>44988</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31392,7 +31392,7 @@
         <v>44988</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31449,7 +31449,7 @@
         <v>44992</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31506,7 +31506,7 @@
         <v>44993</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31563,7 +31563,7 @@
         <v>44999</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31620,7 +31620,7 @@
         <v>45006</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31677,7 +31677,7 @@
         <v>45008</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31734,7 +31734,7 @@
         <v>45008</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31791,7 +31791,7 @@
         <v>45008</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31848,7 +31848,7 @@
         <v>45019</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31905,7 +31905,7 @@
         <v>45019</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31962,7 +31962,7 @@
         <v>45036</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32019,7 +32019,7 @@
         <v>45040</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32076,7 +32076,7 @@
         <v>45040</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32133,7 +32133,7 @@
         <v>45040</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32190,7 +32190,7 @@
         <v>45040</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32247,7 +32247,7 @@
         <v>45056</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32304,7 +32304,7 @@
         <v>45063</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32361,7 +32361,7 @@
         <v>45069</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32418,7 +32418,7 @@
         <v>45075</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32475,7 +32475,7 @@
         <v>45075</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32532,7 +32532,7 @@
         <v>45089</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32589,7 +32589,7 @@
         <v>45093</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32646,7 +32646,7 @@
         <v>45113</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32703,7 +32703,7 @@
         <v>45121</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32760,7 +32760,7 @@
         <v>45126</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32817,7 +32817,7 @@
         <v>45132</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32874,7 +32874,7 @@
         <v>45132</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32931,7 +32931,7 @@
         <v>45132</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32988,7 +32988,7 @@
         <v>45139</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33045,7 +33045,7 @@
         <v>45167</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33102,7 +33102,7 @@
         <v>45167</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>

--- a/Översikt TORSÅS.xlsx
+++ b/Översikt TORSÅS.xlsx
@@ -572,7 +572,7 @@
         <v>43536</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>43922</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>43693</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>43425</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43682</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
         <v>43840</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>45001</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>43783</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>44459</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>43434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>43608</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>43703</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>43705</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>43712</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>44216</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>44410</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>44568</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44939</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43349</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43363</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43494</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>43579</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>43669</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43682</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>43703</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>44125</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>44231</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>44263</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>44453</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>44454</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>44804</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>45019</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>45079</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>43322</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         <v>43326</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         <v>43326</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>43326</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>43332</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>43339</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>43349</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>43349</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>43361</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         <v>43361</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         <v>43363</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>43363</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v>43376</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>43381</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4247,7 +4247,7 @@
         <v>43389</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         <v>43391</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4361,7 +4361,7 @@
         <v>43396</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
         <v>43396</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43396</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43398</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>43412</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>43419</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>43425</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43425</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43432</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43434</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43455</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43455</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43473</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43475</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43483</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43483</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43486</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43488</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>43488</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43488</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43490</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43490</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>43490</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5957,7 +5957,7 @@
         <v>43493</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43494</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>43497</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>43501</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>43504</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>43504</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>43511</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>43523</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6413,7 +6413,7 @@
         <v>43523</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6470,7 +6470,7 @@
         <v>43524</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>43524</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>43524</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>43528</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>43529</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43529</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43536</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43537</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43537</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43542</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43544</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43563</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>43563</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>43565</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7268,7 +7268,7 @@
         <v>43566</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7325,7 +7325,7 @@
         <v>43571</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>43577</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>43577</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>43578</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>43579</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43579</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43579</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>43598</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>43598</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>43600</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         <v>43612</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>43612</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>43612</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>43613</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>43613</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>43613</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>43614</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>43614</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>43616</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8408,7 +8408,7 @@
         <v>43626</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8465,7 +8465,7 @@
         <v>43627</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>43627</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>43629</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>43629</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8693,7 +8693,7 @@
         <v>43629</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>43629</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>43630</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>43630</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>43640</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>43640</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>43642</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>43643</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9149,7 +9149,7 @@
         <v>43643</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9206,7 +9206,7 @@
         <v>43645</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9263,7 +9263,7 @@
         <v>43648</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9320,7 +9320,7 @@
         <v>43648</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>43648</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9434,7 +9434,7 @@
         <v>43648</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9491,7 +9491,7 @@
         <v>43648</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9548,7 +9548,7 @@
         <v>43650</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9605,7 +9605,7 @@
         <v>43650</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9662,7 +9662,7 @@
         <v>43651</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>43664</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>43670</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9833,7 +9833,7 @@
         <v>43670</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9890,7 +9890,7 @@
         <v>43670</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9947,7 +9947,7 @@
         <v>43672</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10004,7 +10004,7 @@
         <v>43674</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10061,7 +10061,7 @@
         <v>43675</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10118,7 +10118,7 @@
         <v>43675</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10175,7 +10175,7 @@
         <v>43675</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10232,7 +10232,7 @@
         <v>43675</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>43675</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>43675</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>43676</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>43676</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>43676</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>43677</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>43677</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>43677</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>43679</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>43680</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>43682</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>43682</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>43682</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>43683</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>43683</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>43683</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>43683</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11258,7 +11258,7 @@
         <v>43684</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11315,7 +11315,7 @@
         <v>43686</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11372,7 +11372,7 @@
         <v>43689</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11429,7 +11429,7 @@
         <v>43689</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11486,7 +11486,7 @@
         <v>43689</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11543,7 +11543,7 @@
         <v>43689</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11600,7 +11600,7 @@
         <v>43689</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11657,7 +11657,7 @@
         <v>43690</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>43691</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>43691</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11828,7 +11828,7 @@
         <v>43692</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>43692</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>43692</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>43692</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>43692</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         <v>43693</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>43693</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>43693</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>43693</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>43693</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>43696</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>43698</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>43698</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>43705</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>43705</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>43705</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>43710</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>43710</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>43710</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12931,7 +12931,7 @@
         <v>43710</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         <v>43711</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>43711</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>43712</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>43712</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>43712</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13278,7 +13278,7 @@
         <v>43712</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13335,7 +13335,7 @@
         <v>43713</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>43714</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>43717</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>43717</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>43718</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>43718</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>43718</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>43719</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13791,7 +13791,7 @@
         <v>43724</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         <v>43724</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13905,7 +13905,7 @@
         <v>43726</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13962,7 +13962,7 @@
         <v>43728</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14019,7 +14019,7 @@
         <v>43732</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14076,7 +14076,7 @@
         <v>43732</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14133,7 +14133,7 @@
         <v>43732</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>43732</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>43733</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14304,7 +14304,7 @@
         <v>43734</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>43738</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>43740</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14475,7 +14475,7 @@
         <v>43740</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         <v>43747</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         <v>43752</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14646,7 +14646,7 @@
         <v>43753</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>43755</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14760,7 +14760,7 @@
         <v>43755</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14817,7 +14817,7 @@
         <v>43755</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14874,7 +14874,7 @@
         <v>43766</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14931,7 +14931,7 @@
         <v>43766</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14988,7 +14988,7 @@
         <v>43766</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>43766</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15102,7 +15102,7 @@
         <v>43766</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>43766</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15216,7 +15216,7 @@
         <v>43773</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>43775</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>43776</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>43781</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>43781</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>43782</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15558,7 +15558,7 @@
         <v>43789</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15615,7 +15615,7 @@
         <v>43789</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>43790</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>43794</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         <v>43794</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15843,7 +15843,7 @@
         <v>43794</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15900,7 +15900,7 @@
         <v>43795</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15957,7 +15957,7 @@
         <v>43795</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16014,7 +16014,7 @@
         <v>43796</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16071,7 +16071,7 @@
         <v>43796</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16128,7 +16128,7 @@
         <v>43797</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16185,7 +16185,7 @@
         <v>43804</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16242,7 +16242,7 @@
         <v>43810</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16299,7 +16299,7 @@
         <v>43811</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>43815</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16413,7 +16413,7 @@
         <v>43819</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16470,7 +16470,7 @@
         <v>43822</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16527,7 +16527,7 @@
         <v>43837</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16584,7 +16584,7 @@
         <v>43840</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16641,7 +16641,7 @@
         <v>43840</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16698,7 +16698,7 @@
         <v>43846</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>43851</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16812,7 +16812,7 @@
         <v>43857</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>43859</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>43861</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>43866</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>43867</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>43867</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>43878</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17211,7 +17211,7 @@
         <v>43885</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17268,7 +17268,7 @@
         <v>43885</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17325,7 +17325,7 @@
         <v>43887</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17382,7 +17382,7 @@
         <v>43892</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17439,7 +17439,7 @@
         <v>43892</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17496,7 +17496,7 @@
         <v>43892</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>43898</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>43903</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>43907</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>43907</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>43908</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>43908</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>43909</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>43909</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>43911</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         <v>43911</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>43917</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18180,7 +18180,7 @@
         <v>43920</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>43920</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18294,7 +18294,7 @@
         <v>43922</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18351,7 +18351,7 @@
         <v>43923</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18408,7 +18408,7 @@
         <v>43928</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18465,7 +18465,7 @@
         <v>43929</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18522,7 +18522,7 @@
         <v>43936</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18579,7 +18579,7 @@
         <v>43936</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18636,7 +18636,7 @@
         <v>43942</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         <v>43944</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18750,7 +18750,7 @@
         <v>43944</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18807,7 +18807,7 @@
         <v>43956</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18864,7 +18864,7 @@
         <v>43956</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18921,7 +18921,7 @@
         <v>43988</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18978,7 +18978,7 @@
         <v>43988</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19035,7 +19035,7 @@
         <v>44012</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19092,7 +19092,7 @@
         <v>44013</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19149,7 +19149,7 @@
         <v>44013</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19206,7 +19206,7 @@
         <v>44019</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19263,7 +19263,7 @@
         <v>44019</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19320,7 +19320,7 @@
         <v>44025</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19377,7 +19377,7 @@
         <v>44025</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19434,7 +19434,7 @@
         <v>44035</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19496,7 +19496,7 @@
         <v>44041</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19553,7 +19553,7 @@
         <v>44046</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19610,7 +19610,7 @@
         <v>44055</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19667,7 +19667,7 @@
         <v>44055</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>44055</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>44057</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44057</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19915,7 +19915,7 @@
         <v>44057</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         <v>44057</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>44057</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20086,7 +20086,7 @@
         <v>44057</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20143,7 +20143,7 @@
         <v>44057</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20200,7 +20200,7 @@
         <v>44057</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20257,7 +20257,7 @@
         <v>44063</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>44068</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>44074</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>44077</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>44078</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>44078</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>44095</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>44096</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>44098</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>44098</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>44102</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>44104</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>44105</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>44107</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>44107</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>44109</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>44110</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>44110</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>44110</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>44111</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44111</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44111</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44118</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44118</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44131</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>44134</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>44134</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
         <v>44138</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>44140</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44144</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>44146</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22029,7 +22029,7 @@
         <v>44150</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22086,7 +22086,7 @@
         <v>44152</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22143,7 +22143,7 @@
         <v>44155</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22205,7 +22205,7 @@
         <v>44155</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>44165</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>44172</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
         <v>44172</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>44173</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22495,7 +22495,7 @@
         <v>44174</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22552,7 +22552,7 @@
         <v>44181</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22609,7 +22609,7 @@
         <v>44182</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22666,7 +22666,7 @@
         <v>44187</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22723,7 +22723,7 @@
         <v>44201</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22780,7 +22780,7 @@
         <v>44207</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>44208</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22894,7 +22894,7 @@
         <v>44208</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22951,7 +22951,7 @@
         <v>44208</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>44208</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
         <v>44208</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23122,7 +23122,7 @@
         <v>44210</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23179,7 +23179,7 @@
         <v>44211</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23236,7 +23236,7 @@
         <v>44211</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23293,7 +23293,7 @@
         <v>44214</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23350,7 +23350,7 @@
         <v>44217</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23407,7 +23407,7 @@
         <v>44217</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23464,7 +23464,7 @@
         <v>44224</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23521,7 +23521,7 @@
         <v>44228</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23578,7 +23578,7 @@
         <v>44235</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         <v>44242</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23692,7 +23692,7 @@
         <v>44243</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23749,7 +23749,7 @@
         <v>44245</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23806,7 +23806,7 @@
         <v>44250</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23863,7 +23863,7 @@
         <v>44250</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23920,7 +23920,7 @@
         <v>44250</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23977,7 +23977,7 @@
         <v>44252</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44252</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44252</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44259</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24205,7 +24205,7 @@
         <v>44260</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24262,7 +24262,7 @@
         <v>44266</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24319,7 +24319,7 @@
         <v>44275</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24376,7 +24376,7 @@
         <v>44277</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24433,7 +24433,7 @@
         <v>44277</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24490,7 +24490,7 @@
         <v>44278</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24547,7 +24547,7 @@
         <v>44280</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24604,7 +24604,7 @@
         <v>44306</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24661,7 +24661,7 @@
         <v>44308</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24718,7 +24718,7 @@
         <v>44308</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24775,7 +24775,7 @@
         <v>44313</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24832,7 +24832,7 @@
         <v>44313</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24889,7 +24889,7 @@
         <v>44314</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         <v>44315</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         <v>44330</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25060,7 +25060,7 @@
         <v>44347</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25117,7 +25117,7 @@
         <v>44357</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25174,7 +25174,7 @@
         <v>44363</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25231,7 +25231,7 @@
         <v>44368</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25288,7 +25288,7 @@
         <v>44379</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25345,7 +25345,7 @@
         <v>44411</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25402,7 +25402,7 @@
         <v>44420</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25459,7 +25459,7 @@
         <v>44434</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25516,7 +25516,7 @@
         <v>44434</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>44442</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>44445</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>44447</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         <v>44453</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>44457</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25863,7 +25863,7 @@
         <v>44459</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25920,7 +25920,7 @@
         <v>44459</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25977,7 +25977,7 @@
         <v>44466</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>44466</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>44467</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>44467</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>44468</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>44473</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>44474</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26376,7 +26376,7 @@
         <v>44475</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26433,7 +26433,7 @@
         <v>44476</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26490,7 +26490,7 @@
         <v>44476</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26547,7 +26547,7 @@
         <v>44482</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26604,7 +26604,7 @@
         <v>44487</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26661,7 +26661,7 @@
         <v>44502</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26718,7 +26718,7 @@
         <v>44514</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26775,7 +26775,7 @@
         <v>44516</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26832,7 +26832,7 @@
         <v>44516</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26889,7 +26889,7 @@
         <v>44529</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         <v>44530</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27003,7 +27003,7 @@
         <v>44532</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27060,7 +27060,7 @@
         <v>44536</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         <v>44536</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27174,7 +27174,7 @@
         <v>44537</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27231,7 +27231,7 @@
         <v>44546</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27288,7 +27288,7 @@
         <v>44564</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27345,7 +27345,7 @@
         <v>44568</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27402,7 +27402,7 @@
         <v>44580</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27459,7 +27459,7 @@
         <v>44586</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27516,7 +27516,7 @@
         <v>44593</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27573,7 +27573,7 @@
         <v>44599</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27630,7 +27630,7 @@
         <v>44610</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27687,7 +27687,7 @@
         <v>44621</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27744,7 +27744,7 @@
         <v>44636</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27801,7 +27801,7 @@
         <v>44640</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27858,7 +27858,7 @@
         <v>44651</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27915,7 +27915,7 @@
         <v>44652</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27972,7 +27972,7 @@
         <v>44657</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28029,7 +28029,7 @@
         <v>44658</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28086,7 +28086,7 @@
         <v>44670</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28143,7 +28143,7 @@
         <v>44671</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28200,7 +28200,7 @@
         <v>44679</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28257,7 +28257,7 @@
         <v>44706</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28314,7 +28314,7 @@
         <v>44722</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28371,7 +28371,7 @@
         <v>44725</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28428,7 +28428,7 @@
         <v>44739</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         <v>44740</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28542,7 +28542,7 @@
         <v>44748</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>44763</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>44776</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>44788</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         <v>44795</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28827,7 +28827,7 @@
         <v>44795</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28884,7 +28884,7 @@
         <v>44795</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28941,7 +28941,7 @@
         <v>44811</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28998,7 +28998,7 @@
         <v>44811</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29055,7 +29055,7 @@
         <v>44812</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29112,7 +29112,7 @@
         <v>44812</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29169,7 +29169,7 @@
         <v>44816</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29226,7 +29226,7 @@
         <v>44818</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29283,7 +29283,7 @@
         <v>44827</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>44830</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
         <v>44841</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>44845</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>44849</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29568,7 +29568,7 @@
         <v>44851</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29625,7 +29625,7 @@
         <v>44852</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29682,7 +29682,7 @@
         <v>44852</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29739,7 +29739,7 @@
         <v>44861</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29796,7 +29796,7 @@
         <v>44862</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29853,7 +29853,7 @@
         <v>44865</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29910,7 +29910,7 @@
         <v>44865</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29967,7 +29967,7 @@
         <v>44879</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30024,7 +30024,7 @@
         <v>44890</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30081,7 +30081,7 @@
         <v>44896</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30138,7 +30138,7 @@
         <v>44900</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30195,7 +30195,7 @@
         <v>44902</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30252,7 +30252,7 @@
         <v>44902</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30309,7 +30309,7 @@
         <v>44902</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30366,7 +30366,7 @@
         <v>44910</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30423,7 +30423,7 @@
         <v>44928</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30480,7 +30480,7 @@
         <v>44928</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30537,7 +30537,7 @@
         <v>44938</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30594,7 +30594,7 @@
         <v>44942</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30651,7 +30651,7 @@
         <v>44943</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30708,7 +30708,7 @@
         <v>44944</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30765,7 +30765,7 @@
         <v>44949</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30822,7 +30822,7 @@
         <v>44949</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30879,7 +30879,7 @@
         <v>44958</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30936,7 +30936,7 @@
         <v>44965</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30993,7 +30993,7 @@
         <v>44977</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31050,7 +31050,7 @@
         <v>44984</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31107,7 +31107,7 @@
         <v>44985</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31164,7 +31164,7 @@
         <v>44987</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31221,7 +31221,7 @@
         <v>44988</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31278,7 +31278,7 @@
         <v>44988</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31335,7 +31335,7 @@
         <v>44988</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31392,7 +31392,7 @@
         <v>44988</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31449,7 +31449,7 @@
         <v>44992</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31506,7 +31506,7 @@
         <v>44993</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31563,7 +31563,7 @@
         <v>44999</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31620,7 +31620,7 @@
         <v>45006</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31677,7 +31677,7 @@
         <v>45008</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31734,7 +31734,7 @@
         <v>45008</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31791,7 +31791,7 @@
         <v>45008</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31848,7 +31848,7 @@
         <v>45019</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31905,7 +31905,7 @@
         <v>45019</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31962,7 +31962,7 @@
         <v>45036</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32019,7 +32019,7 @@
         <v>45040</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32076,7 +32076,7 @@
         <v>45040</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32133,7 +32133,7 @@
         <v>45040</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32190,7 +32190,7 @@
         <v>45040</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32247,7 +32247,7 @@
         <v>45056</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32304,7 +32304,7 @@
         <v>45063</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32361,7 +32361,7 @@
         <v>45069</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32418,7 +32418,7 @@
         <v>45075</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32475,7 +32475,7 @@
         <v>45075</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32532,7 +32532,7 @@
         <v>45089</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32589,7 +32589,7 @@
         <v>45093</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32646,7 +32646,7 @@
         <v>45113</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32703,7 +32703,7 @@
         <v>45121</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32760,7 +32760,7 @@
         <v>45126</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32817,7 +32817,7 @@
         <v>45132</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32874,7 +32874,7 @@
         <v>45132</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32931,7 +32931,7 @@
         <v>45132</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32988,7 +32988,7 @@
         <v>45139</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33045,7 +33045,7 @@
         <v>45167</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33102,7 +33102,7 @@
         <v>45167</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>

--- a/Översikt TORSÅS.xlsx
+++ b/Översikt TORSÅS.xlsx
@@ -572,7 +572,7 @@
         <v>43536</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>43922</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>43693</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>43425</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43682</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
         <v>43840</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>45001</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>43783</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>44459</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>43434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>43608</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>43703</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>43705</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>43712</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>44216</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>44410</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>44568</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44939</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43349</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43363</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43494</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>43579</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>43669</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43682</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>43703</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>44125</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>44231</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>44263</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>44453</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>44454</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>44804</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>45019</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>45079</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>43322</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         <v>43326</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         <v>43326</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>43326</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>43332</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>43339</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>43349</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>43349</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>43361</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         <v>43361</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         <v>43363</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>43363</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v>43376</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>43381</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4247,7 +4247,7 @@
         <v>43389</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         <v>43391</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4361,7 +4361,7 @@
         <v>43396</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
         <v>43396</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43396</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43398</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>43412</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>43419</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>43425</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43425</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43432</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43434</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43455</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43455</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43473</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43475</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43483</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43483</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43486</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43488</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>43488</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43488</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43490</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43490</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>43490</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5957,7 +5957,7 @@
         <v>43493</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43494</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>43497</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>43501</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>43504</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>43504</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>43511</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>43523</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6413,7 +6413,7 @@
         <v>43523</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6470,7 +6470,7 @@
         <v>43524</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>43524</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>43524</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>43528</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>43529</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43529</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43536</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43537</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43537</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43542</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43544</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43563</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>43563</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>43565</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7268,7 +7268,7 @@
         <v>43566</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7325,7 +7325,7 @@
         <v>43571</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>43577</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>43577</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>43578</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>43579</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43579</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43579</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>43598</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>43598</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>43600</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         <v>43612</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>43612</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>43612</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>43613</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>43613</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>43613</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>43614</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>43614</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>43616</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8408,7 +8408,7 @@
         <v>43626</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8465,7 +8465,7 @@
         <v>43627</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>43627</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>43629</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>43629</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8693,7 +8693,7 @@
         <v>43629</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>43629</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>43630</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>43630</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>43640</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>43640</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>43642</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>43643</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9149,7 +9149,7 @@
         <v>43643</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9206,7 +9206,7 @@
         <v>43645</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9263,7 +9263,7 @@
         <v>43648</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9320,7 +9320,7 @@
         <v>43648</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>43648</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9434,7 +9434,7 @@
         <v>43648</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9491,7 +9491,7 @@
         <v>43648</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9548,7 +9548,7 @@
         <v>43650</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9605,7 +9605,7 @@
         <v>43650</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9662,7 +9662,7 @@
         <v>43651</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>43664</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>43670</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9833,7 +9833,7 @@
         <v>43670</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9890,7 +9890,7 @@
         <v>43670</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9947,7 +9947,7 @@
         <v>43672</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10004,7 +10004,7 @@
         <v>43674</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10061,7 +10061,7 @@
         <v>43675</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10118,7 +10118,7 @@
         <v>43675</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10175,7 +10175,7 @@
         <v>43675</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10232,7 +10232,7 @@
         <v>43675</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>43675</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>43675</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>43676</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>43676</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>43676</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>43677</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>43677</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>43677</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>43679</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>43680</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>43682</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>43682</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>43682</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>43683</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>43683</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>43683</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>43683</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11258,7 +11258,7 @@
         <v>43684</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11315,7 +11315,7 @@
         <v>43686</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11372,7 +11372,7 @@
         <v>43689</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11429,7 +11429,7 @@
         <v>43689</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11486,7 +11486,7 @@
         <v>43689</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11543,7 +11543,7 @@
         <v>43689</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11600,7 +11600,7 @@
         <v>43689</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11657,7 +11657,7 @@
         <v>43690</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>43691</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>43691</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11828,7 +11828,7 @@
         <v>43692</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>43692</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>43692</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>43692</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>43692</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         <v>43693</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>43693</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>43693</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>43693</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>43693</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>43696</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>43698</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>43698</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>43705</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>43705</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>43705</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>43710</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>43710</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>43710</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12931,7 +12931,7 @@
         <v>43710</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         <v>43711</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>43711</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>43712</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>43712</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>43712</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13278,7 +13278,7 @@
         <v>43712</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13335,7 +13335,7 @@
         <v>43713</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>43714</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>43717</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>43717</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>43718</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>43718</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>43718</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>43719</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13791,7 +13791,7 @@
         <v>43724</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         <v>43724</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13905,7 +13905,7 @@
         <v>43726</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13962,7 +13962,7 @@
         <v>43728</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14019,7 +14019,7 @@
         <v>43732</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14076,7 +14076,7 @@
         <v>43732</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14133,7 +14133,7 @@
         <v>43732</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>43732</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>43733</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14304,7 +14304,7 @@
         <v>43734</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>43738</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>43740</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14475,7 +14475,7 @@
         <v>43740</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         <v>43747</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         <v>43752</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14646,7 +14646,7 @@
         <v>43753</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>43755</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14760,7 +14760,7 @@
         <v>43755</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14817,7 +14817,7 @@
         <v>43755</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14874,7 +14874,7 @@
         <v>43766</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14931,7 +14931,7 @@
         <v>43766</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14988,7 +14988,7 @@
         <v>43766</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>43766</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15102,7 +15102,7 @@
         <v>43766</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>43766</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15216,7 +15216,7 @@
         <v>43773</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>43775</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>43776</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>43781</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>43781</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>43782</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15558,7 +15558,7 @@
         <v>43789</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15615,7 +15615,7 @@
         <v>43789</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>43790</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>43794</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         <v>43794</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15843,7 +15843,7 @@
         <v>43794</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15900,7 +15900,7 @@
         <v>43795</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15957,7 +15957,7 @@
         <v>43795</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16014,7 +16014,7 @@
         <v>43796</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16071,7 +16071,7 @@
         <v>43796</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16128,7 +16128,7 @@
         <v>43797</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16185,7 +16185,7 @@
         <v>43804</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16242,7 +16242,7 @@
         <v>43810</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16299,7 +16299,7 @@
         <v>43811</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>43815</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16413,7 +16413,7 @@
         <v>43819</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16470,7 +16470,7 @@
         <v>43822</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16527,7 +16527,7 @@
         <v>43837</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16584,7 +16584,7 @@
         <v>43840</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16641,7 +16641,7 @@
         <v>43840</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16698,7 +16698,7 @@
         <v>43846</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>43851</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16812,7 +16812,7 @@
         <v>43857</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>43859</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>43861</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>43866</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>43867</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>43867</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>43878</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17211,7 +17211,7 @@
         <v>43885</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17268,7 +17268,7 @@
         <v>43885</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17325,7 +17325,7 @@
         <v>43887</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17382,7 +17382,7 @@
         <v>43892</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17439,7 +17439,7 @@
         <v>43892</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17496,7 +17496,7 @@
         <v>43892</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>43898</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>43903</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>43907</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>43907</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>43908</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>43908</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>43909</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>43909</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>43911</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         <v>43911</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>43917</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18180,7 +18180,7 @@
         <v>43920</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>43920</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18294,7 +18294,7 @@
         <v>43922</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18351,7 +18351,7 @@
         <v>43923</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18408,7 +18408,7 @@
         <v>43928</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18465,7 +18465,7 @@
         <v>43929</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18522,7 +18522,7 @@
         <v>43936</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18579,7 +18579,7 @@
         <v>43936</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18636,7 +18636,7 @@
         <v>43942</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         <v>43944</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18750,7 +18750,7 @@
         <v>43944</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18807,7 +18807,7 @@
         <v>43956</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18864,7 +18864,7 @@
         <v>43956</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18921,7 +18921,7 @@
         <v>43988</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18978,7 +18978,7 @@
         <v>43988</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19035,7 +19035,7 @@
         <v>44012</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19092,7 +19092,7 @@
         <v>44013</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19149,7 +19149,7 @@
         <v>44013</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19206,7 +19206,7 @@
         <v>44019</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19263,7 +19263,7 @@
         <v>44019</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19320,7 +19320,7 @@
         <v>44025</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19377,7 +19377,7 @@
         <v>44025</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19434,7 +19434,7 @@
         <v>44035</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19496,7 +19496,7 @@
         <v>44041</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19553,7 +19553,7 @@
         <v>44046</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19610,7 +19610,7 @@
         <v>44055</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19667,7 +19667,7 @@
         <v>44055</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>44055</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>44057</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44057</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19915,7 +19915,7 @@
         <v>44057</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         <v>44057</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>44057</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20086,7 +20086,7 @@
         <v>44057</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20143,7 +20143,7 @@
         <v>44057</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20200,7 +20200,7 @@
         <v>44057</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20257,7 +20257,7 @@
         <v>44063</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>44068</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>44074</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>44077</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>44078</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>44078</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>44095</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>44096</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>44098</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>44098</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>44102</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>44104</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>44105</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>44107</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>44107</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>44109</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>44110</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>44110</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>44110</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>44111</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44111</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44111</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44118</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44118</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44131</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>44134</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>44134</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
         <v>44138</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>44140</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44144</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>44146</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22029,7 +22029,7 @@
         <v>44150</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22086,7 +22086,7 @@
         <v>44152</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22143,7 +22143,7 @@
         <v>44155</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22205,7 +22205,7 @@
         <v>44155</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>44165</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>44172</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
         <v>44172</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>44173</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22495,7 +22495,7 @@
         <v>44174</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22552,7 +22552,7 @@
         <v>44181</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22609,7 +22609,7 @@
         <v>44182</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22666,7 +22666,7 @@
         <v>44187</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22723,7 +22723,7 @@
         <v>44201</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22780,7 +22780,7 @@
         <v>44207</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>44208</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22894,7 +22894,7 @@
         <v>44208</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22951,7 +22951,7 @@
         <v>44208</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>44208</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
         <v>44208</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23122,7 +23122,7 @@
         <v>44210</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23179,7 +23179,7 @@
         <v>44211</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23236,7 +23236,7 @@
         <v>44211</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23293,7 +23293,7 @@
         <v>44214</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23350,7 +23350,7 @@
         <v>44217</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23407,7 +23407,7 @@
         <v>44217</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23464,7 +23464,7 @@
         <v>44224</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23521,7 +23521,7 @@
         <v>44228</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23578,7 +23578,7 @@
         <v>44235</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         <v>44242</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23692,7 +23692,7 @@
         <v>44243</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23749,7 +23749,7 @@
         <v>44245</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23806,7 +23806,7 @@
         <v>44250</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23863,7 +23863,7 @@
         <v>44250</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23920,7 +23920,7 @@
         <v>44250</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23977,7 +23977,7 @@
         <v>44252</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44252</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44252</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44259</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24205,7 +24205,7 @@
         <v>44260</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24262,7 +24262,7 @@
         <v>44266</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24319,7 +24319,7 @@
         <v>44275</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24376,7 +24376,7 @@
         <v>44277</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24433,7 +24433,7 @@
         <v>44277</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24490,7 +24490,7 @@
         <v>44278</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24547,7 +24547,7 @@
         <v>44280</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24604,7 +24604,7 @@
         <v>44306</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24661,7 +24661,7 @@
         <v>44308</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24718,7 +24718,7 @@
         <v>44308</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24775,7 +24775,7 @@
         <v>44313</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24832,7 +24832,7 @@
         <v>44313</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24889,7 +24889,7 @@
         <v>44314</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         <v>44315</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         <v>44330</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25060,7 +25060,7 @@
         <v>44347</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25117,7 +25117,7 @@
         <v>44357</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25174,7 +25174,7 @@
         <v>44363</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25231,7 +25231,7 @@
         <v>44368</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25288,7 +25288,7 @@
         <v>44379</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25345,7 +25345,7 @@
         <v>44411</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25402,7 +25402,7 @@
         <v>44420</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25459,7 +25459,7 @@
         <v>44434</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25516,7 +25516,7 @@
         <v>44434</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>44442</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>44445</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>44447</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         <v>44453</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>44457</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25863,7 +25863,7 @@
         <v>44459</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25920,7 +25920,7 @@
         <v>44459</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25977,7 +25977,7 @@
         <v>44466</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>44466</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>44467</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>44467</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>44468</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>44473</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>44474</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26376,7 +26376,7 @@
         <v>44475</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26433,7 +26433,7 @@
         <v>44476</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26490,7 +26490,7 @@
         <v>44476</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26547,7 +26547,7 @@
         <v>44482</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26604,7 +26604,7 @@
         <v>44487</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26661,7 +26661,7 @@
         <v>44502</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26718,7 +26718,7 @@
         <v>44514</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26775,7 +26775,7 @@
         <v>44516</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26832,7 +26832,7 @@
         <v>44516</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26889,7 +26889,7 @@
         <v>44529</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         <v>44530</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27003,7 +27003,7 @@
         <v>44532</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27060,7 +27060,7 @@
         <v>44536</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         <v>44536</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27174,7 +27174,7 @@
         <v>44537</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27231,7 +27231,7 @@
         <v>44546</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27288,7 +27288,7 @@
         <v>44564</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27345,7 +27345,7 @@
         <v>44568</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27402,7 +27402,7 @@
         <v>44580</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27459,7 +27459,7 @@
         <v>44586</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27516,7 +27516,7 @@
         <v>44593</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27573,7 +27573,7 @@
         <v>44599</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27630,7 +27630,7 @@
         <v>44610</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27687,7 +27687,7 @@
         <v>44621</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27744,7 +27744,7 @@
         <v>44636</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27801,7 +27801,7 @@
         <v>44640</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27858,7 +27858,7 @@
         <v>44651</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27915,7 +27915,7 @@
         <v>44652</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27972,7 +27972,7 @@
         <v>44657</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28029,7 +28029,7 @@
         <v>44658</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28086,7 +28086,7 @@
         <v>44670</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28143,7 +28143,7 @@
         <v>44671</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28200,7 +28200,7 @@
         <v>44679</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28257,7 +28257,7 @@
         <v>44706</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28314,7 +28314,7 @@
         <v>44722</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28371,7 +28371,7 @@
         <v>44725</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28428,7 +28428,7 @@
         <v>44739</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         <v>44740</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28542,7 +28542,7 @@
         <v>44748</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>44763</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>44776</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>44788</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         <v>44795</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28827,7 +28827,7 @@
         <v>44795</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28884,7 +28884,7 @@
         <v>44795</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28941,7 +28941,7 @@
         <v>44811</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28998,7 +28998,7 @@
         <v>44811</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29055,7 +29055,7 @@
         <v>44812</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29112,7 +29112,7 @@
         <v>44812</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29169,7 +29169,7 @@
         <v>44816</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29226,7 +29226,7 @@
         <v>44818</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29283,7 +29283,7 @@
         <v>44827</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>44830</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
         <v>44841</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>44845</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>44849</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29568,7 +29568,7 @@
         <v>44851</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29625,7 +29625,7 @@
         <v>44852</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29682,7 +29682,7 @@
         <v>44852</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29739,7 +29739,7 @@
         <v>44861</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29796,7 +29796,7 @@
         <v>44862</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29853,7 +29853,7 @@
         <v>44865</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29910,7 +29910,7 @@
         <v>44865</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29967,7 +29967,7 @@
         <v>44879</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30024,7 +30024,7 @@
         <v>44890</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30081,7 +30081,7 @@
         <v>44896</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30138,7 +30138,7 @@
         <v>44900</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30195,7 +30195,7 @@
         <v>44902</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30252,7 +30252,7 @@
         <v>44902</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30309,7 +30309,7 @@
         <v>44902</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30366,7 +30366,7 @@
         <v>44910</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30423,7 +30423,7 @@
         <v>44928</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30480,7 +30480,7 @@
         <v>44928</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30537,7 +30537,7 @@
         <v>44938</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30594,7 +30594,7 @@
         <v>44942</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30651,7 +30651,7 @@
         <v>44943</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30708,7 +30708,7 @@
         <v>44944</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30765,7 +30765,7 @@
         <v>44949</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30822,7 +30822,7 @@
         <v>44949</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30879,7 +30879,7 @@
         <v>44958</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30936,7 +30936,7 @@
         <v>44965</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30993,7 +30993,7 @@
         <v>44977</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31050,7 +31050,7 @@
         <v>44984</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31107,7 +31107,7 @@
         <v>44985</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31164,7 +31164,7 @@
         <v>44987</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31221,7 +31221,7 @@
         <v>44988</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31278,7 +31278,7 @@
         <v>44988</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31335,7 +31335,7 @@
         <v>44988</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31392,7 +31392,7 @@
         <v>44988</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31449,7 +31449,7 @@
         <v>44992</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31506,7 +31506,7 @@
         <v>44993</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31563,7 +31563,7 @@
         <v>44999</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31620,7 +31620,7 @@
         <v>45006</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31677,7 +31677,7 @@
         <v>45008</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31734,7 +31734,7 @@
         <v>45008</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31791,7 +31791,7 @@
         <v>45008</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31848,7 +31848,7 @@
         <v>45019</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31905,7 +31905,7 @@
         <v>45019</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31962,7 +31962,7 @@
         <v>45036</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32019,7 +32019,7 @@
         <v>45040</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32076,7 +32076,7 @@
         <v>45040</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32133,7 +32133,7 @@
         <v>45040</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32190,7 +32190,7 @@
         <v>45040</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32247,7 +32247,7 @@
         <v>45056</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32304,7 +32304,7 @@
         <v>45063</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32361,7 +32361,7 @@
         <v>45069</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32418,7 +32418,7 @@
         <v>45075</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32475,7 +32475,7 @@
         <v>45075</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32532,7 +32532,7 @@
         <v>45089</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32589,7 +32589,7 @@
         <v>45093</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32646,7 +32646,7 @@
         <v>45113</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32703,7 +32703,7 @@
         <v>45121</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32760,7 +32760,7 @@
         <v>45126</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32817,7 +32817,7 @@
         <v>45132</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32874,7 +32874,7 @@
         <v>45132</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32931,7 +32931,7 @@
         <v>45132</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32988,7 +32988,7 @@
         <v>45139</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33045,7 +33045,7 @@
         <v>45167</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33102,7 +33102,7 @@
         <v>45167</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>

--- a/Översikt TORSÅS.xlsx
+++ b/Översikt TORSÅS.xlsx
@@ -572,7 +572,7 @@
         <v>43536</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>43922</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>43693</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>43425</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43682</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
         <v>43840</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>45001</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>43783</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>44459</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>43434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>43608</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>43703</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>43705</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>43712</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>44216</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>44410</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>44568</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44939</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43349</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43363</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43494</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>43579</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>43669</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43682</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>43703</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>44125</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>44231</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>44263</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>44453</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>44454</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>44804</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>45019</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>45079</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>43322</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         <v>43326</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         <v>43326</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>43326</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>43332</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>43339</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>43349</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>43349</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>43361</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         <v>43361</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         <v>43363</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>43363</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v>43376</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>43381</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4247,7 +4247,7 @@
         <v>43389</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         <v>43391</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4361,7 +4361,7 @@
         <v>43396</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
         <v>43396</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43396</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43398</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>43412</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>43419</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>43425</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43425</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43432</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43434</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43455</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43455</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43473</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43475</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43483</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43483</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43486</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43488</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>43488</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43488</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43490</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43490</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>43490</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5957,7 +5957,7 @@
         <v>43493</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43494</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>43497</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>43501</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>43504</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>43504</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>43511</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>43523</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6413,7 +6413,7 @@
         <v>43523</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6470,7 +6470,7 @@
         <v>43524</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>43524</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>43524</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>43528</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>43529</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43529</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43536</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43537</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43537</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43542</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43544</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43563</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>43563</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>43565</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7268,7 +7268,7 @@
         <v>43566</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7325,7 +7325,7 @@
         <v>43571</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>43577</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>43577</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>43578</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>43579</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43579</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43579</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>43598</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>43598</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>43600</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         <v>43612</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>43612</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>43612</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>43613</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>43613</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>43613</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>43614</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>43614</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>43616</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8408,7 +8408,7 @@
         <v>43626</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8465,7 +8465,7 @@
         <v>43627</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>43627</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>43629</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>43629</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8693,7 +8693,7 @@
         <v>43629</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>43629</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>43630</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>43630</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>43640</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>43640</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>43642</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>43643</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9149,7 +9149,7 @@
         <v>43643</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9206,7 +9206,7 @@
         <v>43645</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9263,7 +9263,7 @@
         <v>43648</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9320,7 +9320,7 @@
         <v>43648</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>43648</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9434,7 +9434,7 @@
         <v>43648</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9491,7 +9491,7 @@
         <v>43648</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9548,7 +9548,7 @@
         <v>43650</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9605,7 +9605,7 @@
         <v>43650</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9662,7 +9662,7 @@
         <v>43651</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>43664</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>43670</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9833,7 +9833,7 @@
         <v>43670</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9890,7 +9890,7 @@
         <v>43670</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9947,7 +9947,7 @@
         <v>43672</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10004,7 +10004,7 @@
         <v>43674</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10061,7 +10061,7 @@
         <v>43675</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10118,7 +10118,7 @@
         <v>43675</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10175,7 +10175,7 @@
         <v>43675</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10232,7 +10232,7 @@
         <v>43675</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>43675</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>43675</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>43676</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>43676</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>43676</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>43677</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>43677</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>43677</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>43679</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>43680</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>43682</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>43682</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>43682</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>43683</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>43683</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>43683</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>43683</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11258,7 +11258,7 @@
         <v>43684</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11315,7 +11315,7 @@
         <v>43686</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11372,7 +11372,7 @@
         <v>43689</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11429,7 +11429,7 @@
         <v>43689</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11486,7 +11486,7 @@
         <v>43689</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11543,7 +11543,7 @@
         <v>43689</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11600,7 +11600,7 @@
         <v>43689</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11657,7 +11657,7 @@
         <v>43690</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>43691</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>43691</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11828,7 +11828,7 @@
         <v>43692</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>43692</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>43692</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>43692</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>43692</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         <v>43693</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>43693</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>43693</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>43693</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>43693</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>43696</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>43698</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>43698</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>43705</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>43705</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>43705</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>43710</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>43710</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>43710</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12931,7 +12931,7 @@
         <v>43710</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         <v>43711</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>43711</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>43712</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>43712</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>43712</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13278,7 +13278,7 @@
         <v>43712</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13335,7 +13335,7 @@
         <v>43713</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>43714</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>43717</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>43717</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>43718</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>43718</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>43718</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>43719</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13791,7 +13791,7 @@
         <v>43724</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         <v>43724</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13905,7 +13905,7 @@
         <v>43726</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13962,7 +13962,7 @@
         <v>43728</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14019,7 +14019,7 @@
         <v>43732</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14076,7 +14076,7 @@
         <v>43732</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14133,7 +14133,7 @@
         <v>43732</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>43732</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>43733</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14304,7 +14304,7 @@
         <v>43734</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>43738</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>43740</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14475,7 +14475,7 @@
         <v>43740</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         <v>43747</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         <v>43752</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14646,7 +14646,7 @@
         <v>43753</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>43755</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14760,7 +14760,7 @@
         <v>43755</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14817,7 +14817,7 @@
         <v>43755</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14874,7 +14874,7 @@
         <v>43766</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14931,7 +14931,7 @@
         <v>43766</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14988,7 +14988,7 @@
         <v>43766</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>43766</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15102,7 +15102,7 @@
         <v>43766</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>43766</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15216,7 +15216,7 @@
         <v>43773</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>43775</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>43776</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>43781</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>43781</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>43782</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15558,7 +15558,7 @@
         <v>43789</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15615,7 +15615,7 @@
         <v>43789</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>43790</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>43794</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         <v>43794</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15843,7 +15843,7 @@
         <v>43794</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15900,7 +15900,7 @@
         <v>43795</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15957,7 +15957,7 @@
         <v>43795</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16014,7 +16014,7 @@
         <v>43796</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16071,7 +16071,7 @@
         <v>43796</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16128,7 +16128,7 @@
         <v>43797</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16185,7 +16185,7 @@
         <v>43804</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16242,7 +16242,7 @@
         <v>43810</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16299,7 +16299,7 @@
         <v>43811</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>43815</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16413,7 +16413,7 @@
         <v>43819</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16470,7 +16470,7 @@
         <v>43822</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16527,7 +16527,7 @@
         <v>43837</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16584,7 +16584,7 @@
         <v>43840</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16641,7 +16641,7 @@
         <v>43840</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16698,7 +16698,7 @@
         <v>43846</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>43851</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16812,7 +16812,7 @@
         <v>43857</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>43859</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>43861</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>43866</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>43867</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>43867</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>43878</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17211,7 +17211,7 @@
         <v>43885</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17268,7 +17268,7 @@
         <v>43885</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17325,7 +17325,7 @@
         <v>43887</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17382,7 +17382,7 @@
         <v>43892</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17439,7 +17439,7 @@
         <v>43892</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17496,7 +17496,7 @@
         <v>43892</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>43898</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>43903</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>43907</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>43907</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>43908</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>43908</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>43909</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>43909</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>43911</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         <v>43911</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>43917</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18180,7 +18180,7 @@
         <v>43920</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>43920</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18294,7 +18294,7 @@
         <v>43922</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18351,7 +18351,7 @@
         <v>43923</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18408,7 +18408,7 @@
         <v>43928</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18465,7 +18465,7 @@
         <v>43929</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18522,7 +18522,7 @@
         <v>43936</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18579,7 +18579,7 @@
         <v>43936</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18636,7 +18636,7 @@
         <v>43942</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         <v>43944</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18750,7 +18750,7 @@
         <v>43944</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18807,7 +18807,7 @@
         <v>43956</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18864,7 +18864,7 @@
         <v>43956</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18921,7 +18921,7 @@
         <v>43988</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18978,7 +18978,7 @@
         <v>43988</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19035,7 +19035,7 @@
         <v>44012</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19092,7 +19092,7 @@
         <v>44013</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19149,7 +19149,7 @@
         <v>44013</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19206,7 +19206,7 @@
         <v>44019</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19263,7 +19263,7 @@
         <v>44019</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19320,7 +19320,7 @@
         <v>44025</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19377,7 +19377,7 @@
         <v>44025</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19434,7 +19434,7 @@
         <v>44035</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19496,7 +19496,7 @@
         <v>44041</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19553,7 +19553,7 @@
         <v>44046</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19610,7 +19610,7 @@
         <v>44055</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19667,7 +19667,7 @@
         <v>44055</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>44055</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>44057</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44057</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19915,7 +19915,7 @@
         <v>44057</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         <v>44057</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>44057</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20086,7 +20086,7 @@
         <v>44057</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20143,7 +20143,7 @@
         <v>44057</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20200,7 +20200,7 @@
         <v>44057</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20257,7 +20257,7 @@
         <v>44063</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>44068</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>44074</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>44077</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>44078</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>44078</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>44095</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>44096</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>44098</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>44098</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>44102</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>44104</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>44105</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>44107</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>44107</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>44109</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>44110</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>44110</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>44110</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>44111</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44111</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44111</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44118</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44118</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44131</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>44134</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>44134</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
         <v>44138</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>44140</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44144</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>44146</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22029,7 +22029,7 @@
         <v>44150</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22086,7 +22086,7 @@
         <v>44152</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22143,7 +22143,7 @@
         <v>44155</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22205,7 +22205,7 @@
         <v>44155</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>44165</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>44172</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
         <v>44172</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>44173</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22495,7 +22495,7 @@
         <v>44174</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22552,7 +22552,7 @@
         <v>44181</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22609,7 +22609,7 @@
         <v>44182</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22666,7 +22666,7 @@
         <v>44187</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22723,7 +22723,7 @@
         <v>44201</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22780,7 +22780,7 @@
         <v>44207</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>44208</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22894,7 +22894,7 @@
         <v>44208</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22951,7 +22951,7 @@
         <v>44208</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>44208</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
         <v>44208</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23122,7 +23122,7 @@
         <v>44210</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23179,7 +23179,7 @@
         <v>44211</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23236,7 +23236,7 @@
         <v>44211</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23293,7 +23293,7 @@
         <v>44214</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23350,7 +23350,7 @@
         <v>44217</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23407,7 +23407,7 @@
         <v>44217</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23464,7 +23464,7 @@
         <v>44224</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23521,7 +23521,7 @@
         <v>44228</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23578,7 +23578,7 @@
         <v>44235</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         <v>44242</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23692,7 +23692,7 @@
         <v>44243</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23749,7 +23749,7 @@
         <v>44245</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23806,7 +23806,7 @@
         <v>44250</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23863,7 +23863,7 @@
         <v>44250</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23920,7 +23920,7 @@
         <v>44250</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23977,7 +23977,7 @@
         <v>44252</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44252</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44252</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44259</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24205,7 +24205,7 @@
         <v>44260</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24262,7 +24262,7 @@
         <v>44266</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24319,7 +24319,7 @@
         <v>44275</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24376,7 +24376,7 @@
         <v>44277</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24433,7 +24433,7 @@
         <v>44277</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24490,7 +24490,7 @@
         <v>44278</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24547,7 +24547,7 @@
         <v>44280</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24604,7 +24604,7 @@
         <v>44306</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24661,7 +24661,7 @@
         <v>44308</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24718,7 +24718,7 @@
         <v>44308</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24775,7 +24775,7 @@
         <v>44313</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24832,7 +24832,7 @@
         <v>44313</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24889,7 +24889,7 @@
         <v>44314</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         <v>44315</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         <v>44330</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25060,7 +25060,7 @@
         <v>44347</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25117,7 +25117,7 @@
         <v>44357</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25174,7 +25174,7 @@
         <v>44363</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25231,7 +25231,7 @@
         <v>44368</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25288,7 +25288,7 @@
         <v>44379</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25345,7 +25345,7 @@
         <v>44411</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25402,7 +25402,7 @@
         <v>44420</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25459,7 +25459,7 @@
         <v>44434</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25516,7 +25516,7 @@
         <v>44434</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>44442</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>44445</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>44447</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         <v>44453</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>44457</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25863,7 +25863,7 @@
         <v>44459</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25920,7 +25920,7 @@
         <v>44459</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25977,7 +25977,7 @@
         <v>44466</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>44466</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>44467</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>44467</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>44468</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>44473</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>44474</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26376,7 +26376,7 @@
         <v>44475</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26433,7 +26433,7 @@
         <v>44476</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26490,7 +26490,7 @@
         <v>44476</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26547,7 +26547,7 @@
         <v>44482</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26604,7 +26604,7 @@
         <v>44487</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26661,7 +26661,7 @@
         <v>44502</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26718,7 +26718,7 @@
         <v>44514</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26775,7 +26775,7 @@
         <v>44516</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26832,7 +26832,7 @@
         <v>44516</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26889,7 +26889,7 @@
         <v>44529</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         <v>44530</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27003,7 +27003,7 @@
         <v>44532</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27060,7 +27060,7 @@
         <v>44536</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         <v>44536</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27174,7 +27174,7 @@
         <v>44537</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27231,7 +27231,7 @@
         <v>44546</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27288,7 +27288,7 @@
         <v>44564</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27345,7 +27345,7 @@
         <v>44568</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27402,7 +27402,7 @@
         <v>44580</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27459,7 +27459,7 @@
         <v>44586</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27516,7 +27516,7 @@
         <v>44593</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27573,7 +27573,7 @@
         <v>44599</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27630,7 +27630,7 @@
         <v>44610</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27687,7 +27687,7 @@
         <v>44621</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27744,7 +27744,7 @@
         <v>44636</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27801,7 +27801,7 @@
         <v>44640</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27858,7 +27858,7 @@
         <v>44651</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27915,7 +27915,7 @@
         <v>44652</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27972,7 +27972,7 @@
         <v>44657</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28029,7 +28029,7 @@
         <v>44658</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28086,7 +28086,7 @@
         <v>44670</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28143,7 +28143,7 @@
         <v>44671</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28200,7 +28200,7 @@
         <v>44679</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28257,7 +28257,7 @@
         <v>44706</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28314,7 +28314,7 @@
         <v>44722</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28371,7 +28371,7 @@
         <v>44725</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28428,7 +28428,7 @@
         <v>44739</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         <v>44740</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28542,7 +28542,7 @@
         <v>44748</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>44763</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>44776</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>44788</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         <v>44795</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28827,7 +28827,7 @@
         <v>44795</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28884,7 +28884,7 @@
         <v>44795</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28941,7 +28941,7 @@
         <v>44811</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28998,7 +28998,7 @@
         <v>44811</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29055,7 +29055,7 @@
         <v>44812</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29112,7 +29112,7 @@
         <v>44812</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29169,7 +29169,7 @@
         <v>44816</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29226,7 +29226,7 @@
         <v>44818</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29283,7 +29283,7 @@
         <v>44827</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>44830</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
         <v>44841</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>44845</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>44849</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29568,7 +29568,7 @@
         <v>44851</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29625,7 +29625,7 @@
         <v>44852</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29682,7 +29682,7 @@
         <v>44852</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29739,7 +29739,7 @@
         <v>44861</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29796,7 +29796,7 @@
         <v>44862</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29853,7 +29853,7 @@
         <v>44865</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29910,7 +29910,7 @@
         <v>44865</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29967,7 +29967,7 @@
         <v>44879</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30024,7 +30024,7 @@
         <v>44890</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30081,7 +30081,7 @@
         <v>44896</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30138,7 +30138,7 @@
         <v>44900</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30195,7 +30195,7 @@
         <v>44902</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30252,7 +30252,7 @@
         <v>44902</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30309,7 +30309,7 @@
         <v>44902</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30366,7 +30366,7 @@
         <v>44910</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30423,7 +30423,7 @@
         <v>44928</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30480,7 +30480,7 @@
         <v>44928</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30537,7 +30537,7 @@
         <v>44938</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30594,7 +30594,7 @@
         <v>44942</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30651,7 +30651,7 @@
         <v>44943</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30708,7 +30708,7 @@
         <v>44944</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30765,7 +30765,7 @@
         <v>44949</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30822,7 +30822,7 @@
         <v>44949</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30879,7 +30879,7 @@
         <v>44958</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30936,7 +30936,7 @@
         <v>44965</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30993,7 +30993,7 @@
         <v>44977</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31050,7 +31050,7 @@
         <v>44984</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31107,7 +31107,7 @@
         <v>44985</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31164,7 +31164,7 @@
         <v>44987</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31221,7 +31221,7 @@
         <v>44988</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31278,7 +31278,7 @@
         <v>44988</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31335,7 +31335,7 @@
         <v>44988</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31392,7 +31392,7 @@
         <v>44988</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31449,7 +31449,7 @@
         <v>44992</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31506,7 +31506,7 @@
         <v>44993</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31563,7 +31563,7 @@
         <v>44999</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31620,7 +31620,7 @@
         <v>45006</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31677,7 +31677,7 @@
         <v>45008</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31734,7 +31734,7 @@
         <v>45008</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31791,7 +31791,7 @@
         <v>45008</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31848,7 +31848,7 @@
         <v>45019</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31905,7 +31905,7 @@
         <v>45019</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31962,7 +31962,7 @@
         <v>45036</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32019,7 +32019,7 @@
         <v>45040</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32076,7 +32076,7 @@
         <v>45040</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32133,7 +32133,7 @@
         <v>45040</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32190,7 +32190,7 @@
         <v>45040</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32247,7 +32247,7 @@
         <v>45056</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32304,7 +32304,7 @@
         <v>45063</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32361,7 +32361,7 @@
         <v>45069</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32418,7 +32418,7 @@
         <v>45075</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32475,7 +32475,7 @@
         <v>45075</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32532,7 +32532,7 @@
         <v>45089</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32589,7 +32589,7 @@
         <v>45093</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32646,7 +32646,7 @@
         <v>45113</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32703,7 +32703,7 @@
         <v>45121</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32760,7 +32760,7 @@
         <v>45126</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32817,7 +32817,7 @@
         <v>45132</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32874,7 +32874,7 @@
         <v>45132</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32931,7 +32931,7 @@
         <v>45132</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32988,7 +32988,7 @@
         <v>45139</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33045,7 +33045,7 @@
         <v>45167</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33102,7 +33102,7 @@
         <v>45167</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>

--- a/Översikt TORSÅS.xlsx
+++ b/Översikt TORSÅS.xlsx
@@ -572,7 +572,7 @@
         <v>43536</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>43922</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>43693</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>43425</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43682</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
         <v>43840</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>45001</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>43783</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>44459</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>43434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>43608</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>43703</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>43705</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>43712</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>44216</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>44410</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>44568</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44939</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43349</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43363</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43494</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>43579</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>43669</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43682</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>43703</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>44125</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>44231</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>44263</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>44453</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>44454</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>44804</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>45019</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>45079</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>43322</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         <v>43326</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         <v>43326</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>43326</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>43332</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>43339</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>43349</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>43349</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>43361</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         <v>43361</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         <v>43363</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>43363</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v>43376</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>43381</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4247,7 +4247,7 @@
         <v>43389</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         <v>43391</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4361,7 +4361,7 @@
         <v>43396</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
         <v>43396</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43396</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43398</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>43412</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>43419</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>43425</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43425</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43432</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43434</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43455</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43455</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43473</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43475</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43483</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43483</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43486</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43488</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>43488</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43488</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43490</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43490</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>43490</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5957,7 +5957,7 @@
         <v>43493</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43494</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>43497</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>43501</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>43504</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>43504</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>43511</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>43523</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6413,7 +6413,7 @@
         <v>43523</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6470,7 +6470,7 @@
         <v>43524</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>43524</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>43524</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>43528</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>43529</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43529</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43536</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43537</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43537</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43542</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43544</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43563</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>43563</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>43565</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7268,7 +7268,7 @@
         <v>43566</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7325,7 +7325,7 @@
         <v>43571</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>43577</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>43577</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>43578</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>43579</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43579</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43579</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>43598</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>43598</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>43600</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         <v>43612</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>43612</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>43612</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>43613</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>43613</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>43613</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>43614</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>43614</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>43616</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8408,7 +8408,7 @@
         <v>43626</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8465,7 +8465,7 @@
         <v>43627</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>43627</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>43629</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>43629</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8693,7 +8693,7 @@
         <v>43629</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>43629</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>43630</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>43630</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>43640</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>43640</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>43642</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>43643</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9149,7 +9149,7 @@
         <v>43643</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9206,7 +9206,7 @@
         <v>43645</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9263,7 +9263,7 @@
         <v>43648</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9320,7 +9320,7 @@
         <v>43648</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>43648</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9434,7 +9434,7 @@
         <v>43648</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9491,7 +9491,7 @@
         <v>43648</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9548,7 +9548,7 @@
         <v>43650</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9605,7 +9605,7 @@
         <v>43650</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9662,7 +9662,7 @@
         <v>43651</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>43664</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>43670</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9833,7 +9833,7 @@
         <v>43670</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9890,7 +9890,7 @@
         <v>43670</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9947,7 +9947,7 @@
         <v>43672</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10004,7 +10004,7 @@
         <v>43674</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10061,7 +10061,7 @@
         <v>43675</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10118,7 +10118,7 @@
         <v>43675</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10175,7 +10175,7 @@
         <v>43675</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10232,7 +10232,7 @@
         <v>43675</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>43675</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>43675</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>43676</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>43676</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>43676</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>43677</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>43677</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>43677</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>43679</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>43680</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>43682</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>43682</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>43682</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>43683</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>43683</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>43683</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>43683</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11258,7 +11258,7 @@
         <v>43684</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11315,7 +11315,7 @@
         <v>43686</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11372,7 +11372,7 @@
         <v>43689</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11429,7 +11429,7 @@
         <v>43689</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11486,7 +11486,7 @@
         <v>43689</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11543,7 +11543,7 @@
         <v>43689</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11600,7 +11600,7 @@
         <v>43689</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11657,7 +11657,7 @@
         <v>43690</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>43691</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>43691</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11828,7 +11828,7 @@
         <v>43692</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>43692</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>43692</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>43692</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>43692</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         <v>43693</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>43693</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>43693</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>43693</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>43693</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>43696</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>43698</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>43698</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>43705</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>43705</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>43705</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>43710</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>43710</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>43710</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12931,7 +12931,7 @@
         <v>43710</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         <v>43711</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>43711</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>43712</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>43712</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>43712</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13278,7 +13278,7 @@
         <v>43712</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13335,7 +13335,7 @@
         <v>43713</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>43714</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>43717</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>43717</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>43718</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>43718</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>43718</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>43719</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13791,7 +13791,7 @@
         <v>43724</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         <v>43724</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13905,7 +13905,7 @@
         <v>43726</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13962,7 +13962,7 @@
         <v>43728</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14019,7 +14019,7 @@
         <v>43732</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14076,7 +14076,7 @@
         <v>43732</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14133,7 +14133,7 @@
         <v>43732</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>43732</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>43733</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14304,7 +14304,7 @@
         <v>43734</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>43738</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>43740</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14475,7 +14475,7 @@
         <v>43740</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         <v>43747</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         <v>43752</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14646,7 +14646,7 @@
         <v>43753</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>43755</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14760,7 +14760,7 @@
         <v>43755</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14817,7 +14817,7 @@
         <v>43755</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14874,7 +14874,7 @@
         <v>43766</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14931,7 +14931,7 @@
         <v>43766</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14988,7 +14988,7 @@
         <v>43766</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>43766</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15102,7 +15102,7 @@
         <v>43766</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>43766</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15216,7 +15216,7 @@
         <v>43773</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>43775</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>43776</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>43781</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>43781</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>43782</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15558,7 +15558,7 @@
         <v>43789</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15615,7 +15615,7 @@
         <v>43789</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>43790</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>43794</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         <v>43794</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15843,7 +15843,7 @@
         <v>43794</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15900,7 +15900,7 @@
         <v>43795</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15957,7 +15957,7 @@
         <v>43795</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16014,7 +16014,7 @@
         <v>43796</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16071,7 +16071,7 @@
         <v>43796</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16128,7 +16128,7 @@
         <v>43797</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16185,7 +16185,7 @@
         <v>43804</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16242,7 +16242,7 @@
         <v>43810</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16299,7 +16299,7 @@
         <v>43811</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>43815</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16413,7 +16413,7 @@
         <v>43819</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16470,7 +16470,7 @@
         <v>43822</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16527,7 +16527,7 @@
         <v>43837</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16584,7 +16584,7 @@
         <v>43840</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16641,7 +16641,7 @@
         <v>43840</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16698,7 +16698,7 @@
         <v>43846</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>43851</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16812,7 +16812,7 @@
         <v>43857</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>43859</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>43861</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>43866</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>43867</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>43867</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>43878</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17211,7 +17211,7 @@
         <v>43885</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17268,7 +17268,7 @@
         <v>43885</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17325,7 +17325,7 @@
         <v>43887</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17382,7 +17382,7 @@
         <v>43892</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17439,7 +17439,7 @@
         <v>43892</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17496,7 +17496,7 @@
         <v>43892</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>43898</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>43903</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>43907</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>43907</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>43908</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>43908</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>43909</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>43909</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>43911</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         <v>43911</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>43917</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18180,7 +18180,7 @@
         <v>43920</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>43920</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18294,7 +18294,7 @@
         <v>43922</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18351,7 +18351,7 @@
         <v>43923</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18408,7 +18408,7 @@
         <v>43928</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18465,7 +18465,7 @@
         <v>43929</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18522,7 +18522,7 @@
         <v>43936</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18579,7 +18579,7 @@
         <v>43936</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18636,7 +18636,7 @@
         <v>43942</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         <v>43944</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18750,7 +18750,7 @@
         <v>43944</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18807,7 +18807,7 @@
         <v>43956</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18864,7 +18864,7 @@
         <v>43956</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18921,7 +18921,7 @@
         <v>43988</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18978,7 +18978,7 @@
         <v>43988</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19035,7 +19035,7 @@
         <v>44012</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19092,7 +19092,7 @@
         <v>44013</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19149,7 +19149,7 @@
         <v>44013</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19206,7 +19206,7 @@
         <v>44019</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19263,7 +19263,7 @@
         <v>44019</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19320,7 +19320,7 @@
         <v>44025</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19377,7 +19377,7 @@
         <v>44025</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19434,7 +19434,7 @@
         <v>44035</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19496,7 +19496,7 @@
         <v>44041</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19553,7 +19553,7 @@
         <v>44046</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19610,7 +19610,7 @@
         <v>44055</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19667,7 +19667,7 @@
         <v>44055</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>44055</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>44057</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44057</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19915,7 +19915,7 @@
         <v>44057</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         <v>44057</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>44057</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20086,7 +20086,7 @@
         <v>44057</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20143,7 +20143,7 @@
         <v>44057</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20200,7 +20200,7 @@
         <v>44057</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20257,7 +20257,7 @@
         <v>44063</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>44068</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>44074</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>44077</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>44078</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>44078</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>44095</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>44096</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>44098</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>44098</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>44102</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>44104</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>44105</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>44107</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>44107</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>44109</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>44110</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>44110</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>44110</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>44111</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44111</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44111</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44118</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44118</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44131</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>44134</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>44134</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
         <v>44138</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>44140</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44144</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>44146</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22029,7 +22029,7 @@
         <v>44150</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22086,7 +22086,7 @@
         <v>44152</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22143,7 +22143,7 @@
         <v>44155</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22205,7 +22205,7 @@
         <v>44155</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>44165</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>44172</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
         <v>44172</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>44173</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22495,7 +22495,7 @@
         <v>44174</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22552,7 +22552,7 @@
         <v>44181</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22609,7 +22609,7 @@
         <v>44182</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22666,7 +22666,7 @@
         <v>44187</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22723,7 +22723,7 @@
         <v>44201</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22780,7 +22780,7 @@
         <v>44207</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>44208</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22894,7 +22894,7 @@
         <v>44208</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22951,7 +22951,7 @@
         <v>44208</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>44208</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
         <v>44208</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23122,7 +23122,7 @@
         <v>44210</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23179,7 +23179,7 @@
         <v>44211</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23236,7 +23236,7 @@
         <v>44211</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23293,7 +23293,7 @@
         <v>44214</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23350,7 +23350,7 @@
         <v>44217</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23407,7 +23407,7 @@
         <v>44217</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23464,7 +23464,7 @@
         <v>44224</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23521,7 +23521,7 @@
         <v>44228</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23578,7 +23578,7 @@
         <v>44235</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         <v>44242</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23692,7 +23692,7 @@
         <v>44243</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23749,7 +23749,7 @@
         <v>44245</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23806,7 +23806,7 @@
         <v>44250</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23863,7 +23863,7 @@
         <v>44250</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23920,7 +23920,7 @@
         <v>44250</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23977,7 +23977,7 @@
         <v>44252</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44252</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44252</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44259</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24205,7 +24205,7 @@
         <v>44260</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24262,7 +24262,7 @@
         <v>44266</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24319,7 +24319,7 @@
         <v>44275</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24376,7 +24376,7 @@
         <v>44277</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24433,7 +24433,7 @@
         <v>44277</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24490,7 +24490,7 @@
         <v>44278</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24547,7 +24547,7 @@
         <v>44280</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24604,7 +24604,7 @@
         <v>44306</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24661,7 +24661,7 @@
         <v>44308</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24718,7 +24718,7 @@
         <v>44308</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24775,7 +24775,7 @@
         <v>44313</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24832,7 +24832,7 @@
         <v>44313</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24889,7 +24889,7 @@
         <v>44314</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         <v>44315</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         <v>44330</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25060,7 +25060,7 @@
         <v>44347</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25117,7 +25117,7 @@
         <v>44357</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25174,7 +25174,7 @@
         <v>44363</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25231,7 +25231,7 @@
         <v>44368</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25288,7 +25288,7 @@
         <v>44379</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25345,7 +25345,7 @@
         <v>44411</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25402,7 +25402,7 @@
         <v>44420</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25459,7 +25459,7 @@
         <v>44434</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25516,7 +25516,7 @@
         <v>44434</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>44442</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>44445</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>44447</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         <v>44453</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>44457</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25863,7 +25863,7 @@
         <v>44459</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25920,7 +25920,7 @@
         <v>44459</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25977,7 +25977,7 @@
         <v>44466</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>44466</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>44467</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>44467</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>44468</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>44473</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>44474</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26376,7 +26376,7 @@
         <v>44475</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26433,7 +26433,7 @@
         <v>44476</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26490,7 +26490,7 @@
         <v>44476</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26547,7 +26547,7 @@
         <v>44482</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26604,7 +26604,7 @@
         <v>44487</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26661,7 +26661,7 @@
         <v>44502</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26718,7 +26718,7 @@
         <v>44514</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26775,7 +26775,7 @@
         <v>44516</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26832,7 +26832,7 @@
         <v>44516</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26889,7 +26889,7 @@
         <v>44529</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         <v>44530</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27003,7 +27003,7 @@
         <v>44532</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27060,7 +27060,7 @@
         <v>44536</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         <v>44536</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27174,7 +27174,7 @@
         <v>44537</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27231,7 +27231,7 @@
         <v>44546</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27288,7 +27288,7 @@
         <v>44564</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27345,7 +27345,7 @@
         <v>44568</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27402,7 +27402,7 @@
         <v>44580</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27459,7 +27459,7 @@
         <v>44586</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27516,7 +27516,7 @@
         <v>44593</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27573,7 +27573,7 @@
         <v>44599</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27630,7 +27630,7 @@
         <v>44610</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27687,7 +27687,7 @@
         <v>44621</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27744,7 +27744,7 @@
         <v>44636</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27801,7 +27801,7 @@
         <v>44640</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27858,7 +27858,7 @@
         <v>44651</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27915,7 +27915,7 @@
         <v>44652</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27972,7 +27972,7 @@
         <v>44657</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28029,7 +28029,7 @@
         <v>44658</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28086,7 +28086,7 @@
         <v>44670</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28143,7 +28143,7 @@
         <v>44671</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28200,7 +28200,7 @@
         <v>44679</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28257,7 +28257,7 @@
         <v>44706</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28314,7 +28314,7 @@
         <v>44722</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28371,7 +28371,7 @@
         <v>44725</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28428,7 +28428,7 @@
         <v>44739</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         <v>44740</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28542,7 +28542,7 @@
         <v>44748</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>44763</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>44776</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>44788</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         <v>44795</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28827,7 +28827,7 @@
         <v>44795</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28884,7 +28884,7 @@
         <v>44795</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28941,7 +28941,7 @@
         <v>44811</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28998,7 +28998,7 @@
         <v>44811</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29055,7 +29055,7 @@
         <v>44812</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29112,7 +29112,7 @@
         <v>44812</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29169,7 +29169,7 @@
         <v>44816</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29226,7 +29226,7 @@
         <v>44818</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29283,7 +29283,7 @@
         <v>44827</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>44830</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
         <v>44841</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>44845</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>44849</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29568,7 +29568,7 @@
         <v>44851</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29625,7 +29625,7 @@
         <v>44852</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29682,7 +29682,7 @@
         <v>44852</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29739,7 +29739,7 @@
         <v>44861</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29796,7 +29796,7 @@
         <v>44862</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29853,7 +29853,7 @@
         <v>44865</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29910,7 +29910,7 @@
         <v>44865</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29967,7 +29967,7 @@
         <v>44879</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30024,7 +30024,7 @@
         <v>44890</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30081,7 +30081,7 @@
         <v>44896</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30138,7 +30138,7 @@
         <v>44900</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30195,7 +30195,7 @@
         <v>44902</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30252,7 +30252,7 @@
         <v>44902</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30309,7 +30309,7 @@
         <v>44902</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30366,7 +30366,7 @@
         <v>44910</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30423,7 +30423,7 @@
         <v>44928</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30480,7 +30480,7 @@
         <v>44928</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30537,7 +30537,7 @@
         <v>44938</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30594,7 +30594,7 @@
         <v>44942</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30651,7 +30651,7 @@
         <v>44943</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30708,7 +30708,7 @@
         <v>44944</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30765,7 +30765,7 @@
         <v>44949</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30822,7 +30822,7 @@
         <v>44949</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30879,7 +30879,7 @@
         <v>44958</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30936,7 +30936,7 @@
         <v>44965</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30993,7 +30993,7 @@
         <v>44977</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31050,7 +31050,7 @@
         <v>44984</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31107,7 +31107,7 @@
         <v>44985</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31164,7 +31164,7 @@
         <v>44987</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31221,7 +31221,7 @@
         <v>44988</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31278,7 +31278,7 @@
         <v>44988</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31335,7 +31335,7 @@
         <v>44988</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31392,7 +31392,7 @@
         <v>44988</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31449,7 +31449,7 @@
         <v>44992</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31506,7 +31506,7 @@
         <v>44993</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31563,7 +31563,7 @@
         <v>44999</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31620,7 +31620,7 @@
         <v>45006</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31677,7 +31677,7 @@
         <v>45008</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31734,7 +31734,7 @@
         <v>45008</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31791,7 +31791,7 @@
         <v>45008</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31848,7 +31848,7 @@
         <v>45019</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31905,7 +31905,7 @@
         <v>45019</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31962,7 +31962,7 @@
         <v>45036</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32019,7 +32019,7 @@
         <v>45040</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32076,7 +32076,7 @@
         <v>45040</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32133,7 +32133,7 @@
         <v>45040</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32190,7 +32190,7 @@
         <v>45040</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32247,7 +32247,7 @@
         <v>45056</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32304,7 +32304,7 @@
         <v>45063</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32361,7 +32361,7 @@
         <v>45069</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32418,7 +32418,7 @@
         <v>45075</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32475,7 +32475,7 @@
         <v>45075</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32532,7 +32532,7 @@
         <v>45089</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32589,7 +32589,7 @@
         <v>45093</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32646,7 +32646,7 @@
         <v>45113</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32703,7 +32703,7 @@
         <v>45121</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32760,7 +32760,7 @@
         <v>45126</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32817,7 +32817,7 @@
         <v>45132</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32874,7 +32874,7 @@
         <v>45132</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32931,7 +32931,7 @@
         <v>45132</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32988,7 +32988,7 @@
         <v>45139</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33045,7 +33045,7 @@
         <v>45167</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33102,7 +33102,7 @@
         <v>45167</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>

--- a/Översikt TORSÅS.xlsx
+++ b/Översikt TORSÅS.xlsx
@@ -572,7 +572,7 @@
         <v>43536</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>43922</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>43693</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>43425</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43682</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
         <v>43840</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>45001</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>43783</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>44459</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>43434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>43608</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>43703</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>43705</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>43712</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>44216</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>44410</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>44568</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44939</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43349</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43363</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43494</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>43579</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>43669</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43682</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>43703</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>44125</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>44231</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>44263</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>44453</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>44454</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>44804</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>45019</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>45079</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>43322</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         <v>43326</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         <v>43326</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>43326</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>43332</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>43339</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>43349</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>43349</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>43361</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         <v>43361</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         <v>43363</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>43363</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v>43376</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>43381</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4247,7 +4247,7 @@
         <v>43389</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         <v>43391</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4361,7 +4361,7 @@
         <v>43396</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
         <v>43396</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43396</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43398</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>43412</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>43419</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>43425</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43425</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43432</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43434</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43455</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43455</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43473</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43475</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43483</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43483</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43486</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43488</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>43488</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43488</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43490</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43490</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>43490</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5957,7 +5957,7 @@
         <v>43493</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43494</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>43497</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>43501</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>43504</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>43504</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>43511</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>43523</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6413,7 +6413,7 @@
         <v>43523</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6470,7 +6470,7 @@
         <v>43524</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>43524</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>43524</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>43528</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>43529</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43529</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43536</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43537</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43537</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43542</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43544</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43563</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>43563</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>43565</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7268,7 +7268,7 @@
         <v>43566</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7325,7 +7325,7 @@
         <v>43571</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>43577</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>43577</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>43578</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>43579</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43579</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43579</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>43598</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>43598</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>43600</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         <v>43612</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>43612</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>43612</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>43613</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>43613</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>43613</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>43614</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>43614</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>43616</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8408,7 +8408,7 @@
         <v>43626</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8465,7 +8465,7 @@
         <v>43627</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>43627</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>43629</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>43629</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8693,7 +8693,7 @@
         <v>43629</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>43629</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>43630</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>43630</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>43640</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>43640</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>43642</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>43643</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9149,7 +9149,7 @@
         <v>43643</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9206,7 +9206,7 @@
         <v>43645</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9263,7 +9263,7 @@
         <v>43648</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9320,7 +9320,7 @@
         <v>43648</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>43648</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9434,7 +9434,7 @@
         <v>43648</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9491,7 +9491,7 @@
         <v>43648</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9548,7 +9548,7 @@
         <v>43650</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9605,7 +9605,7 @@
         <v>43650</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9662,7 +9662,7 @@
         <v>43651</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>43664</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>43670</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9833,7 +9833,7 @@
         <v>43670</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9890,7 +9890,7 @@
         <v>43670</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9947,7 +9947,7 @@
         <v>43672</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10004,7 +10004,7 @@
         <v>43674</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10061,7 +10061,7 @@
         <v>43675</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10118,7 +10118,7 @@
         <v>43675</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10175,7 +10175,7 @@
         <v>43675</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10232,7 +10232,7 @@
         <v>43675</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>43675</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>43675</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>43676</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>43676</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>43676</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>43677</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>43677</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>43677</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>43679</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>43680</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>43682</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>43682</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>43682</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>43683</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>43683</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>43683</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>43683</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11258,7 +11258,7 @@
         <v>43684</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11315,7 +11315,7 @@
         <v>43686</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11372,7 +11372,7 @@
         <v>43689</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11429,7 +11429,7 @@
         <v>43689</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11486,7 +11486,7 @@
         <v>43689</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11543,7 +11543,7 @@
         <v>43689</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11600,7 +11600,7 @@
         <v>43689</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11657,7 +11657,7 @@
         <v>43690</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>43691</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>43691</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11828,7 +11828,7 @@
         <v>43692</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>43692</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>43692</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>43692</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>43692</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         <v>43693</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>43693</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>43693</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>43693</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>43693</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>43696</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>43698</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>43698</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>43705</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>43705</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>43705</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>43710</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>43710</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>43710</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12931,7 +12931,7 @@
         <v>43710</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         <v>43711</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>43711</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>43712</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>43712</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>43712</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13278,7 +13278,7 @@
         <v>43712</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13335,7 +13335,7 @@
         <v>43713</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>43714</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>43717</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>43717</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>43718</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>43718</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>43718</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>43719</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13791,7 +13791,7 @@
         <v>43724</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         <v>43724</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13905,7 +13905,7 @@
         <v>43726</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13962,7 +13962,7 @@
         <v>43728</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14019,7 +14019,7 @@
         <v>43732</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14076,7 +14076,7 @@
         <v>43732</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14133,7 +14133,7 @@
         <v>43732</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>43732</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>43733</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14304,7 +14304,7 @@
         <v>43734</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>43738</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>43740</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14475,7 +14475,7 @@
         <v>43740</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         <v>43747</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         <v>43752</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14646,7 +14646,7 @@
         <v>43753</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>43755</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14760,7 +14760,7 @@
         <v>43755</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14817,7 +14817,7 @@
         <v>43755</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14874,7 +14874,7 @@
         <v>43766</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14931,7 +14931,7 @@
         <v>43766</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14988,7 +14988,7 @@
         <v>43766</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>43766</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15102,7 +15102,7 @@
         <v>43766</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>43766</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15216,7 +15216,7 @@
         <v>43773</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>43775</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>43776</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>43781</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>43781</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>43782</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15558,7 +15558,7 @@
         <v>43789</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15615,7 +15615,7 @@
         <v>43789</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>43790</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>43794</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         <v>43794</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15843,7 +15843,7 @@
         <v>43794</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15900,7 +15900,7 @@
         <v>43795</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15957,7 +15957,7 @@
         <v>43795</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16014,7 +16014,7 @@
         <v>43796</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16071,7 +16071,7 @@
         <v>43796</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16128,7 +16128,7 @@
         <v>43797</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16185,7 +16185,7 @@
         <v>43804</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16242,7 +16242,7 @@
         <v>43810</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16299,7 +16299,7 @@
         <v>43811</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>43815</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16413,7 +16413,7 @@
         <v>43819</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16470,7 +16470,7 @@
         <v>43822</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16527,7 +16527,7 @@
         <v>43837</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16584,7 +16584,7 @@
         <v>43840</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16641,7 +16641,7 @@
         <v>43840</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16698,7 +16698,7 @@
         <v>43846</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>43851</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16812,7 +16812,7 @@
         <v>43857</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>43859</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>43861</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>43866</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>43867</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>43867</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>43878</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17211,7 +17211,7 @@
         <v>43885</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17268,7 +17268,7 @@
         <v>43885</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17325,7 +17325,7 @@
         <v>43887</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17382,7 +17382,7 @@
         <v>43892</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17439,7 +17439,7 @@
         <v>43892</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17496,7 +17496,7 @@
         <v>43892</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>43898</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>43903</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>43907</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>43907</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>43908</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>43908</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>43909</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>43909</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>43911</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         <v>43911</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>43917</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18180,7 +18180,7 @@
         <v>43920</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>43920</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18294,7 +18294,7 @@
         <v>43922</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18351,7 +18351,7 @@
         <v>43923</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18408,7 +18408,7 @@
         <v>43928</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18465,7 +18465,7 @@
         <v>43929</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18522,7 +18522,7 @@
         <v>43936</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18579,7 +18579,7 @@
         <v>43936</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18636,7 +18636,7 @@
         <v>43942</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         <v>43944</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18750,7 +18750,7 @@
         <v>43944</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18807,7 +18807,7 @@
         <v>43956</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18864,7 +18864,7 @@
         <v>43956</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18921,7 +18921,7 @@
         <v>43988</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18978,7 +18978,7 @@
         <v>43988</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19035,7 +19035,7 @@
         <v>44012</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19092,7 +19092,7 @@
         <v>44013</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19149,7 +19149,7 @@
         <v>44013</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19206,7 +19206,7 @@
         <v>44019</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19263,7 +19263,7 @@
         <v>44019</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19320,7 +19320,7 @@
         <v>44025</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19377,7 +19377,7 @@
         <v>44025</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19434,7 +19434,7 @@
         <v>44035</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19496,7 +19496,7 @@
         <v>44041</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19553,7 +19553,7 @@
         <v>44046</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19610,7 +19610,7 @@
         <v>44055</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19667,7 +19667,7 @@
         <v>44055</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>44055</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>44057</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44057</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19915,7 +19915,7 @@
         <v>44057</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         <v>44057</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>44057</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20086,7 +20086,7 @@
         <v>44057</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20143,7 +20143,7 @@
         <v>44057</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20200,7 +20200,7 @@
         <v>44057</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20257,7 +20257,7 @@
         <v>44063</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>44068</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>44074</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>44077</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>44078</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>44078</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>44095</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>44096</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>44098</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>44098</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>44102</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>44104</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>44105</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>44107</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>44107</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>44109</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>44110</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>44110</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>44110</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>44111</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44111</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44111</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44118</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44118</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44131</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>44134</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>44134</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
         <v>44138</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>44140</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44144</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>44146</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22029,7 +22029,7 @@
         <v>44150</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22086,7 +22086,7 @@
         <v>44152</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22143,7 +22143,7 @@
         <v>44155</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22205,7 +22205,7 @@
         <v>44155</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>44165</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>44172</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
         <v>44172</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>44173</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22495,7 +22495,7 @@
         <v>44174</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22552,7 +22552,7 @@
         <v>44181</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22609,7 +22609,7 @@
         <v>44182</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22666,7 +22666,7 @@
         <v>44187</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22723,7 +22723,7 @@
         <v>44201</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22780,7 +22780,7 @@
         <v>44207</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>44208</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22894,7 +22894,7 @@
         <v>44208</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22951,7 +22951,7 @@
         <v>44208</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>44208</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
         <v>44208</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23122,7 +23122,7 @@
         <v>44210</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23179,7 +23179,7 @@
         <v>44211</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23236,7 +23236,7 @@
         <v>44211</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23293,7 +23293,7 @@
         <v>44214</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23350,7 +23350,7 @@
         <v>44217</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23407,7 +23407,7 @@
         <v>44217</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23464,7 +23464,7 @@
         <v>44224</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23521,7 +23521,7 @@
         <v>44228</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23578,7 +23578,7 @@
         <v>44235</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         <v>44242</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23692,7 +23692,7 @@
         <v>44243</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23749,7 +23749,7 @@
         <v>44245</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23806,7 +23806,7 @@
         <v>44250</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23863,7 +23863,7 @@
         <v>44250</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23920,7 +23920,7 @@
         <v>44250</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23977,7 +23977,7 @@
         <v>44252</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44252</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44252</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44259</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24205,7 +24205,7 @@
         <v>44260</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24262,7 +24262,7 @@
         <v>44266</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24319,7 +24319,7 @@
         <v>44275</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24376,7 +24376,7 @@
         <v>44277</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24433,7 +24433,7 @@
         <v>44277</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24490,7 +24490,7 @@
         <v>44278</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24547,7 +24547,7 @@
         <v>44280</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24604,7 +24604,7 @@
         <v>44306</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24661,7 +24661,7 @@
         <v>44308</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24718,7 +24718,7 @@
         <v>44308</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24775,7 +24775,7 @@
         <v>44313</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24832,7 +24832,7 @@
         <v>44313</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24889,7 +24889,7 @@
         <v>44314</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         <v>44315</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         <v>44330</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25060,7 +25060,7 @@
         <v>44347</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25117,7 +25117,7 @@
         <v>44357</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25174,7 +25174,7 @@
         <v>44363</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25231,7 +25231,7 @@
         <v>44368</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25288,7 +25288,7 @@
         <v>44379</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25345,7 +25345,7 @@
         <v>44411</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25402,7 +25402,7 @@
         <v>44420</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25459,7 +25459,7 @@
         <v>44434</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25516,7 +25516,7 @@
         <v>44434</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>44442</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>44445</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>44447</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         <v>44453</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>44457</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25863,7 +25863,7 @@
         <v>44459</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25920,7 +25920,7 @@
         <v>44459</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25977,7 +25977,7 @@
         <v>44466</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>44466</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>44467</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>44467</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>44468</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>44473</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>44474</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26376,7 +26376,7 @@
         <v>44475</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26433,7 +26433,7 @@
         <v>44476</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26490,7 +26490,7 @@
         <v>44476</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26547,7 +26547,7 @@
         <v>44482</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26604,7 +26604,7 @@
         <v>44487</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26661,7 +26661,7 @@
         <v>44502</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26718,7 +26718,7 @@
         <v>44514</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26775,7 +26775,7 @@
         <v>44516</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26832,7 +26832,7 @@
         <v>44516</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26889,7 +26889,7 @@
         <v>44529</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         <v>44530</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27003,7 +27003,7 @@
         <v>44532</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27060,7 +27060,7 @@
         <v>44536</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         <v>44536</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27174,7 +27174,7 @@
         <v>44537</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27231,7 +27231,7 @@
         <v>44546</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27288,7 +27288,7 @@
         <v>44564</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27345,7 +27345,7 @@
         <v>44568</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27402,7 +27402,7 @@
         <v>44580</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27459,7 +27459,7 @@
         <v>44586</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27516,7 +27516,7 @@
         <v>44593</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27573,7 +27573,7 @@
         <v>44599</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27630,7 +27630,7 @@
         <v>44610</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27687,7 +27687,7 @@
         <v>44621</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27744,7 +27744,7 @@
         <v>44636</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27801,7 +27801,7 @@
         <v>44640</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27858,7 +27858,7 @@
         <v>44651</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27915,7 +27915,7 @@
         <v>44652</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27972,7 +27972,7 @@
         <v>44657</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28029,7 +28029,7 @@
         <v>44658</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28086,7 +28086,7 @@
         <v>44670</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28143,7 +28143,7 @@
         <v>44671</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28200,7 +28200,7 @@
         <v>44679</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28257,7 +28257,7 @@
         <v>44706</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28314,7 +28314,7 @@
         <v>44722</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28371,7 +28371,7 @@
         <v>44725</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28428,7 +28428,7 @@
         <v>44739</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         <v>44740</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28542,7 +28542,7 @@
         <v>44748</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>44763</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>44776</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>44788</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         <v>44795</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28827,7 +28827,7 @@
         <v>44795</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28884,7 +28884,7 @@
         <v>44795</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28941,7 +28941,7 @@
         <v>44811</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28998,7 +28998,7 @@
         <v>44811</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29055,7 +29055,7 @@
         <v>44812</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29112,7 +29112,7 @@
         <v>44812</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29169,7 +29169,7 @@
         <v>44816</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29226,7 +29226,7 @@
         <v>44818</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29283,7 +29283,7 @@
         <v>44827</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>44830</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
         <v>44841</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>44845</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>44849</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29568,7 +29568,7 @@
         <v>44851</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29625,7 +29625,7 @@
         <v>44852</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29682,7 +29682,7 @@
         <v>44852</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29739,7 +29739,7 @@
         <v>44861</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29796,7 +29796,7 @@
         <v>44862</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29853,7 +29853,7 @@
         <v>44865</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29910,7 +29910,7 @@
         <v>44865</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29967,7 +29967,7 @@
         <v>44879</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30024,7 +30024,7 @@
         <v>44890</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30081,7 +30081,7 @@
         <v>44896</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30138,7 +30138,7 @@
         <v>44900</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30195,7 +30195,7 @@
         <v>44902</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30252,7 +30252,7 @@
         <v>44902</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30309,7 +30309,7 @@
         <v>44902</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30366,7 +30366,7 @@
         <v>44910</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30423,7 +30423,7 @@
         <v>44928</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30480,7 +30480,7 @@
         <v>44928</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30537,7 +30537,7 @@
         <v>44938</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30594,7 +30594,7 @@
         <v>44942</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30651,7 +30651,7 @@
         <v>44943</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30708,7 +30708,7 @@
         <v>44944</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30765,7 +30765,7 @@
         <v>44949</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30822,7 +30822,7 @@
         <v>44949</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30879,7 +30879,7 @@
         <v>44958</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30936,7 +30936,7 @@
         <v>44965</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30993,7 +30993,7 @@
         <v>44977</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31050,7 +31050,7 @@
         <v>44984</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31107,7 +31107,7 @@
         <v>44985</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31164,7 +31164,7 @@
         <v>44987</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31221,7 +31221,7 @@
         <v>44988</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31278,7 +31278,7 @@
         <v>44988</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31335,7 +31335,7 @@
         <v>44988</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31392,7 +31392,7 @@
         <v>44988</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31449,7 +31449,7 @@
         <v>44992</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31506,7 +31506,7 @@
         <v>44993</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31563,7 +31563,7 @@
         <v>44999</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31620,7 +31620,7 @@
         <v>45006</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31677,7 +31677,7 @@
         <v>45008</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31734,7 +31734,7 @@
         <v>45008</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31791,7 +31791,7 @@
         <v>45008</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31848,7 +31848,7 @@
         <v>45019</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31905,7 +31905,7 @@
         <v>45019</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31962,7 +31962,7 @@
         <v>45036</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32019,7 +32019,7 @@
         <v>45040</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32076,7 +32076,7 @@
         <v>45040</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32133,7 +32133,7 @@
         <v>45040</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32190,7 +32190,7 @@
         <v>45040</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32247,7 +32247,7 @@
         <v>45056</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32304,7 +32304,7 @@
         <v>45063</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32361,7 +32361,7 @@
         <v>45069</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32418,7 +32418,7 @@
         <v>45075</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32475,7 +32475,7 @@
         <v>45075</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32532,7 +32532,7 @@
         <v>45089</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32589,7 +32589,7 @@
         <v>45093</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32646,7 +32646,7 @@
         <v>45113</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32703,7 +32703,7 @@
         <v>45121</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32760,7 +32760,7 @@
         <v>45126</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32817,7 +32817,7 @@
         <v>45132</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32874,7 +32874,7 @@
         <v>45132</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32931,7 +32931,7 @@
         <v>45132</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32988,7 +32988,7 @@
         <v>45139</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33045,7 +33045,7 @@
         <v>45167</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33102,7 +33102,7 @@
         <v>45167</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>

--- a/Översikt TORSÅS.xlsx
+++ b/Översikt TORSÅS.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y554"/>
+  <dimension ref="A1:Y556"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43536</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>43922</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>43693</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>43425</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43682</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
         <v>43840</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>45001</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>43783</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>44459</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>43434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>43608</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>43703</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>43705</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>43712</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>44216</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>44410</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>44568</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44939</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43349</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43363</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43494</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>43579</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>43669</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43682</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>43703</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>44125</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>44231</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>44263</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>44453</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>44454</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>44804</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>45019</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>45079</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>43322</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         <v>43326</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         <v>43326</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>43326</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>43332</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>43339</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>43349</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>43349</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>43361</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         <v>43361</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         <v>43363</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>43363</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v>43376</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>43381</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4247,7 +4247,7 @@
         <v>43389</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         <v>43391</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4361,7 +4361,7 @@
         <v>43396</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
         <v>43396</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43396</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43398</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>43412</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>43419</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>43425</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43425</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43432</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43434</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43455</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43455</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43473</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43475</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43483</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43483</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43486</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43488</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>43488</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43488</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43490</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43490</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>43490</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5957,7 +5957,7 @@
         <v>43493</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43494</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>43497</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>43501</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>43504</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>43504</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>43511</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>43523</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6413,7 +6413,7 @@
         <v>43523</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6470,7 +6470,7 @@
         <v>43524</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>43524</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>43524</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>43528</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>43529</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43529</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43536</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43537</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43537</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43542</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43544</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43563</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>43563</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>43565</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7268,7 +7268,7 @@
         <v>43566</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7325,7 +7325,7 @@
         <v>43571</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>43577</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>43577</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>43578</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>43579</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43579</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43579</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>43598</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>43598</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>43600</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         <v>43612</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>43612</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>43612</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>43613</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>43613</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>43613</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>43614</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>43614</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>43616</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8408,7 +8408,7 @@
         <v>43626</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8465,7 +8465,7 @@
         <v>43627</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>43627</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>43629</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>43629</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8693,7 +8693,7 @@
         <v>43629</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>43629</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>43630</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>43630</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>43640</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>43640</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>43642</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>43643</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9149,7 +9149,7 @@
         <v>43643</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9206,7 +9206,7 @@
         <v>43645</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9263,7 +9263,7 @@
         <v>43648</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9320,7 +9320,7 @@
         <v>43648</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>43648</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9434,7 +9434,7 @@
         <v>43648</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9491,7 +9491,7 @@
         <v>43648</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9548,7 +9548,7 @@
         <v>43650</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9605,7 +9605,7 @@
         <v>43650</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9662,7 +9662,7 @@
         <v>43651</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>43664</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>43670</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9833,7 +9833,7 @@
         <v>43670</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9890,7 +9890,7 @@
         <v>43670</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9947,7 +9947,7 @@
         <v>43672</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10004,7 +10004,7 @@
         <v>43674</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10061,7 +10061,7 @@
         <v>43675</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10118,7 +10118,7 @@
         <v>43675</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10175,7 +10175,7 @@
         <v>43675</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10232,7 +10232,7 @@
         <v>43675</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>43675</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>43675</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>43676</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>43676</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>43676</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>43677</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>43677</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>43677</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>43679</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>43680</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>43682</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>43682</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>43682</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>43683</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>43683</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>43683</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>43683</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11258,7 +11258,7 @@
         <v>43684</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11315,7 +11315,7 @@
         <v>43686</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11372,7 +11372,7 @@
         <v>43689</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11429,7 +11429,7 @@
         <v>43689</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11486,7 +11486,7 @@
         <v>43689</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11543,7 +11543,7 @@
         <v>43689</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11600,7 +11600,7 @@
         <v>43689</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11657,7 +11657,7 @@
         <v>43690</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>43691</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>43691</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11828,7 +11828,7 @@
         <v>43692</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>43692</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>43692</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>43692</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>43692</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         <v>43693</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>43693</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>43693</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>43693</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>43693</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>43696</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>43698</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>43698</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>43705</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>43705</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>43705</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>43710</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>43710</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>43710</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12931,7 +12931,7 @@
         <v>43710</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         <v>43711</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>43711</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>43712</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>43712</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>43712</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13278,7 +13278,7 @@
         <v>43712</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13335,7 +13335,7 @@
         <v>43713</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>43714</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>43717</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>43717</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>43718</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>43718</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>43718</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>43719</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13791,7 +13791,7 @@
         <v>43724</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         <v>43724</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13905,7 +13905,7 @@
         <v>43726</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13962,7 +13962,7 @@
         <v>43728</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14019,7 +14019,7 @@
         <v>43732</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14076,7 +14076,7 @@
         <v>43732</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14133,7 +14133,7 @@
         <v>43732</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>43732</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>43733</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14304,7 +14304,7 @@
         <v>43734</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>43738</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>43740</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14475,7 +14475,7 @@
         <v>43740</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         <v>43747</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         <v>43752</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14646,7 +14646,7 @@
         <v>43753</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>43755</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14760,7 +14760,7 @@
         <v>43755</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14817,7 +14817,7 @@
         <v>43755</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14874,7 +14874,7 @@
         <v>43766</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14931,7 +14931,7 @@
         <v>43766</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14988,7 +14988,7 @@
         <v>43766</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>43766</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15102,7 +15102,7 @@
         <v>43766</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>43766</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15216,7 +15216,7 @@
         <v>43773</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>43775</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>43776</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>43781</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>43781</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>43782</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15558,7 +15558,7 @@
         <v>43789</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15615,7 +15615,7 @@
         <v>43789</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>43790</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>43794</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         <v>43794</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15843,7 +15843,7 @@
         <v>43794</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15900,7 +15900,7 @@
         <v>43795</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15957,7 +15957,7 @@
         <v>43795</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16014,7 +16014,7 @@
         <v>43796</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16071,7 +16071,7 @@
         <v>43796</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16128,7 +16128,7 @@
         <v>43797</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16185,7 +16185,7 @@
         <v>43804</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16242,7 +16242,7 @@
         <v>43810</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16299,7 +16299,7 @@
         <v>43811</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>43815</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16413,7 +16413,7 @@
         <v>43819</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16470,7 +16470,7 @@
         <v>43822</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16527,7 +16527,7 @@
         <v>43837</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16584,7 +16584,7 @@
         <v>43840</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16641,7 +16641,7 @@
         <v>43840</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16698,7 +16698,7 @@
         <v>43846</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>43851</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16812,7 +16812,7 @@
         <v>43857</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>43859</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>43861</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>43866</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>43867</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>43867</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>43878</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17211,7 +17211,7 @@
         <v>43885</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17268,7 +17268,7 @@
         <v>43885</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17325,7 +17325,7 @@
         <v>43887</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17382,7 +17382,7 @@
         <v>43892</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17439,7 +17439,7 @@
         <v>43892</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17496,7 +17496,7 @@
         <v>43892</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>43898</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>43903</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>43907</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>43907</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>43908</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>43908</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>43909</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>43909</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>43911</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         <v>43911</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>43917</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18180,7 +18180,7 @@
         <v>43920</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>43920</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18294,7 +18294,7 @@
         <v>43922</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18351,7 +18351,7 @@
         <v>43923</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18408,7 +18408,7 @@
         <v>43928</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18465,7 +18465,7 @@
         <v>43929</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18522,7 +18522,7 @@
         <v>43936</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18579,7 +18579,7 @@
         <v>43936</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18636,7 +18636,7 @@
         <v>43942</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         <v>43944</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18750,7 +18750,7 @@
         <v>43944</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18807,7 +18807,7 @@
         <v>43956</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18864,7 +18864,7 @@
         <v>43956</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18921,7 +18921,7 @@
         <v>43988</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18978,7 +18978,7 @@
         <v>43988</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19035,7 +19035,7 @@
         <v>44012</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19092,7 +19092,7 @@
         <v>44013</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19149,7 +19149,7 @@
         <v>44013</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19206,7 +19206,7 @@
         <v>44019</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19263,7 +19263,7 @@
         <v>44019</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19320,7 +19320,7 @@
         <v>44025</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19377,7 +19377,7 @@
         <v>44025</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19434,7 +19434,7 @@
         <v>44035</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19496,7 +19496,7 @@
         <v>44041</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19553,7 +19553,7 @@
         <v>44046</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19610,7 +19610,7 @@
         <v>44055</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19667,7 +19667,7 @@
         <v>44055</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>44055</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>44057</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44057</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19915,7 +19915,7 @@
         <v>44057</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         <v>44057</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>44057</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20086,7 +20086,7 @@
         <v>44057</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20143,7 +20143,7 @@
         <v>44057</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20200,7 +20200,7 @@
         <v>44057</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20257,7 +20257,7 @@
         <v>44063</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>44068</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>44074</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>44077</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>44078</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>44078</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>44095</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>44096</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>44098</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>44098</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>44102</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>44104</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>44105</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>44107</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>44107</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>44109</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>44110</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>44110</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>44110</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>44111</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44111</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44111</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44118</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44118</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44131</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>44134</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>44134</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
         <v>44138</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>44140</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44144</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>44146</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22029,7 +22029,7 @@
         <v>44150</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22086,7 +22086,7 @@
         <v>44152</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22143,7 +22143,7 @@
         <v>44155</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22205,7 +22205,7 @@
         <v>44155</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>44165</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>44172</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
         <v>44172</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>44173</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22495,7 +22495,7 @@
         <v>44174</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22552,7 +22552,7 @@
         <v>44181</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22609,7 +22609,7 @@
         <v>44182</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22666,7 +22666,7 @@
         <v>44187</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22723,7 +22723,7 @@
         <v>44201</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22780,7 +22780,7 @@
         <v>44207</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>44208</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22894,7 +22894,7 @@
         <v>44208</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22951,7 +22951,7 @@
         <v>44208</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>44208</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
         <v>44208</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23122,7 +23122,7 @@
         <v>44210</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23179,7 +23179,7 @@
         <v>44211</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23236,7 +23236,7 @@
         <v>44211</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23293,7 +23293,7 @@
         <v>44214</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23350,7 +23350,7 @@
         <v>44217</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23407,7 +23407,7 @@
         <v>44217</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23464,7 +23464,7 @@
         <v>44224</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23521,7 +23521,7 @@
         <v>44228</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23578,7 +23578,7 @@
         <v>44235</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         <v>44242</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23692,7 +23692,7 @@
         <v>44243</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23749,7 +23749,7 @@
         <v>44245</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23806,7 +23806,7 @@
         <v>44250</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23863,7 +23863,7 @@
         <v>44250</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23920,7 +23920,7 @@
         <v>44250</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23977,7 +23977,7 @@
         <v>44252</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44252</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44252</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44259</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24205,7 +24205,7 @@
         <v>44260</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24262,7 +24262,7 @@
         <v>44266</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24319,7 +24319,7 @@
         <v>44275</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24376,7 +24376,7 @@
         <v>44277</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24433,7 +24433,7 @@
         <v>44277</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24490,7 +24490,7 @@
         <v>44278</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24547,7 +24547,7 @@
         <v>44280</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24604,7 +24604,7 @@
         <v>44306</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24661,7 +24661,7 @@
         <v>44308</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24718,7 +24718,7 @@
         <v>44308</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24775,7 +24775,7 @@
         <v>44313</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24832,7 +24832,7 @@
         <v>44313</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24889,7 +24889,7 @@
         <v>44314</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         <v>44315</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         <v>44330</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25060,7 +25060,7 @@
         <v>44347</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25117,7 +25117,7 @@
         <v>44357</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25174,7 +25174,7 @@
         <v>44363</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25231,7 +25231,7 @@
         <v>44368</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25288,7 +25288,7 @@
         <v>44379</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25345,7 +25345,7 @@
         <v>44411</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25402,7 +25402,7 @@
         <v>44420</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25459,7 +25459,7 @@
         <v>44434</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25516,7 +25516,7 @@
         <v>44434</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>44442</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>44445</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>44447</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         <v>44453</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>44457</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25863,7 +25863,7 @@
         <v>44459</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25920,7 +25920,7 @@
         <v>44459</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25977,7 +25977,7 @@
         <v>44466</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>44466</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>44467</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>44467</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>44468</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>44473</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>44474</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26376,7 +26376,7 @@
         <v>44475</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26433,7 +26433,7 @@
         <v>44476</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26490,7 +26490,7 @@
         <v>44476</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26547,7 +26547,7 @@
         <v>44482</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26604,7 +26604,7 @@
         <v>44487</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26661,7 +26661,7 @@
         <v>44502</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26718,7 +26718,7 @@
         <v>44514</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26775,7 +26775,7 @@
         <v>44516</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26832,7 +26832,7 @@
         <v>44516</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26889,7 +26889,7 @@
         <v>44529</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         <v>44530</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27003,7 +27003,7 @@
         <v>44532</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27060,7 +27060,7 @@
         <v>44536</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         <v>44536</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27174,7 +27174,7 @@
         <v>44537</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27231,7 +27231,7 @@
         <v>44546</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27288,7 +27288,7 @@
         <v>44564</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27345,7 +27345,7 @@
         <v>44568</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27402,7 +27402,7 @@
         <v>44580</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27459,7 +27459,7 @@
         <v>44586</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27516,7 +27516,7 @@
         <v>44593</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27573,7 +27573,7 @@
         <v>44599</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27630,7 +27630,7 @@
         <v>44610</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27687,7 +27687,7 @@
         <v>44621</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27744,7 +27744,7 @@
         <v>44636</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27801,7 +27801,7 @@
         <v>44640</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27858,7 +27858,7 @@
         <v>44651</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27915,7 +27915,7 @@
         <v>44652</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27972,7 +27972,7 @@
         <v>44657</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28029,7 +28029,7 @@
         <v>44658</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28086,7 +28086,7 @@
         <v>44670</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28143,7 +28143,7 @@
         <v>44671</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28200,7 +28200,7 @@
         <v>44679</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28257,7 +28257,7 @@
         <v>44706</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28314,7 +28314,7 @@
         <v>44722</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28371,7 +28371,7 @@
         <v>44725</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28428,7 +28428,7 @@
         <v>44739</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         <v>44740</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28542,7 +28542,7 @@
         <v>44748</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>44763</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>44776</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>44788</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         <v>44795</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28827,7 +28827,7 @@
         <v>44795</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28884,7 +28884,7 @@
         <v>44795</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28941,7 +28941,7 @@
         <v>44811</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28998,7 +28998,7 @@
         <v>44811</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29055,7 +29055,7 @@
         <v>44812</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29112,7 +29112,7 @@
         <v>44812</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29169,7 +29169,7 @@
         <v>44816</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29226,7 +29226,7 @@
         <v>44818</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29283,7 +29283,7 @@
         <v>44827</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>44830</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
         <v>44841</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>44845</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>44849</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29568,7 +29568,7 @@
         <v>44851</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29625,7 +29625,7 @@
         <v>44852</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29682,7 +29682,7 @@
         <v>44852</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29739,7 +29739,7 @@
         <v>44861</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29796,7 +29796,7 @@
         <v>44862</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29853,7 +29853,7 @@
         <v>44865</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29910,7 +29910,7 @@
         <v>44865</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29967,7 +29967,7 @@
         <v>44879</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30024,7 +30024,7 @@
         <v>44890</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30081,7 +30081,7 @@
         <v>44896</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30138,7 +30138,7 @@
         <v>44900</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30195,7 +30195,7 @@
         <v>44902</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30252,7 +30252,7 @@
         <v>44902</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30309,7 +30309,7 @@
         <v>44902</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30366,7 +30366,7 @@
         <v>44910</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30423,7 +30423,7 @@
         <v>44928</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30480,7 +30480,7 @@
         <v>44928</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30537,7 +30537,7 @@
         <v>44938</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30594,7 +30594,7 @@
         <v>44942</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30651,7 +30651,7 @@
         <v>44943</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30708,7 +30708,7 @@
         <v>44944</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30765,7 +30765,7 @@
         <v>44949</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30822,7 +30822,7 @@
         <v>44949</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30879,7 +30879,7 @@
         <v>44958</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30936,7 +30936,7 @@
         <v>44965</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30993,7 +30993,7 @@
         <v>44977</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31050,7 +31050,7 @@
         <v>44984</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31107,7 +31107,7 @@
         <v>44985</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31164,7 +31164,7 @@
         <v>44987</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31221,7 +31221,7 @@
         <v>44988</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31278,7 +31278,7 @@
         <v>44988</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31335,7 +31335,7 @@
         <v>44988</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31392,7 +31392,7 @@
         <v>44988</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31449,7 +31449,7 @@
         <v>44992</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31506,7 +31506,7 @@
         <v>44993</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31563,7 +31563,7 @@
         <v>44999</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31620,7 +31620,7 @@
         <v>45006</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31677,7 +31677,7 @@
         <v>45008</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31734,7 +31734,7 @@
         <v>45008</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31791,7 +31791,7 @@
         <v>45008</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31848,7 +31848,7 @@
         <v>45019</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31905,7 +31905,7 @@
         <v>45019</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31962,7 +31962,7 @@
         <v>45036</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32019,7 +32019,7 @@
         <v>45040</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32076,7 +32076,7 @@
         <v>45040</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32133,7 +32133,7 @@
         <v>45040</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32190,7 +32190,7 @@
         <v>45040</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32247,7 +32247,7 @@
         <v>45056</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32304,7 +32304,7 @@
         <v>45063</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32361,7 +32361,7 @@
         <v>45069</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32418,7 +32418,7 @@
         <v>45075</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32475,7 +32475,7 @@
         <v>45075</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32532,7 +32532,7 @@
         <v>45089</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32589,7 +32589,7 @@
         <v>45093</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32646,7 +32646,7 @@
         <v>45113</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32703,7 +32703,7 @@
         <v>45121</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32760,7 +32760,7 @@
         <v>45126</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32817,7 +32817,7 @@
         <v>45132</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32874,7 +32874,7 @@
         <v>45132</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32931,7 +32931,7 @@
         <v>45132</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32988,7 +32988,7 @@
         <v>45139</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33045,7 +33045,7 @@
         <v>45167</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33092,7 +33092,7 @@
       </c>
       <c r="R553" s="2" t="inlineStr"/>
     </row>
-    <row r="554">
+    <row r="554" ht="15" customHeight="1">
       <c r="A554" t="inlineStr">
         <is>
           <t>A 40046-2023</t>
@@ -33102,7 +33102,7 @@
         <v>45167</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33148,6 +33148,120 @@
         <v>0</v>
       </c>
       <c r="R554" s="2" t="inlineStr"/>
+    </row>
+    <row r="555" ht="15" customHeight="1">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>A 42920-2023</t>
+        </is>
+      </c>
+      <c r="B555" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C555" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E555" t="inlineStr">
+        <is>
+          <t>TORSÅS</t>
+        </is>
+      </c>
+      <c r="G555" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H555" t="n">
+        <v>0</v>
+      </c>
+      <c r="I555" t="n">
+        <v>0</v>
+      </c>
+      <c r="J555" t="n">
+        <v>0</v>
+      </c>
+      <c r="K555" t="n">
+        <v>0</v>
+      </c>
+      <c r="L555" t="n">
+        <v>0</v>
+      </c>
+      <c r="M555" t="n">
+        <v>0</v>
+      </c>
+      <c r="N555" t="n">
+        <v>0</v>
+      </c>
+      <c r="O555" t="n">
+        <v>0</v>
+      </c>
+      <c r="P555" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q555" t="n">
+        <v>0</v>
+      </c>
+      <c r="R555" s="2" t="inlineStr"/>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>A 42910-2023</t>
+        </is>
+      </c>
+      <c r="B556" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C556" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E556" t="inlineStr">
+        <is>
+          <t>TORSÅS</t>
+        </is>
+      </c>
+      <c r="G556" t="n">
+        <v>1</v>
+      </c>
+      <c r="H556" t="n">
+        <v>0</v>
+      </c>
+      <c r="I556" t="n">
+        <v>0</v>
+      </c>
+      <c r="J556" t="n">
+        <v>0</v>
+      </c>
+      <c r="K556" t="n">
+        <v>0</v>
+      </c>
+      <c r="L556" t="n">
+        <v>0</v>
+      </c>
+      <c r="M556" t="n">
+        <v>0</v>
+      </c>
+      <c r="N556" t="n">
+        <v>0</v>
+      </c>
+      <c r="O556" t="n">
+        <v>0</v>
+      </c>
+      <c r="P556" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q556" t="n">
+        <v>0</v>
+      </c>
+      <c r="R556" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt TORSÅS.xlsx
+++ b/Översikt TORSÅS.xlsx
@@ -572,7 +572,7 @@
         <v>43536</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -641,27 +641,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/artfynd/A 14449-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/artfynd/A 14449-2019.xlsx", "A 14449-2019")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/kartor/A 14449-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/kartor/A 14449-2019.png", "A 14449-2019")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 14449-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 14449-2019.docx", "A 14449-2019")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 14449-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 14449-2019.docx", "A 14449-2019")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 14449-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 14449-2019.docx", "A 14449-2019")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 14449-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 14449-2019.docx", "A 14449-2019")</f>
         <v/>
       </c>
     </row>
@@ -675,7 +675,7 @@
         <v>43922</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -736,31 +736,31 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/artfynd/A 17146-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/artfynd/A 17146-2020.xlsx", "A 17146-2020")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/kartor/A 17146-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/kartor/A 17146-2020.png", "A 17146-2020")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/knärot/A 17146-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/knärot/A 17146-2020.png", "A 17146-2020")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 17146-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 17146-2020.docx", "A 17146-2020")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 17146-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 17146-2020.docx", "A 17146-2020")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 17146-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 17146-2020.docx", "A 17146-2020")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 17146-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 17146-2020.docx", "A 17146-2020")</f>
         <v/>
       </c>
     </row>
@@ -774,7 +774,7 @@
         <v>43693</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -830,27 +830,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/artfynd/A 40023-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/artfynd/A 40023-2019.xlsx", "A 40023-2019")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/kartor/A 40023-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/kartor/A 40023-2019.png", "A 40023-2019")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 40023-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 40023-2019.docx", "A 40023-2019")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 40023-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 40023-2019.docx", "A 40023-2019")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 40023-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 40023-2019.docx", "A 40023-2019")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 40023-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 40023-2019.docx", "A 40023-2019")</f>
         <v/>
       </c>
     </row>
@@ -864,7 +864,7 @@
         <v>43425</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,27 +918,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/artfynd/A 61912-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/artfynd/A 61912-2018.xlsx", "A 61912-2018")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/kartor/A 61912-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/kartor/A 61912-2018.png", "A 61912-2018")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 61912-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 61912-2018.docx", "A 61912-2018")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 61912-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 61912-2018.docx", "A 61912-2018")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 61912-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 61912-2018.docx", "A 61912-2018")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 61912-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 61912-2018.docx", "A 61912-2018")</f>
         <v/>
       </c>
     </row>
@@ -952,7 +952,7 @@
         <v>43682</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1006,27 +1006,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/artfynd/A 37646-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/artfynd/A 37646-2019.xlsx", "A 37646-2019")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/kartor/A 37646-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/kartor/A 37646-2019.png", "A 37646-2019")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 37646-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 37646-2019.docx", "A 37646-2019")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 37646-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 37646-2019.docx", "A 37646-2019")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 37646-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 37646-2019.docx", "A 37646-2019")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 37646-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 37646-2019.docx", "A 37646-2019")</f>
         <v/>
       </c>
     </row>
@@ -1040,7 +1040,7 @@
         <v>43840</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1094,27 +1094,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/artfynd/A 1127-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/artfynd/A 1127-2020.xlsx", "A 1127-2020")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/kartor/A 1127-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/kartor/A 1127-2020.png", "A 1127-2020")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 1127-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 1127-2020.docx", "A 1127-2020")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 1127-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 1127-2020.docx", "A 1127-2020")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 1127-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 1127-2020.docx", "A 1127-2020")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 1127-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 1127-2020.docx", "A 1127-2020")</f>
         <v/>
       </c>
     </row>
@@ -1128,7 +1128,7 @@
         <v>45001</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1182,27 +1182,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/artfynd/A 12870-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/artfynd/A 12870-2023.xlsx", "A 12870-2023")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/kartor/A 12870-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/kartor/A 12870-2023.png", "A 12870-2023")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 12870-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 12870-2023.docx", "A 12870-2023")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 12870-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 12870-2023.docx", "A 12870-2023")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 12870-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 12870-2023.docx", "A 12870-2023")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 12870-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 12870-2023.docx", "A 12870-2023")</f>
         <v/>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
         <v>43783</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1269,27 +1269,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/artfynd/A 61247-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/artfynd/A 61247-2019.xlsx", "A 61247-2019")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/kartor/A 61247-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/kartor/A 61247-2019.png", "A 61247-2019")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 61247-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 61247-2019.docx", "A 61247-2019")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 61247-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 61247-2019.docx", "A 61247-2019")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 61247-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 61247-2019.docx", "A 61247-2019")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 61247-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 61247-2019.docx", "A 61247-2019")</f>
         <v/>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
         <v>44459</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1356,27 +1356,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/artfynd/A 50351-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/artfynd/A 50351-2021.xlsx", "A 50351-2021")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/kartor/A 50351-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/kartor/A 50351-2021.png", "A 50351-2021")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 50351-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 50351-2021.docx", "A 50351-2021")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 50351-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 50351-2021.docx", "A 50351-2021")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 50351-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 50351-2021.docx", "A 50351-2021")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 50351-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 50351-2021.docx", "A 50351-2021")</f>
         <v/>
       </c>
     </row>
@@ -1390,7 +1390,7 @@
         <v>43434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1442,27 +1442,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/artfynd/A 66214-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/artfynd/A 66214-2018.xlsx", "A 66214-2018")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/kartor/A 66214-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/kartor/A 66214-2018.png", "A 66214-2018")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 66214-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 66214-2018.docx", "A 66214-2018")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 66214-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 66214-2018.docx", "A 66214-2018")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 66214-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 66214-2018.docx", "A 66214-2018")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 66214-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 66214-2018.docx", "A 66214-2018")</f>
         <v/>
       </c>
     </row>
@@ -1476,7 +1476,7 @@
         <v>43608</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1528,27 +1528,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/artfynd/A 25729-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/artfynd/A 25729-2019.xlsx", "A 25729-2019")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/kartor/A 25729-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/kartor/A 25729-2019.png", "A 25729-2019")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 25729-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 25729-2019.docx", "A 25729-2019")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 25729-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 25729-2019.docx", "A 25729-2019")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 25729-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 25729-2019.docx", "A 25729-2019")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 25729-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 25729-2019.docx", "A 25729-2019")</f>
         <v/>
       </c>
     </row>
@@ -1562,7 +1562,7 @@
         <v>43703</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1614,27 +1614,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/artfynd/A 42206-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/artfynd/A 42206-2019.xlsx", "A 42206-2019")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/kartor/A 42206-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/kartor/A 42206-2019.png", "A 42206-2019")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 42206-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 42206-2019.docx", "A 42206-2019")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 42206-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 42206-2019.docx", "A 42206-2019")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 42206-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 42206-2019.docx", "A 42206-2019")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 42206-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 42206-2019.docx", "A 42206-2019")</f>
         <v/>
       </c>
     </row>
@@ -1648,7 +1648,7 @@
         <v>43705</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1705,27 +1705,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/artfynd/A 43150-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/artfynd/A 43150-2019.xlsx", "A 43150-2019")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/kartor/A 43150-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/kartor/A 43150-2019.png", "A 43150-2019")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 43150-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 43150-2019.docx", "A 43150-2019")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 43150-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 43150-2019.docx", "A 43150-2019")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 43150-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 43150-2019.docx", "A 43150-2019")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 43150-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 43150-2019.docx", "A 43150-2019")</f>
         <v/>
       </c>
     </row>
@@ -1739,7 +1739,7 @@
         <v>43712</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1791,27 +1791,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/artfynd/A 44711-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/artfynd/A 44711-2019.xlsx", "A 44711-2019")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/kartor/A 44711-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/kartor/A 44711-2019.png", "A 44711-2019")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 44711-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 44711-2019.docx", "A 44711-2019")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 44711-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 44711-2019.docx", "A 44711-2019")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 44711-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 44711-2019.docx", "A 44711-2019")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 44711-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 44711-2019.docx", "A 44711-2019")</f>
         <v/>
       </c>
     </row>
@@ -1825,7 +1825,7 @@
         <v>44216</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1877,27 +1877,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/artfynd/A 2921-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/artfynd/A 2921-2021.xlsx", "A 2921-2021")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/kartor/A 2921-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/kartor/A 2921-2021.png", "A 2921-2021")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 2921-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 2921-2021.docx", "A 2921-2021")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 2921-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 2921-2021.docx", "A 2921-2021")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 2921-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 2921-2021.docx", "A 2921-2021")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 2921-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 2921-2021.docx", "A 2921-2021")</f>
         <v/>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
         <v>44410</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1963,27 +1963,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/artfynd/A 38695-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/artfynd/A 38695-2021.xlsx", "A 38695-2021")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/kartor/A 38695-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/kartor/A 38695-2021.png", "A 38695-2021")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 38695-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 38695-2021.docx", "A 38695-2021")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 38695-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 38695-2021.docx", "A 38695-2021")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 38695-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 38695-2021.docx", "A 38695-2021")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 38695-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 38695-2021.docx", "A 38695-2021")</f>
         <v/>
       </c>
     </row>
@@ -1997,7 +1997,7 @@
         <v>44568</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2049,27 +2049,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/artfynd/A 942-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/artfynd/A 942-2022.xlsx", "A 942-2022")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/kartor/A 942-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/kartor/A 942-2022.png", "A 942-2022")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 942-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 942-2022.docx", "A 942-2022")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 942-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 942-2022.docx", "A 942-2022")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 942-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 942-2022.docx", "A 942-2022")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 942-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 942-2022.docx", "A 942-2022")</f>
         <v/>
       </c>
     </row>
@@ -2083,7 +2083,7 @@
         <v>44939</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2135,27 +2135,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/artfynd/A 2063-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/artfynd/A 2063-2023.xlsx", "A 2063-2023")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/kartor/A 2063-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/kartor/A 2063-2023.png", "A 2063-2023")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 2063-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 2063-2023.docx", "A 2063-2023")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 2063-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 2063-2023.docx", "A 2063-2023")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 2063-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 2063-2023.docx", "A 2063-2023")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 2063-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 2063-2023.docx", "A 2063-2023")</f>
         <v/>
       </c>
     </row>
@@ -2169,7 +2169,7 @@
         <v>43349</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2220,27 +2220,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/artfynd/A 41586-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/artfynd/A 41586-2018.xlsx", "A 41586-2018")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/kartor/A 41586-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/kartor/A 41586-2018.png", "A 41586-2018")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 41586-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 41586-2018.docx", "A 41586-2018")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 41586-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 41586-2018.docx", "A 41586-2018")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 41586-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 41586-2018.docx", "A 41586-2018")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 41586-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 41586-2018.docx", "A 41586-2018")</f>
         <v/>
       </c>
     </row>
@@ -2254,7 +2254,7 @@
         <v>43363</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2305,27 +2305,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/artfynd/A 45366-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/artfynd/A 45366-2018.xlsx", "A 45366-2018")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/kartor/A 45366-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/kartor/A 45366-2018.png", "A 45366-2018")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 45366-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 45366-2018.docx", "A 45366-2018")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 45366-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 45366-2018.docx", "A 45366-2018")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 45366-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 45366-2018.docx", "A 45366-2018")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 45366-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 45366-2018.docx", "A 45366-2018")</f>
         <v/>
       </c>
     </row>
@@ -2339,7 +2339,7 @@
         <v>43494</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2390,27 +2390,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/artfynd/A 6492-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/artfynd/A 6492-2019.xlsx", "A 6492-2019")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/kartor/A 6492-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/kartor/A 6492-2019.png", "A 6492-2019")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 6492-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 6492-2019.docx", "A 6492-2019")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 6492-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 6492-2019.docx", "A 6492-2019")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 6492-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 6492-2019.docx", "A 6492-2019")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 6492-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 6492-2019.docx", "A 6492-2019")</f>
         <v/>
       </c>
     </row>
@@ -2424,7 +2424,7 @@
         <v>43579</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2475,27 +2475,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/artfynd/A 21143-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/artfynd/A 21143-2019.xlsx", "A 21143-2019")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/kartor/A 21143-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/kartor/A 21143-2019.png", "A 21143-2019")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 21143-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 21143-2019.docx", "A 21143-2019")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 21143-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 21143-2019.docx", "A 21143-2019")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 21143-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 21143-2019.docx", "A 21143-2019")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 21143-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 21143-2019.docx", "A 21143-2019")</f>
         <v/>
       </c>
     </row>
@@ -2509,7 +2509,7 @@
         <v>43669</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2560,27 +2560,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/artfynd/A 36218-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/artfynd/A 36218-2019.xlsx", "A 36218-2019")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/kartor/A 36218-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/kartor/A 36218-2019.png", "A 36218-2019")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 36218-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 36218-2019.docx", "A 36218-2019")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 36218-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 36218-2019.docx", "A 36218-2019")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 36218-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 36218-2019.docx", "A 36218-2019")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 36218-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 36218-2019.docx", "A 36218-2019")</f>
         <v/>
       </c>
     </row>
@@ -2594,7 +2594,7 @@
         <v>43682</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2645,27 +2645,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/artfynd/A 37689-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/artfynd/A 37689-2019.xlsx", "A 37689-2019")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/kartor/A 37689-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/kartor/A 37689-2019.png", "A 37689-2019")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 37689-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 37689-2019.docx", "A 37689-2019")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 37689-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 37689-2019.docx", "A 37689-2019")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 37689-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 37689-2019.docx", "A 37689-2019")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 37689-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 37689-2019.docx", "A 37689-2019")</f>
         <v/>
       </c>
     </row>
@@ -2679,7 +2679,7 @@
         <v>43703</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2730,27 +2730,27 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/artfynd/A 42211-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/artfynd/A 42211-2019.xlsx", "A 42211-2019")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/kartor/A 42211-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/kartor/A 42211-2019.png", "A 42211-2019")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 42211-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 42211-2019.docx", "A 42211-2019")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 42211-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 42211-2019.docx", "A 42211-2019")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 42211-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 42211-2019.docx", "A 42211-2019")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 42211-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 42211-2019.docx", "A 42211-2019")</f>
         <v/>
       </c>
     </row>
@@ -2764,7 +2764,7 @@
         <v>44125</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2815,27 +2815,27 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/artfynd/A 53918-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/artfynd/A 53918-2020.xlsx", "A 53918-2020")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/kartor/A 53918-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/kartor/A 53918-2020.png", "A 53918-2020")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 53918-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 53918-2020.docx", "A 53918-2020")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 53918-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 53918-2020.docx", "A 53918-2020")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 53918-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 53918-2020.docx", "A 53918-2020")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 53918-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 53918-2020.docx", "A 53918-2020")</f>
         <v/>
       </c>
     </row>
@@ -2849,7 +2849,7 @@
         <v>44231</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2900,27 +2900,27 @@
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/artfynd/A 5861-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/artfynd/A 5861-2021.xlsx", "A 5861-2021")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/kartor/A 5861-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/kartor/A 5861-2021.png", "A 5861-2021")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 5861-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 5861-2021.docx", "A 5861-2021")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 5861-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 5861-2021.docx", "A 5861-2021")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 5861-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 5861-2021.docx", "A 5861-2021")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 5861-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 5861-2021.docx", "A 5861-2021")</f>
         <v/>
       </c>
     </row>
@@ -2934,7 +2934,7 @@
         <v>44263</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2985,27 +2985,27 @@
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/artfynd/A 11221-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/artfynd/A 11221-2021.xlsx", "A 11221-2021")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/kartor/A 11221-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/kartor/A 11221-2021.png", "A 11221-2021")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 11221-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 11221-2021.docx", "A 11221-2021")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 11221-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 11221-2021.docx", "A 11221-2021")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 11221-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 11221-2021.docx", "A 11221-2021")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 11221-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 11221-2021.docx", "A 11221-2021")</f>
         <v/>
       </c>
     </row>
@@ -3019,7 +3019,7 @@
         <v>44453</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3070,27 +3070,27 @@
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/artfynd/A 49001-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/artfynd/A 49001-2021.xlsx", "A 49001-2021")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/kartor/A 49001-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/kartor/A 49001-2021.png", "A 49001-2021")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 49001-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 49001-2021.docx", "A 49001-2021")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 49001-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 49001-2021.docx", "A 49001-2021")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 49001-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 49001-2021.docx", "A 49001-2021")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 49001-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 49001-2021.docx", "A 49001-2021")</f>
         <v/>
       </c>
     </row>
@@ -3104,7 +3104,7 @@
         <v>44454</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3155,27 +3155,27 @@
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/artfynd/A 49410-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/artfynd/A 49410-2021.xlsx", "A 49410-2021")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/kartor/A 49410-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/kartor/A 49410-2021.png", "A 49410-2021")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 49410-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 49410-2021.docx", "A 49410-2021")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 49410-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 49410-2021.docx", "A 49410-2021")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 49410-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 49410-2021.docx", "A 49410-2021")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 49410-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 49410-2021.docx", "A 49410-2021")</f>
         <v/>
       </c>
     </row>
@@ -3189,7 +3189,7 @@
         <v>44804</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3240,27 +3240,27 @@
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/artfynd/A 36625-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/artfynd/A 36625-2022.xlsx", "A 36625-2022")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/kartor/A 36625-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/kartor/A 36625-2022.png", "A 36625-2022")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 36625-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 36625-2022.docx", "A 36625-2022")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 36625-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 36625-2022.docx", "A 36625-2022")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 36625-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 36625-2022.docx", "A 36625-2022")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 36625-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 36625-2022.docx", "A 36625-2022")</f>
         <v/>
       </c>
     </row>
@@ -3274,7 +3274,7 @@
         <v>45019</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3325,27 +3325,27 @@
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/artfynd/A 15376-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/artfynd/A 15376-2023.xlsx", "A 15376-2023")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/kartor/A 15376-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/kartor/A 15376-2023.png", "A 15376-2023")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 15376-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 15376-2023.docx", "A 15376-2023")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 15376-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 15376-2023.docx", "A 15376-2023")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 15376-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 15376-2023.docx", "A 15376-2023")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 15376-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 15376-2023.docx", "A 15376-2023")</f>
         <v/>
       </c>
     </row>
@@ -3359,7 +3359,7 @@
         <v>45079</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3410,27 +3410,27 @@
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/artfynd/A 24157-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/artfynd/A 24157-2023.xlsx", "A 24157-2023")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/kartor/A 24157-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/kartor/A 24157-2023.png", "A 24157-2023")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 24157-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 24157-2023.docx", "A 24157-2023")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 24157-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 24157-2023.docx", "A 24157-2023")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 24157-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 24157-2023.docx", "A 24157-2023")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 24157-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 24157-2023.docx", "A 24157-2023")</f>
         <v/>
       </c>
     </row>
@@ -3444,7 +3444,7 @@
         <v>43322</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         <v>43326</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         <v>43326</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>43326</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>43332</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>43339</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>43349</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>43349</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>43361</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         <v>43361</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         <v>43363</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>43363</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v>43376</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>43381</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4247,7 +4247,7 @@
         <v>43389</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         <v>43391</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4361,7 +4361,7 @@
         <v>43396</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
         <v>43396</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43396</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43398</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>43412</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>43419</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>43425</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43425</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43432</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43434</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43455</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43455</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43473</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43475</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43483</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43483</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43486</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43488</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>43488</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43488</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43490</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43490</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>43490</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5957,7 +5957,7 @@
         <v>43493</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43494</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>43497</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>43501</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>43504</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>43504</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>43511</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>43523</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6413,7 +6413,7 @@
         <v>43523</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6470,7 +6470,7 @@
         <v>43524</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>43524</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>43524</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>43528</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>43529</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43529</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43536</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43537</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43537</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43542</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43544</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43563</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>43563</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>43565</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7268,7 +7268,7 @@
         <v>43566</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7325,7 +7325,7 @@
         <v>43571</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>43577</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>43577</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>43578</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>43579</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43579</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43579</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>43598</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>43598</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>43600</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         <v>43612</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>43612</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>43612</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>43613</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>43613</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>43613</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>43614</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>43614</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>43616</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8408,7 +8408,7 @@
         <v>43626</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8465,7 +8465,7 @@
         <v>43627</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>43627</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>43629</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>43629</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8693,7 +8693,7 @@
         <v>43629</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>43629</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>43630</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>43630</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>43640</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>43640</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>43642</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>43643</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9149,7 +9149,7 @@
         <v>43643</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9206,7 +9206,7 @@
         <v>43645</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9263,7 +9263,7 @@
         <v>43648</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9320,7 +9320,7 @@
         <v>43648</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>43648</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9434,7 +9434,7 @@
         <v>43648</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9491,7 +9491,7 @@
         <v>43648</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9548,7 +9548,7 @@
         <v>43650</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9605,7 +9605,7 @@
         <v>43650</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9662,7 +9662,7 @@
         <v>43651</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>43664</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>43670</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9833,7 +9833,7 @@
         <v>43670</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9890,7 +9890,7 @@
         <v>43670</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9947,7 +9947,7 @@
         <v>43672</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10004,7 +10004,7 @@
         <v>43674</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10061,7 +10061,7 @@
         <v>43675</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10118,7 +10118,7 @@
         <v>43675</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10175,7 +10175,7 @@
         <v>43675</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10232,7 +10232,7 @@
         <v>43675</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>43675</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>43675</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>43676</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>43676</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>43676</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>43677</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>43677</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>43677</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>43679</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>43680</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>43682</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>43682</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>43682</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>43683</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>43683</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>43683</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>43683</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11258,7 +11258,7 @@
         <v>43684</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11315,7 +11315,7 @@
         <v>43686</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11372,7 +11372,7 @@
         <v>43689</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11429,7 +11429,7 @@
         <v>43689</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11486,7 +11486,7 @@
         <v>43689</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11543,7 +11543,7 @@
         <v>43689</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11600,7 +11600,7 @@
         <v>43689</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11657,7 +11657,7 @@
         <v>43690</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>43691</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>43691</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11828,7 +11828,7 @@
         <v>43692</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>43692</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>43692</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>43692</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>43692</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         <v>43693</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>43693</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>43693</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>43693</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>43693</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>43696</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>43698</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>43698</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>43705</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>43705</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>43705</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>43710</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>43710</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>43710</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12931,7 +12931,7 @@
         <v>43710</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         <v>43711</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>43711</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>43712</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>43712</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>43712</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13278,7 +13278,7 @@
         <v>43712</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13335,7 +13335,7 @@
         <v>43713</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>43714</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>43717</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>43717</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>43718</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>43718</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>43718</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>43719</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13791,7 +13791,7 @@
         <v>43724</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         <v>43724</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13905,7 +13905,7 @@
         <v>43726</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13962,7 +13962,7 @@
         <v>43728</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14019,7 +14019,7 @@
         <v>43732</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14076,7 +14076,7 @@
         <v>43732</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14133,7 +14133,7 @@
         <v>43732</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>43732</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>43733</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14304,7 +14304,7 @@
         <v>43734</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>43738</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>43740</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14475,7 +14475,7 @@
         <v>43740</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         <v>43747</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         <v>43752</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14646,7 +14646,7 @@
         <v>43753</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>43755</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14760,7 +14760,7 @@
         <v>43755</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14817,7 +14817,7 @@
         <v>43755</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14874,7 +14874,7 @@
         <v>43766</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14931,7 +14931,7 @@
         <v>43766</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14988,7 +14988,7 @@
         <v>43766</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>43766</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15102,7 +15102,7 @@
         <v>43766</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>43766</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15216,7 +15216,7 @@
         <v>43773</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>43775</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>43776</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>43781</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>43781</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>43782</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15558,7 +15558,7 @@
         <v>43789</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15615,7 +15615,7 @@
         <v>43789</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>43790</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>43794</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         <v>43794</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15843,7 +15843,7 @@
         <v>43794</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15900,7 +15900,7 @@
         <v>43795</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15957,7 +15957,7 @@
         <v>43795</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16014,7 +16014,7 @@
         <v>43796</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16071,7 +16071,7 @@
         <v>43796</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16128,7 +16128,7 @@
         <v>43797</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16185,7 +16185,7 @@
         <v>43804</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16242,7 +16242,7 @@
         <v>43810</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16299,7 +16299,7 @@
         <v>43811</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>43815</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16413,7 +16413,7 @@
         <v>43819</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16470,7 +16470,7 @@
         <v>43822</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16527,7 +16527,7 @@
         <v>43837</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16584,7 +16584,7 @@
         <v>43840</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16641,7 +16641,7 @@
         <v>43840</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16698,7 +16698,7 @@
         <v>43846</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>43851</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16812,7 +16812,7 @@
         <v>43857</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>43859</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>43861</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>43866</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>43867</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>43867</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>43878</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17211,7 +17211,7 @@
         <v>43885</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17268,7 +17268,7 @@
         <v>43885</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17325,7 +17325,7 @@
         <v>43887</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17382,7 +17382,7 @@
         <v>43892</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17439,7 +17439,7 @@
         <v>43892</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17496,7 +17496,7 @@
         <v>43892</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>43898</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>43903</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>43907</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>43907</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>43908</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>43908</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>43909</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>43909</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>43911</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         <v>43911</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>43917</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18180,7 +18180,7 @@
         <v>43920</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>43920</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18294,7 +18294,7 @@
         <v>43922</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18351,7 +18351,7 @@
         <v>43923</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18408,7 +18408,7 @@
         <v>43928</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18465,7 +18465,7 @@
         <v>43929</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18522,7 +18522,7 @@
         <v>43936</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18579,7 +18579,7 @@
         <v>43936</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18636,7 +18636,7 @@
         <v>43942</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         <v>43944</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18750,7 +18750,7 @@
         <v>43944</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18807,7 +18807,7 @@
         <v>43956</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18864,7 +18864,7 @@
         <v>43956</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18921,7 +18921,7 @@
         <v>43988</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18978,7 +18978,7 @@
         <v>43988</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19035,7 +19035,7 @@
         <v>44012</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19092,7 +19092,7 @@
         <v>44013</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19149,7 +19149,7 @@
         <v>44013</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19206,7 +19206,7 @@
         <v>44019</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19263,7 +19263,7 @@
         <v>44019</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19320,7 +19320,7 @@
         <v>44025</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19377,7 +19377,7 @@
         <v>44025</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19434,7 +19434,7 @@
         <v>44035</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19496,7 +19496,7 @@
         <v>44041</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19553,7 +19553,7 @@
         <v>44046</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19610,7 +19610,7 @@
         <v>44055</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19667,7 +19667,7 @@
         <v>44055</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>44055</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19771,23 +19771,23 @@
       </c>
       <c r="R320" s="2" t="inlineStr"/>
       <c r="U320">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/knärot/A 37350-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/knärot/A 37350-2020.png", "A 37350-2020")</f>
         <v/>
       </c>
       <c r="V320">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 37350-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomål/A 37350-2020.docx", "A 37350-2020")</f>
         <v/>
       </c>
       <c r="W320">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 37350-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/klagomålsmail/A 37350-2020.docx", "A 37350-2020")</f>
         <v/>
       </c>
       <c r="X320">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 37350-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsyn/A 37350-2020.docx", "A 37350-2020")</f>
         <v/>
       </c>
       <c r="Y320">
-        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 37350-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_TORSAS/tillsynsmail/A 37350-2020.docx", "A 37350-2020")</f>
         <v/>
       </c>
     </row>
@@ -19801,7 +19801,7 @@
         <v>44057</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44057</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19915,7 +19915,7 @@
         <v>44057</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         <v>44057</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>44057</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20086,7 +20086,7 @@
         <v>44057</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20143,7 +20143,7 @@
         <v>44057</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20200,7 +20200,7 @@
         <v>44057</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20257,7 +20257,7 @@
         <v>44063</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>44068</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>44074</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>44077</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>44078</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>44078</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>44095</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>44096</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>44098</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>44098</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>44102</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>44104</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>44105</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>44107</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>44107</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>44109</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>44110</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>44110</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>44110</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>44111</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44111</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44111</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44118</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44118</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44131</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>44134</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>44134</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
         <v>44138</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>44140</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44144</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>44146</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22029,7 +22029,7 @@
         <v>44150</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22086,7 +22086,7 @@
         <v>44152</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22143,7 +22143,7 @@
         <v>44155</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22205,7 +22205,7 @@
         <v>44155</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>44165</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>44172</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
         <v>44172</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>44173</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22495,7 +22495,7 @@
         <v>44174</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22552,7 +22552,7 @@
         <v>44181</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22609,7 +22609,7 @@
         <v>44182</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22666,7 +22666,7 @@
         <v>44187</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22723,7 +22723,7 @@
         <v>44201</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22780,7 +22780,7 @@
         <v>44207</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>44208</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22894,7 +22894,7 @@
         <v>44208</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22951,7 +22951,7 @@
         <v>44208</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>44208</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
         <v>44208</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23122,7 +23122,7 @@
         <v>44210</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23179,7 +23179,7 @@
         <v>44211</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23236,7 +23236,7 @@
         <v>44211</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23293,7 +23293,7 @@
         <v>44214</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23350,7 +23350,7 @@
         <v>44217</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23407,7 +23407,7 @@
         <v>44217</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23464,7 +23464,7 @@
         <v>44224</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23521,7 +23521,7 @@
         <v>44228</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23578,7 +23578,7 @@
         <v>44235</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         <v>44242</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23692,7 +23692,7 @@
         <v>44243</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23749,7 +23749,7 @@
         <v>44245</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23806,7 +23806,7 @@
         <v>44250</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23863,7 +23863,7 @@
         <v>44250</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23920,7 +23920,7 @@
         <v>44250</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23977,7 +23977,7 @@
         <v>44252</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44252</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44252</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44259</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24205,7 +24205,7 @@
         <v>44260</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24262,7 +24262,7 @@
         <v>44266</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24319,7 +24319,7 @@
         <v>44275</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24376,7 +24376,7 @@
         <v>44277</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24433,7 +24433,7 @@
         <v>44277</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24490,7 +24490,7 @@
         <v>44278</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24547,7 +24547,7 @@
         <v>44280</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24604,7 +24604,7 @@
         <v>44306</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24661,7 +24661,7 @@
         <v>44308</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24718,7 +24718,7 @@
         <v>44308</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24775,7 +24775,7 @@
         <v>44313</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24832,7 +24832,7 @@
         <v>44313</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24889,7 +24889,7 @@
         <v>44314</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         <v>44315</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         <v>44330</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25060,7 +25060,7 @@
         <v>44347</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25117,7 +25117,7 @@
         <v>44357</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25174,7 +25174,7 @@
         <v>44363</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25231,7 +25231,7 @@
         <v>44368</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25288,7 +25288,7 @@
         <v>44379</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25345,7 +25345,7 @@
         <v>44411</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25402,7 +25402,7 @@
         <v>44420</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25459,7 +25459,7 @@
         <v>44434</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25516,7 +25516,7 @@
         <v>44434</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>44442</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>44445</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>44447</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         <v>44453</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>44457</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25863,7 +25863,7 @@
         <v>44459</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25920,7 +25920,7 @@
         <v>44459</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25977,7 +25977,7 @@
         <v>44466</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>44466</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>44467</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>44467</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>44468</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>44473</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>44474</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26376,7 +26376,7 @@
         <v>44475</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26433,7 +26433,7 @@
         <v>44476</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26490,7 +26490,7 @@
         <v>44476</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26547,7 +26547,7 @@
         <v>44482</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26604,7 +26604,7 @@
         <v>44487</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26661,7 +26661,7 @@
         <v>44502</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26718,7 +26718,7 @@
         <v>44514</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26775,7 +26775,7 @@
         <v>44516</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26832,7 +26832,7 @@
         <v>44516</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26889,7 +26889,7 @@
         <v>44529</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         <v>44530</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27003,7 +27003,7 @@
         <v>44532</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27060,7 +27060,7 @@
         <v>44536</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         <v>44536</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27174,7 +27174,7 @@
         <v>44537</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27231,7 +27231,7 @@
         <v>44546</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27288,7 +27288,7 @@
         <v>44564</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27345,7 +27345,7 @@
         <v>44568</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27402,7 +27402,7 @@
         <v>44580</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27459,7 +27459,7 @@
         <v>44586</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27516,7 +27516,7 @@
         <v>44593</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27573,7 +27573,7 @@
         <v>44599</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27630,7 +27630,7 @@
         <v>44610</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27687,7 +27687,7 @@
         <v>44621</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27744,7 +27744,7 @@
         <v>44636</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27801,7 +27801,7 @@
         <v>44640</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27858,7 +27858,7 @@
         <v>44651</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27915,7 +27915,7 @@
         <v>44652</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27972,7 +27972,7 @@
         <v>44657</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28029,7 +28029,7 @@
         <v>44658</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28086,7 +28086,7 @@
         <v>44670</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28143,7 +28143,7 @@
         <v>44671</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28200,7 +28200,7 @@
         <v>44679</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28257,7 +28257,7 @@
         <v>44706</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28314,7 +28314,7 @@
         <v>44722</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28371,7 +28371,7 @@
         <v>44725</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28428,7 +28428,7 @@
         <v>44739</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         <v>44740</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28542,7 +28542,7 @@
         <v>44748</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>44763</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>44776</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>44788</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         <v>44795</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28827,7 +28827,7 @@
         <v>44795</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28884,7 +28884,7 @@
         <v>44795</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28941,7 +28941,7 @@
         <v>44811</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28998,7 +28998,7 @@
         <v>44811</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29055,7 +29055,7 @@
         <v>44812</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29112,7 +29112,7 @@
         <v>44812</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29169,7 +29169,7 @@
         <v>44816</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29226,7 +29226,7 @@
         <v>44818</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29283,7 +29283,7 @@
         <v>44827</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>44830</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
         <v>44841</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>44845</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>44849</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29568,7 +29568,7 @@
         <v>44851</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29625,7 +29625,7 @@
         <v>44852</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29682,7 +29682,7 @@
         <v>44852</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29739,7 +29739,7 @@
         <v>44861</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29796,7 +29796,7 @@
         <v>44862</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29853,7 +29853,7 @@
         <v>44865</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29910,7 +29910,7 @@
         <v>44865</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29967,7 +29967,7 @@
         <v>44879</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30024,7 +30024,7 @@
         <v>44890</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30081,7 +30081,7 @@
         <v>44896</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30138,7 +30138,7 @@
         <v>44900</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30195,7 +30195,7 @@
         <v>44902</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30252,7 +30252,7 @@
         <v>44902</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30309,7 +30309,7 @@
         <v>44902</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30366,7 +30366,7 @@
         <v>44910</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30423,7 +30423,7 @@
         <v>44928</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30480,7 +30480,7 @@
         <v>44928</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30537,7 +30537,7 @@
         <v>44938</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30594,7 +30594,7 @@
         <v>44942</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30651,7 +30651,7 @@
         <v>44943</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30708,7 +30708,7 @@
         <v>44944</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30765,7 +30765,7 @@
         <v>44949</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30822,7 +30822,7 @@
         <v>44949</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30879,7 +30879,7 @@
         <v>44958</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30936,7 +30936,7 @@
         <v>44965</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30993,7 +30993,7 @@
         <v>44977</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31050,7 +31050,7 @@
         <v>44984</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31107,7 +31107,7 @@
         <v>44985</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31164,7 +31164,7 @@
         <v>44987</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31221,7 +31221,7 @@
         <v>44988</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31278,7 +31278,7 @@
         <v>44988</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31335,7 +31335,7 @@
         <v>44988</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31392,7 +31392,7 @@
         <v>44988</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31449,7 +31449,7 @@
         <v>44992</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31506,7 +31506,7 @@
         <v>44993</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31563,7 +31563,7 @@
         <v>44999</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31620,7 +31620,7 @@
         <v>45006</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31677,7 +31677,7 @@
         <v>45008</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31734,7 +31734,7 @@
         <v>45008</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31791,7 +31791,7 @@
         <v>45008</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31848,7 +31848,7 @@
         <v>45019</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31905,7 +31905,7 @@
         <v>45019</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31962,7 +31962,7 @@
         <v>45036</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32019,7 +32019,7 @@
         <v>45040</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32076,7 +32076,7 @@
         <v>45040</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32133,7 +32133,7 @@
         <v>45040</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32190,7 +32190,7 @@
         <v>45040</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32247,7 +32247,7 @@
         <v>45056</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32304,7 +32304,7 @@
         <v>45063</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32361,7 +32361,7 @@
         <v>45069</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32418,7 +32418,7 @@
         <v>45075</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32475,7 +32475,7 @@
         <v>45075</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32532,7 +32532,7 @@
         <v>45089</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32589,7 +32589,7 @@
         <v>45093</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32646,7 +32646,7 @@
         <v>45113</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32703,7 +32703,7 @@
         <v>45121</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32760,7 +32760,7 @@
         <v>45126</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32817,7 +32817,7 @@
         <v>45132</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32874,7 +32874,7 @@
         <v>45132</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32931,7 +32931,7 @@
         <v>45132</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32988,7 +32988,7 @@
         <v>45139</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33045,7 +33045,7 @@
         <v>45167</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33102,7 +33102,7 @@
         <v>45167</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33159,7 +33159,7 @@
         <v>45182</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33216,7 +33216,7 @@
         <v>45182</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>

--- a/Översikt TORSÅS.xlsx
+++ b/Översikt TORSÅS.xlsx
@@ -572,7 +572,7 @@
         <v>43536</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>43922</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>43693</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>43425</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43682</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
         <v>43840</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>45001</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>43783</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>44459</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>43434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>43608</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>43703</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>43705</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>43712</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>44216</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>44410</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>44568</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44939</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43349</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43363</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43494</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>43579</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>43669</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43682</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>43703</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>44125</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>44231</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>44263</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>44453</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>44454</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>44804</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>45019</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>45079</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>43322</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         <v>43326</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         <v>43326</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>43326</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>43332</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>43339</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>43349</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>43349</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>43361</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         <v>43361</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         <v>43363</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>43363</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v>43376</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>43381</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4247,7 +4247,7 @@
         <v>43389</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         <v>43391</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4361,7 +4361,7 @@
         <v>43396</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
         <v>43396</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43396</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43398</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>43412</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>43419</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>43425</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43425</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43432</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43434</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43455</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43455</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43473</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43475</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43483</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43483</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43486</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43488</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>43488</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43488</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43490</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43490</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>43490</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5957,7 +5957,7 @@
         <v>43493</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43494</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>43497</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>43501</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>43504</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>43504</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>43511</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>43523</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6413,7 +6413,7 @@
         <v>43523</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6470,7 +6470,7 @@
         <v>43524</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>43524</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>43524</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>43528</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>43529</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43529</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43536</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43537</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43537</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43542</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43544</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43563</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>43563</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>43565</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7268,7 +7268,7 @@
         <v>43566</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7325,7 +7325,7 @@
         <v>43571</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>43577</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>43577</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>43578</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>43579</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43579</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43579</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>43598</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>43598</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>43600</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         <v>43612</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>43612</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>43612</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>43613</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>43613</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>43613</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>43614</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>43614</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>43616</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8408,7 +8408,7 @@
         <v>43626</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8465,7 +8465,7 @@
         <v>43627</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>43627</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>43629</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>43629</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8693,7 +8693,7 @@
         <v>43629</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>43629</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>43630</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>43630</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>43640</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>43640</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>43642</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>43643</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9149,7 +9149,7 @@
         <v>43643</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9206,7 +9206,7 @@
         <v>43645</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9263,7 +9263,7 @@
         <v>43648</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9320,7 +9320,7 @@
         <v>43648</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>43648</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9434,7 +9434,7 @@
         <v>43648</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9491,7 +9491,7 @@
         <v>43648</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9548,7 +9548,7 @@
         <v>43650</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9605,7 +9605,7 @@
         <v>43650</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9662,7 +9662,7 @@
         <v>43651</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>43664</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>43670</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9833,7 +9833,7 @@
         <v>43670</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9890,7 +9890,7 @@
         <v>43670</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9947,7 +9947,7 @@
         <v>43672</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10004,7 +10004,7 @@
         <v>43674</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10061,7 +10061,7 @@
         <v>43675</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10118,7 +10118,7 @@
         <v>43675</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10175,7 +10175,7 @@
         <v>43675</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10232,7 +10232,7 @@
         <v>43675</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>43675</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>43675</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>43676</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>43676</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>43676</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>43677</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>43677</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>43677</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>43679</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>43680</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>43682</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>43682</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>43682</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>43683</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>43683</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>43683</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>43683</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11258,7 +11258,7 @@
         <v>43684</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11315,7 +11315,7 @@
         <v>43686</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11372,7 +11372,7 @@
         <v>43689</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11429,7 +11429,7 @@
         <v>43689</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11486,7 +11486,7 @@
         <v>43689</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11543,7 +11543,7 @@
         <v>43689</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11600,7 +11600,7 @@
         <v>43689</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11657,7 +11657,7 @@
         <v>43690</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>43691</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>43691</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11828,7 +11828,7 @@
         <v>43692</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>43692</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>43692</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>43692</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>43692</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         <v>43693</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>43693</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>43693</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>43693</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>43693</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>43696</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>43698</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>43698</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>43705</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>43705</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>43705</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>43710</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>43710</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>43710</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12931,7 +12931,7 @@
         <v>43710</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         <v>43711</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>43711</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>43712</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>43712</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>43712</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13278,7 +13278,7 @@
         <v>43712</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13335,7 +13335,7 @@
         <v>43713</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>43714</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>43717</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>43717</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>43718</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>43718</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>43718</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>43719</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13791,7 +13791,7 @@
         <v>43724</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         <v>43724</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13905,7 +13905,7 @@
         <v>43726</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13962,7 +13962,7 @@
         <v>43728</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14019,7 +14019,7 @@
         <v>43732</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14076,7 +14076,7 @@
         <v>43732</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14133,7 +14133,7 @@
         <v>43732</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>43732</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>43733</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14304,7 +14304,7 @@
         <v>43734</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>43738</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>43740</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14475,7 +14475,7 @@
         <v>43740</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         <v>43747</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         <v>43752</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14646,7 +14646,7 @@
         <v>43753</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>43755</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14760,7 +14760,7 @@
         <v>43755</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14817,7 +14817,7 @@
         <v>43755</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14874,7 +14874,7 @@
         <v>43766</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14931,7 +14931,7 @@
         <v>43766</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14988,7 +14988,7 @@
         <v>43766</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>43766</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15102,7 +15102,7 @@
         <v>43766</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>43766</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15216,7 +15216,7 @@
         <v>43773</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>43775</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>43776</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>43781</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>43781</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>43782</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15558,7 +15558,7 @@
         <v>43789</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15615,7 +15615,7 @@
         <v>43789</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>43790</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>43794</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         <v>43794</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15843,7 +15843,7 @@
         <v>43794</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15900,7 +15900,7 @@
         <v>43795</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15957,7 +15957,7 @@
         <v>43795</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16014,7 +16014,7 @@
         <v>43796</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16071,7 +16071,7 @@
         <v>43796</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16128,7 +16128,7 @@
         <v>43797</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16185,7 +16185,7 @@
         <v>43804</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16242,7 +16242,7 @@
         <v>43810</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16299,7 +16299,7 @@
         <v>43811</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>43815</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16413,7 +16413,7 @@
         <v>43819</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16470,7 +16470,7 @@
         <v>43822</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16527,7 +16527,7 @@
         <v>43837</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16584,7 +16584,7 @@
         <v>43840</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16641,7 +16641,7 @@
         <v>43840</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16698,7 +16698,7 @@
         <v>43846</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>43851</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16812,7 +16812,7 @@
         <v>43857</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>43859</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>43861</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>43866</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>43867</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>43867</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>43878</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17211,7 +17211,7 @@
         <v>43885</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17268,7 +17268,7 @@
         <v>43885</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17325,7 +17325,7 @@
         <v>43887</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17382,7 +17382,7 @@
         <v>43892</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17439,7 +17439,7 @@
         <v>43892</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17496,7 +17496,7 @@
         <v>43892</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>43898</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>43903</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>43907</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>43907</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>43908</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>43908</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>43909</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>43909</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>43911</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         <v>43911</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>43917</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18180,7 +18180,7 @@
         <v>43920</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>43920</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18294,7 +18294,7 @@
         <v>43922</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18351,7 +18351,7 @@
         <v>43923</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18408,7 +18408,7 @@
         <v>43928</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18465,7 +18465,7 @@
         <v>43929</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18522,7 +18522,7 @@
         <v>43936</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18579,7 +18579,7 @@
         <v>43936</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18636,7 +18636,7 @@
         <v>43942</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         <v>43944</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18750,7 +18750,7 @@
         <v>43944</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18807,7 +18807,7 @@
         <v>43956</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18864,7 +18864,7 @@
         <v>43956</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18921,7 +18921,7 @@
         <v>43988</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18978,7 +18978,7 @@
         <v>43988</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19035,7 +19035,7 @@
         <v>44012</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19092,7 +19092,7 @@
         <v>44013</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19149,7 +19149,7 @@
         <v>44013</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19206,7 +19206,7 @@
         <v>44019</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19263,7 +19263,7 @@
         <v>44019</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19320,7 +19320,7 @@
         <v>44025</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19377,7 +19377,7 @@
         <v>44025</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19434,7 +19434,7 @@
         <v>44035</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19496,7 +19496,7 @@
         <v>44041</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19553,7 +19553,7 @@
         <v>44046</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19610,7 +19610,7 @@
         <v>44055</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19667,7 +19667,7 @@
         <v>44055</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>44055</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>44057</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44057</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19915,7 +19915,7 @@
         <v>44057</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         <v>44057</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>44057</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20086,7 +20086,7 @@
         <v>44057</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20143,7 +20143,7 @@
         <v>44057</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20200,7 +20200,7 @@
         <v>44057</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20257,7 +20257,7 @@
         <v>44063</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>44068</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>44074</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>44077</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>44078</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>44078</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>44095</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>44096</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>44098</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>44098</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>44102</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>44104</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>44105</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>44107</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>44107</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>44109</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>44110</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>44110</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>44110</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>44111</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44111</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44111</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44118</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44118</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44131</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>44134</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>44134</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
         <v>44138</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>44140</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44144</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>44146</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22029,7 +22029,7 @@
         <v>44150</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22086,7 +22086,7 @@
         <v>44152</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22143,7 +22143,7 @@
         <v>44155</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22205,7 +22205,7 @@
         <v>44155</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>44165</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>44172</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
         <v>44172</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>44173</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22495,7 +22495,7 @@
         <v>44174</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22552,7 +22552,7 @@
         <v>44181</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22609,7 +22609,7 @@
         <v>44182</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22666,7 +22666,7 @@
         <v>44187</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22723,7 +22723,7 @@
         <v>44201</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22780,7 +22780,7 @@
         <v>44207</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>44208</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22894,7 +22894,7 @@
         <v>44208</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22951,7 +22951,7 @@
         <v>44208</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>44208</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
         <v>44208</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23122,7 +23122,7 @@
         <v>44210</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23179,7 +23179,7 @@
         <v>44211</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23236,7 +23236,7 @@
         <v>44211</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23293,7 +23293,7 @@
         <v>44214</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23350,7 +23350,7 @@
         <v>44217</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23407,7 +23407,7 @@
         <v>44217</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23464,7 +23464,7 @@
         <v>44224</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23521,7 +23521,7 @@
         <v>44228</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23578,7 +23578,7 @@
         <v>44235</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         <v>44242</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23692,7 +23692,7 @@
         <v>44243</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23749,7 +23749,7 @@
         <v>44245</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23806,7 +23806,7 @@
         <v>44250</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23863,7 +23863,7 @@
         <v>44250</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23920,7 +23920,7 @@
         <v>44250</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23977,7 +23977,7 @@
         <v>44252</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44252</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44252</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44259</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24205,7 +24205,7 @@
         <v>44260</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24262,7 +24262,7 @@
         <v>44266</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24319,7 +24319,7 @@
         <v>44275</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24376,7 +24376,7 @@
         <v>44277</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24433,7 +24433,7 @@
         <v>44277</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24490,7 +24490,7 @@
         <v>44278</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24547,7 +24547,7 @@
         <v>44280</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24604,7 +24604,7 @@
         <v>44306</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24661,7 +24661,7 @@
         <v>44308</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24718,7 +24718,7 @@
         <v>44308</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24775,7 +24775,7 @@
         <v>44313</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24832,7 +24832,7 @@
         <v>44313</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24889,7 +24889,7 @@
         <v>44314</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         <v>44315</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         <v>44330</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25060,7 +25060,7 @@
         <v>44347</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25117,7 +25117,7 @@
         <v>44357</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25174,7 +25174,7 @@
         <v>44363</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25231,7 +25231,7 @@
         <v>44368</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25288,7 +25288,7 @@
         <v>44379</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25345,7 +25345,7 @@
         <v>44411</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25402,7 +25402,7 @@
         <v>44420</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25459,7 +25459,7 @@
         <v>44434</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25516,7 +25516,7 @@
         <v>44434</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>44442</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>44445</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>44447</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         <v>44453</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>44457</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25863,7 +25863,7 @@
         <v>44459</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25920,7 +25920,7 @@
         <v>44459</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25977,7 +25977,7 @@
         <v>44466</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>44466</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>44467</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>44467</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>44468</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>44473</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>44474</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26376,7 +26376,7 @@
         <v>44475</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26433,7 +26433,7 @@
         <v>44476</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26490,7 +26490,7 @@
         <v>44476</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26547,7 +26547,7 @@
         <v>44482</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26604,7 +26604,7 @@
         <v>44487</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26661,7 +26661,7 @@
         <v>44502</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26718,7 +26718,7 @@
         <v>44514</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26775,7 +26775,7 @@
         <v>44516</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26832,7 +26832,7 @@
         <v>44516</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26889,7 +26889,7 @@
         <v>44529</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         <v>44530</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27003,7 +27003,7 @@
         <v>44532</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27060,7 +27060,7 @@
         <v>44536</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         <v>44536</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27174,7 +27174,7 @@
         <v>44537</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27231,7 +27231,7 @@
         <v>44546</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27288,7 +27288,7 @@
         <v>44564</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27345,7 +27345,7 @@
         <v>44568</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27402,7 +27402,7 @@
         <v>44580</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27459,7 +27459,7 @@
         <v>44586</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27516,7 +27516,7 @@
         <v>44593</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27573,7 +27573,7 @@
         <v>44599</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27630,7 +27630,7 @@
         <v>44610</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27687,7 +27687,7 @@
         <v>44621</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27744,7 +27744,7 @@
         <v>44636</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27801,7 +27801,7 @@
         <v>44640</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27858,7 +27858,7 @@
         <v>44651</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27915,7 +27915,7 @@
         <v>44652</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27972,7 +27972,7 @@
         <v>44657</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28029,7 +28029,7 @@
         <v>44658</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28086,7 +28086,7 @@
         <v>44670</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28143,7 +28143,7 @@
         <v>44671</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28200,7 +28200,7 @@
         <v>44679</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28257,7 +28257,7 @@
         <v>44706</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28314,7 +28314,7 @@
         <v>44722</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28371,7 +28371,7 @@
         <v>44725</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28428,7 +28428,7 @@
         <v>44739</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         <v>44740</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28542,7 +28542,7 @@
         <v>44748</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>44763</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>44776</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>44788</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         <v>44795</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28827,7 +28827,7 @@
         <v>44795</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28884,7 +28884,7 @@
         <v>44795</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28941,7 +28941,7 @@
         <v>44811</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28998,7 +28998,7 @@
         <v>44811</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29055,7 +29055,7 @@
         <v>44812</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29112,7 +29112,7 @@
         <v>44812</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29169,7 +29169,7 @@
         <v>44816</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29226,7 +29226,7 @@
         <v>44818</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29283,7 +29283,7 @@
         <v>44827</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>44830</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
         <v>44841</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>44845</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>44849</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29568,7 +29568,7 @@
         <v>44851</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29625,7 +29625,7 @@
         <v>44852</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29682,7 +29682,7 @@
         <v>44852</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29739,7 +29739,7 @@
         <v>44861</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29796,7 +29796,7 @@
         <v>44862</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29853,7 +29853,7 @@
         <v>44865</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29910,7 +29910,7 @@
         <v>44865</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29967,7 +29967,7 @@
         <v>44879</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30024,7 +30024,7 @@
         <v>44890</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30081,7 +30081,7 @@
         <v>44896</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30138,7 +30138,7 @@
         <v>44900</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30195,7 +30195,7 @@
         <v>44902</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30252,7 +30252,7 @@
         <v>44902</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30309,7 +30309,7 @@
         <v>44902</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30366,7 +30366,7 @@
         <v>44910</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30423,7 +30423,7 @@
         <v>44928</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30480,7 +30480,7 @@
         <v>44928</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30537,7 +30537,7 @@
         <v>44938</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30594,7 +30594,7 @@
         <v>44942</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30651,7 +30651,7 @@
         <v>44943</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30708,7 +30708,7 @@
         <v>44944</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30765,7 +30765,7 @@
         <v>44949</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30822,7 +30822,7 @@
         <v>44949</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30879,7 +30879,7 @@
         <v>44958</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30936,7 +30936,7 @@
         <v>44965</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30993,7 +30993,7 @@
         <v>44977</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31050,7 +31050,7 @@
         <v>44984</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31107,7 +31107,7 @@
         <v>44985</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31164,7 +31164,7 @@
         <v>44987</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31221,7 +31221,7 @@
         <v>44988</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31278,7 +31278,7 @@
         <v>44988</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31335,7 +31335,7 @@
         <v>44988</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31392,7 +31392,7 @@
         <v>44988</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31449,7 +31449,7 @@
         <v>44992</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31506,7 +31506,7 @@
         <v>44993</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31563,7 +31563,7 @@
         <v>44999</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31620,7 +31620,7 @@
         <v>45006</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31677,7 +31677,7 @@
         <v>45008</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31734,7 +31734,7 @@
         <v>45008</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31791,7 +31791,7 @@
         <v>45008</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31848,7 +31848,7 @@
         <v>45019</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31905,7 +31905,7 @@
         <v>45019</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31962,7 +31962,7 @@
         <v>45036</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32019,7 +32019,7 @@
         <v>45040</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32076,7 +32076,7 @@
         <v>45040</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32133,7 +32133,7 @@
         <v>45040</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32190,7 +32190,7 @@
         <v>45040</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32247,7 +32247,7 @@
         <v>45056</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32304,7 +32304,7 @@
         <v>45063</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32361,7 +32361,7 @@
         <v>45069</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32418,7 +32418,7 @@
         <v>45075</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32475,7 +32475,7 @@
         <v>45075</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32532,7 +32532,7 @@
         <v>45089</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32589,7 +32589,7 @@
         <v>45093</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32646,7 +32646,7 @@
         <v>45113</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32703,7 +32703,7 @@
         <v>45121</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32760,7 +32760,7 @@
         <v>45126</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32817,7 +32817,7 @@
         <v>45132</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32874,7 +32874,7 @@
         <v>45132</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32931,7 +32931,7 @@
         <v>45132</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32988,7 +32988,7 @@
         <v>45139</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33045,7 +33045,7 @@
         <v>45167</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33102,7 +33102,7 @@
         <v>45167</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33159,7 +33159,7 @@
         <v>45182</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33216,7 +33216,7 @@
         <v>45182</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>

--- a/Översikt TORSÅS.xlsx
+++ b/Översikt TORSÅS.xlsx
@@ -572,7 +572,7 @@
         <v>43536</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>43922</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>43693</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>43425</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43682</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
         <v>43840</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>45001</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>43783</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>44459</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>43434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>43608</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>43703</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>43705</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>43712</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>44216</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>44410</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>44568</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44939</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43349</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43363</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43494</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>43579</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>43669</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43682</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>43703</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>44125</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>44231</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>44263</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>44453</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>44454</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>44804</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>45019</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>45079</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>43322</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         <v>43326</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         <v>43326</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>43326</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>43332</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>43339</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>43349</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>43349</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>43361</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         <v>43361</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         <v>43363</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>43363</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v>43376</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>43381</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4247,7 +4247,7 @@
         <v>43389</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         <v>43391</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4361,7 +4361,7 @@
         <v>43396</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
         <v>43396</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43396</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43398</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>43412</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>43419</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>43425</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43425</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43432</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43434</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43455</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43455</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43473</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43475</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43483</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43483</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43486</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43488</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>43488</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43488</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43490</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43490</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>43490</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5957,7 +5957,7 @@
         <v>43493</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43494</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>43497</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>43501</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>43504</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>43504</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>43511</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>43523</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6413,7 +6413,7 @@
         <v>43523</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6470,7 +6470,7 @@
         <v>43524</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>43524</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>43524</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>43528</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>43529</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43529</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43536</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43537</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43537</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43542</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43544</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43563</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>43563</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>43565</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7268,7 +7268,7 @@
         <v>43566</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7325,7 +7325,7 @@
         <v>43571</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>43577</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>43577</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>43578</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>43579</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43579</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43579</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>43598</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>43598</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>43600</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         <v>43612</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>43612</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>43612</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>43613</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>43613</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>43613</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>43614</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>43614</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>43616</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8408,7 +8408,7 @@
         <v>43626</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8465,7 +8465,7 @@
         <v>43627</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>43627</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>43629</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>43629</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8693,7 +8693,7 @@
         <v>43629</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>43629</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>43630</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>43630</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>43640</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>43640</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>43642</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>43643</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9149,7 +9149,7 @@
         <v>43643</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9206,7 +9206,7 @@
         <v>43645</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9263,7 +9263,7 @@
         <v>43648</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9320,7 +9320,7 @@
         <v>43648</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>43648</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9434,7 +9434,7 @@
         <v>43648</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9491,7 +9491,7 @@
         <v>43648</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9548,7 +9548,7 @@
         <v>43650</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9605,7 +9605,7 @@
         <v>43650</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9662,7 +9662,7 @@
         <v>43651</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>43664</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>43670</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9833,7 +9833,7 @@
         <v>43670</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9890,7 +9890,7 @@
         <v>43670</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9947,7 +9947,7 @@
         <v>43672</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10004,7 +10004,7 @@
         <v>43674</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10061,7 +10061,7 @@
         <v>43675</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10118,7 +10118,7 @@
         <v>43675</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10175,7 +10175,7 @@
         <v>43675</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10232,7 +10232,7 @@
         <v>43675</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>43675</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>43675</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>43676</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>43676</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>43676</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>43677</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>43677</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>43677</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>43679</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>43680</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>43682</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>43682</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>43682</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>43683</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>43683</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>43683</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>43683</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11258,7 +11258,7 @@
         <v>43684</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11315,7 +11315,7 @@
         <v>43686</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11372,7 +11372,7 @@
         <v>43689</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11429,7 +11429,7 @@
         <v>43689</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11486,7 +11486,7 @@
         <v>43689</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11543,7 +11543,7 @@
         <v>43689</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11600,7 +11600,7 @@
         <v>43689</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11657,7 +11657,7 @@
         <v>43690</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>43691</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>43691</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11828,7 +11828,7 @@
         <v>43692</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>43692</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>43692</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>43692</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>43692</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         <v>43693</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>43693</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>43693</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>43693</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>43693</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>43696</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>43698</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>43698</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>43705</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>43705</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>43705</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>43710</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>43710</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>43710</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12931,7 +12931,7 @@
         <v>43710</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         <v>43711</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>43711</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>43712</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>43712</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>43712</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13278,7 +13278,7 @@
         <v>43712</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13335,7 +13335,7 @@
         <v>43713</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>43714</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>43717</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>43717</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>43718</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>43718</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>43718</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>43719</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13791,7 +13791,7 @@
         <v>43724</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         <v>43724</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13905,7 +13905,7 @@
         <v>43726</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13962,7 +13962,7 @@
         <v>43728</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14019,7 +14019,7 @@
         <v>43732</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14076,7 +14076,7 @@
         <v>43732</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14133,7 +14133,7 @@
         <v>43732</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>43732</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>43733</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14304,7 +14304,7 @@
         <v>43734</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>43738</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>43740</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14475,7 +14475,7 @@
         <v>43740</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         <v>43747</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         <v>43752</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14646,7 +14646,7 @@
         <v>43753</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>43755</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14760,7 +14760,7 @@
         <v>43755</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14817,7 +14817,7 @@
         <v>43755</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14874,7 +14874,7 @@
         <v>43766</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14931,7 +14931,7 @@
         <v>43766</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14988,7 +14988,7 @@
         <v>43766</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>43766</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15102,7 +15102,7 @@
         <v>43766</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>43766</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15216,7 +15216,7 @@
         <v>43773</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>43775</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>43776</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>43781</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>43781</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>43782</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15558,7 +15558,7 @@
         <v>43789</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15615,7 +15615,7 @@
         <v>43789</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>43790</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>43794</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         <v>43794</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15843,7 +15843,7 @@
         <v>43794</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15900,7 +15900,7 @@
         <v>43795</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15957,7 +15957,7 @@
         <v>43795</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16014,7 +16014,7 @@
         <v>43796</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16071,7 +16071,7 @@
         <v>43796</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16128,7 +16128,7 @@
         <v>43797</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16185,7 +16185,7 @@
         <v>43804</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16242,7 +16242,7 @@
         <v>43810</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16299,7 +16299,7 @@
         <v>43811</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>43815</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16413,7 +16413,7 @@
         <v>43819</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16470,7 +16470,7 @@
         <v>43822</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16527,7 +16527,7 @@
         <v>43837</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16584,7 +16584,7 @@
         <v>43840</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16641,7 +16641,7 @@
         <v>43840</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16698,7 +16698,7 @@
         <v>43846</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>43851</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16812,7 +16812,7 @@
         <v>43857</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>43859</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>43861</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>43866</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>43867</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>43867</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>43878</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17211,7 +17211,7 @@
         <v>43885</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17268,7 +17268,7 @@
         <v>43885</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17325,7 +17325,7 @@
         <v>43887</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17382,7 +17382,7 @@
         <v>43892</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17439,7 +17439,7 @@
         <v>43892</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17496,7 +17496,7 @@
         <v>43892</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>43898</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>43903</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>43907</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>43907</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>43908</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>43908</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>43909</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>43909</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>43911</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         <v>43911</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>43917</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18180,7 +18180,7 @@
         <v>43920</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>43920</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18294,7 +18294,7 @@
         <v>43922</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18351,7 +18351,7 @@
         <v>43923</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18408,7 +18408,7 @@
         <v>43928</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18465,7 +18465,7 @@
         <v>43929</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18522,7 +18522,7 @@
         <v>43936</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18579,7 +18579,7 @@
         <v>43936</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18636,7 +18636,7 @@
         <v>43942</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         <v>43944</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18750,7 +18750,7 @@
         <v>43944</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18807,7 +18807,7 @@
         <v>43956</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18864,7 +18864,7 @@
         <v>43956</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18921,7 +18921,7 @@
         <v>43988</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18978,7 +18978,7 @@
         <v>43988</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19035,7 +19035,7 @@
         <v>44012</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19092,7 +19092,7 @@
         <v>44013</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19149,7 +19149,7 @@
         <v>44013</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19206,7 +19206,7 @@
         <v>44019</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19263,7 +19263,7 @@
         <v>44019</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19320,7 +19320,7 @@
         <v>44025</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19377,7 +19377,7 @@
         <v>44025</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19434,7 +19434,7 @@
         <v>44035</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19496,7 +19496,7 @@
         <v>44041</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19553,7 +19553,7 @@
         <v>44046</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19610,7 +19610,7 @@
         <v>44055</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19667,7 +19667,7 @@
         <v>44055</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>44055</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>44057</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44057</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19915,7 +19915,7 @@
         <v>44057</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         <v>44057</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>44057</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20086,7 +20086,7 @@
         <v>44057</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20143,7 +20143,7 @@
         <v>44057</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20200,7 +20200,7 @@
         <v>44057</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20257,7 +20257,7 @@
         <v>44063</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>44068</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>44074</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>44077</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>44078</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>44078</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>44095</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>44096</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>44098</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>44098</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>44102</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>44104</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>44105</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>44107</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>44107</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>44109</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>44110</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>44110</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>44110</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>44111</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44111</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44111</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44118</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44118</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44131</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>44134</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>44134</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
         <v>44138</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>44140</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44144</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>44146</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22029,7 +22029,7 @@
         <v>44150</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22086,7 +22086,7 @@
         <v>44152</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22143,7 +22143,7 @@
         <v>44155</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22205,7 +22205,7 @@
         <v>44155</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>44165</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>44172</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
         <v>44172</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>44173</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22495,7 +22495,7 @@
         <v>44174</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22552,7 +22552,7 @@
         <v>44181</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22609,7 +22609,7 @@
         <v>44182</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22666,7 +22666,7 @@
         <v>44187</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22723,7 +22723,7 @@
         <v>44201</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22780,7 +22780,7 @@
         <v>44207</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>44208</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22894,7 +22894,7 @@
         <v>44208</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22951,7 +22951,7 @@
         <v>44208</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>44208</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
         <v>44208</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23122,7 +23122,7 @@
         <v>44210</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23179,7 +23179,7 @@
         <v>44211</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23236,7 +23236,7 @@
         <v>44211</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23293,7 +23293,7 @@
         <v>44214</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23350,7 +23350,7 @@
         <v>44217</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23407,7 +23407,7 @@
         <v>44217</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23464,7 +23464,7 @@
         <v>44224</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23521,7 +23521,7 @@
         <v>44228</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23578,7 +23578,7 @@
         <v>44235</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         <v>44242</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23692,7 +23692,7 @@
         <v>44243</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23749,7 +23749,7 @@
         <v>44245</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23806,7 +23806,7 @@
         <v>44250</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23863,7 +23863,7 @@
         <v>44250</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23920,7 +23920,7 @@
         <v>44250</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23977,7 +23977,7 @@
         <v>44252</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44252</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44252</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44259</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24205,7 +24205,7 @@
         <v>44260</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24262,7 +24262,7 @@
         <v>44266</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24319,7 +24319,7 @@
         <v>44275</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24376,7 +24376,7 @@
         <v>44277</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24433,7 +24433,7 @@
         <v>44277</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24490,7 +24490,7 @@
         <v>44278</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24547,7 +24547,7 @@
         <v>44280</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24604,7 +24604,7 @@
         <v>44306</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24661,7 +24661,7 @@
         <v>44308</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24718,7 +24718,7 @@
         <v>44308</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24775,7 +24775,7 @@
         <v>44313</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24832,7 +24832,7 @@
         <v>44313</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24889,7 +24889,7 @@
         <v>44314</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         <v>44315</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         <v>44330</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25060,7 +25060,7 @@
         <v>44347</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25117,7 +25117,7 @@
         <v>44357</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25174,7 +25174,7 @@
         <v>44363</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25231,7 +25231,7 @@
         <v>44368</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25288,7 +25288,7 @@
         <v>44379</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25345,7 +25345,7 @@
         <v>44411</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25402,7 +25402,7 @@
         <v>44420</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25459,7 +25459,7 @@
         <v>44434</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25516,7 +25516,7 @@
         <v>44434</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>44442</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>44445</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>44447</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         <v>44453</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>44457</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25863,7 +25863,7 @@
         <v>44459</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25920,7 +25920,7 @@
         <v>44459</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25977,7 +25977,7 @@
         <v>44466</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>44466</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>44467</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>44467</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>44468</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>44473</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>44474</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26376,7 +26376,7 @@
         <v>44475</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26433,7 +26433,7 @@
         <v>44476</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26490,7 +26490,7 @@
         <v>44476</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26547,7 +26547,7 @@
         <v>44482</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26604,7 +26604,7 @@
         <v>44487</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26661,7 +26661,7 @@
         <v>44502</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26718,7 +26718,7 @@
         <v>44514</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26775,7 +26775,7 @@
         <v>44516</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26832,7 +26832,7 @@
         <v>44516</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26889,7 +26889,7 @@
         <v>44529</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         <v>44530</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27003,7 +27003,7 @@
         <v>44532</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27060,7 +27060,7 @@
         <v>44536</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         <v>44536</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27174,7 +27174,7 @@
         <v>44537</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27231,7 +27231,7 @@
         <v>44546</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27288,7 +27288,7 @@
         <v>44564</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27345,7 +27345,7 @@
         <v>44568</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27402,7 +27402,7 @@
         <v>44580</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27459,7 +27459,7 @@
         <v>44586</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27516,7 +27516,7 @@
         <v>44593</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27573,7 +27573,7 @@
         <v>44599</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27630,7 +27630,7 @@
         <v>44610</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27687,7 +27687,7 @@
         <v>44621</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27744,7 +27744,7 @@
         <v>44636</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27801,7 +27801,7 @@
         <v>44640</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27858,7 +27858,7 @@
         <v>44651</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27915,7 +27915,7 @@
         <v>44652</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27972,7 +27972,7 @@
         <v>44657</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28029,7 +28029,7 @@
         <v>44658</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28086,7 +28086,7 @@
         <v>44670</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28143,7 +28143,7 @@
         <v>44671</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28200,7 +28200,7 @@
         <v>44679</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28257,7 +28257,7 @@
         <v>44706</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28314,7 +28314,7 @@
         <v>44722</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28371,7 +28371,7 @@
         <v>44725</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28428,7 +28428,7 @@
         <v>44739</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         <v>44740</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28542,7 +28542,7 @@
         <v>44748</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>44763</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>44776</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>44788</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         <v>44795</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28827,7 +28827,7 @@
         <v>44795</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28884,7 +28884,7 @@
         <v>44795</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28941,7 +28941,7 @@
         <v>44811</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28998,7 +28998,7 @@
         <v>44811</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29055,7 +29055,7 @@
         <v>44812</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29112,7 +29112,7 @@
         <v>44812</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29169,7 +29169,7 @@
         <v>44816</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29226,7 +29226,7 @@
         <v>44818</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29283,7 +29283,7 @@
         <v>44827</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>44830</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
         <v>44841</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>44845</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>44849</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29568,7 +29568,7 @@
         <v>44851</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29625,7 +29625,7 @@
         <v>44852</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29682,7 +29682,7 @@
         <v>44852</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29739,7 +29739,7 @@
         <v>44861</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29796,7 +29796,7 @@
         <v>44862</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29853,7 +29853,7 @@
         <v>44865</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29910,7 +29910,7 @@
         <v>44865</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29967,7 +29967,7 @@
         <v>44879</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30024,7 +30024,7 @@
         <v>44890</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30081,7 +30081,7 @@
         <v>44896</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30138,7 +30138,7 @@
         <v>44900</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30195,7 +30195,7 @@
         <v>44902</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30252,7 +30252,7 @@
         <v>44902</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30309,7 +30309,7 @@
         <v>44902</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30366,7 +30366,7 @@
         <v>44910</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30423,7 +30423,7 @@
         <v>44928</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30480,7 +30480,7 @@
         <v>44928</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30537,7 +30537,7 @@
         <v>44938</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30594,7 +30594,7 @@
         <v>44942</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30651,7 +30651,7 @@
         <v>44943</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30708,7 +30708,7 @@
         <v>44944</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30765,7 +30765,7 @@
         <v>44949</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30822,7 +30822,7 @@
         <v>44949</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30879,7 +30879,7 @@
         <v>44958</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30936,7 +30936,7 @@
         <v>44965</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30993,7 +30993,7 @@
         <v>44977</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31050,7 +31050,7 @@
         <v>44984</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31107,7 +31107,7 @@
         <v>44985</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31164,7 +31164,7 @@
         <v>44987</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31221,7 +31221,7 @@
         <v>44988</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31278,7 +31278,7 @@
         <v>44988</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31335,7 +31335,7 @@
         <v>44988</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31392,7 +31392,7 @@
         <v>44988</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31449,7 +31449,7 @@
         <v>44992</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31506,7 +31506,7 @@
         <v>44993</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31563,7 +31563,7 @@
         <v>44999</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31620,7 +31620,7 @@
         <v>45006</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31677,7 +31677,7 @@
         <v>45008</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31734,7 +31734,7 @@
         <v>45008</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31791,7 +31791,7 @@
         <v>45008</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31848,7 +31848,7 @@
         <v>45019</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31905,7 +31905,7 @@
         <v>45019</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31962,7 +31962,7 @@
         <v>45036</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32019,7 +32019,7 @@
         <v>45040</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32076,7 +32076,7 @@
         <v>45040</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32133,7 +32133,7 @@
         <v>45040</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32190,7 +32190,7 @@
         <v>45040</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32247,7 +32247,7 @@
         <v>45056</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32304,7 +32304,7 @@
         <v>45063</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32361,7 +32361,7 @@
         <v>45069</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32418,7 +32418,7 @@
         <v>45075</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32475,7 +32475,7 @@
         <v>45075</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32532,7 +32532,7 @@
         <v>45089</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32589,7 +32589,7 @@
         <v>45093</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32646,7 +32646,7 @@
         <v>45113</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32703,7 +32703,7 @@
         <v>45121</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32760,7 +32760,7 @@
         <v>45126</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32817,7 +32817,7 @@
         <v>45132</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32874,7 +32874,7 @@
         <v>45132</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32931,7 +32931,7 @@
         <v>45132</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32988,7 +32988,7 @@
         <v>45139</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33045,7 +33045,7 @@
         <v>45167</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33102,7 +33102,7 @@
         <v>45167</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33159,7 +33159,7 @@
         <v>45182</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33216,7 +33216,7 @@
         <v>45182</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>

--- a/Översikt TORSÅS.xlsx
+++ b/Översikt TORSÅS.xlsx
@@ -572,7 +572,7 @@
         <v>43536</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>43922</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>43693</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>43425</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43682</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
         <v>43840</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>45001</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>43783</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>44459</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>43434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>43608</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>43703</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>43705</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>43712</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>44216</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>44410</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>44568</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44939</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43349</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43363</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43494</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>43579</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>43669</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43682</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>43703</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>44125</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>44231</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>44263</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>44453</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>44454</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>44804</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>45019</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>45079</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>43322</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         <v>43326</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         <v>43326</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>43326</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>43332</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>43339</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>43349</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>43349</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>43361</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         <v>43361</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         <v>43363</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>43363</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v>43376</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>43381</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4247,7 +4247,7 @@
         <v>43389</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         <v>43391</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4361,7 +4361,7 @@
         <v>43396</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
         <v>43396</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43396</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43398</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>43412</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>43419</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>43425</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43425</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43432</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43434</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43455</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43455</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43473</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43475</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43483</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43483</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43486</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43488</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>43488</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43488</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43490</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43490</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>43490</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5957,7 +5957,7 @@
         <v>43493</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43494</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>43497</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>43501</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>43504</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>43504</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>43511</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>43523</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6413,7 +6413,7 @@
         <v>43523</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6470,7 +6470,7 @@
         <v>43524</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>43524</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>43524</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>43528</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>43529</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43529</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43536</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43537</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43537</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43542</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43544</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43563</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>43563</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>43565</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7268,7 +7268,7 @@
         <v>43566</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7325,7 +7325,7 @@
         <v>43571</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>43577</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>43577</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>43578</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>43579</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43579</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43579</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>43598</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>43598</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>43600</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         <v>43612</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>43612</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>43612</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>43613</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>43613</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>43613</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>43614</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>43614</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>43616</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8408,7 +8408,7 @@
         <v>43626</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8465,7 +8465,7 @@
         <v>43627</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>43627</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>43629</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>43629</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8693,7 +8693,7 @@
         <v>43629</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>43629</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>43630</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>43630</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>43640</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>43640</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>43642</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>43643</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9149,7 +9149,7 @@
         <v>43643</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9206,7 +9206,7 @@
         <v>43645</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9263,7 +9263,7 @@
         <v>43648</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9320,7 +9320,7 @@
         <v>43648</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>43648</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9434,7 +9434,7 @@
         <v>43648</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9491,7 +9491,7 @@
         <v>43648</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9548,7 +9548,7 @@
         <v>43650</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9605,7 +9605,7 @@
         <v>43650</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9662,7 +9662,7 @@
         <v>43651</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>43664</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>43670</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9833,7 +9833,7 @@
         <v>43670</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9890,7 +9890,7 @@
         <v>43670</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9947,7 +9947,7 @@
         <v>43672</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10004,7 +10004,7 @@
         <v>43674</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10061,7 +10061,7 @@
         <v>43675</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10118,7 +10118,7 @@
         <v>43675</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10175,7 +10175,7 @@
         <v>43675</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10232,7 +10232,7 @@
         <v>43675</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>43675</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>43675</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>43676</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>43676</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>43676</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>43677</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>43677</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>43677</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>43679</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>43680</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>43682</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>43682</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>43682</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>43683</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>43683</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>43683</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>43683</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11258,7 +11258,7 @@
         <v>43684</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11315,7 +11315,7 @@
         <v>43686</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11372,7 +11372,7 @@
         <v>43689</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11429,7 +11429,7 @@
         <v>43689</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11486,7 +11486,7 @@
         <v>43689</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11543,7 +11543,7 @@
         <v>43689</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11600,7 +11600,7 @@
         <v>43689</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11657,7 +11657,7 @@
         <v>43690</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>43691</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>43691</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11828,7 +11828,7 @@
         <v>43692</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>43692</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>43692</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>43692</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>43692</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         <v>43693</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>43693</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>43693</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>43693</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>43693</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>43696</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>43698</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>43698</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>43705</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>43705</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>43705</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>43710</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>43710</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>43710</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12931,7 +12931,7 @@
         <v>43710</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         <v>43711</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>43711</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>43712</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>43712</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>43712</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13278,7 +13278,7 @@
         <v>43712</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13335,7 +13335,7 @@
         <v>43713</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>43714</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>43717</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>43717</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>43718</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>43718</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>43718</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>43719</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13791,7 +13791,7 @@
         <v>43724</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         <v>43724</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13905,7 +13905,7 @@
         <v>43726</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13962,7 +13962,7 @@
         <v>43728</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14019,7 +14019,7 @@
         <v>43732</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14076,7 +14076,7 @@
         <v>43732</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14133,7 +14133,7 @@
         <v>43732</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>43732</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>43733</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14304,7 +14304,7 @@
         <v>43734</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>43738</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>43740</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14475,7 +14475,7 @@
         <v>43740</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         <v>43747</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         <v>43752</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14646,7 +14646,7 @@
         <v>43753</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>43755</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14760,7 +14760,7 @@
         <v>43755</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14817,7 +14817,7 @@
         <v>43755</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14874,7 +14874,7 @@
         <v>43766</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14931,7 +14931,7 @@
         <v>43766</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14988,7 +14988,7 @@
         <v>43766</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>43766</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15102,7 +15102,7 @@
         <v>43766</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>43766</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15216,7 +15216,7 @@
         <v>43773</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>43775</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>43776</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>43781</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>43781</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>43782</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15558,7 +15558,7 @@
         <v>43789</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15615,7 +15615,7 @@
         <v>43789</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>43790</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>43794</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         <v>43794</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15843,7 +15843,7 @@
         <v>43794</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15900,7 +15900,7 @@
         <v>43795</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15957,7 +15957,7 @@
         <v>43795</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16014,7 +16014,7 @@
         <v>43796</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16071,7 +16071,7 @@
         <v>43796</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16128,7 +16128,7 @@
         <v>43797</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16185,7 +16185,7 @@
         <v>43804</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16242,7 +16242,7 @@
         <v>43810</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16299,7 +16299,7 @@
         <v>43811</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>43815</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16413,7 +16413,7 @@
         <v>43819</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16470,7 +16470,7 @@
         <v>43822</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16527,7 +16527,7 @@
         <v>43837</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16584,7 +16584,7 @@
         <v>43840</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16641,7 +16641,7 @@
         <v>43840</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16698,7 +16698,7 @@
         <v>43846</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>43851</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16812,7 +16812,7 @@
         <v>43857</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>43859</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>43861</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>43866</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>43867</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>43867</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>43878</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17211,7 +17211,7 @@
         <v>43885</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17268,7 +17268,7 @@
         <v>43885</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17325,7 +17325,7 @@
         <v>43887</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17382,7 +17382,7 @@
         <v>43892</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17439,7 +17439,7 @@
         <v>43892</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17496,7 +17496,7 @@
         <v>43892</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>43898</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>43903</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>43907</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>43907</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>43908</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>43908</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>43909</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>43909</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>43911</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         <v>43911</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>43917</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18180,7 +18180,7 @@
         <v>43920</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>43920</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18294,7 +18294,7 @@
         <v>43922</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18351,7 +18351,7 @@
         <v>43923</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18408,7 +18408,7 @@
         <v>43928</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18465,7 +18465,7 @@
         <v>43929</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18522,7 +18522,7 @@
         <v>43936</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18579,7 +18579,7 @@
         <v>43936</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18636,7 +18636,7 @@
         <v>43942</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         <v>43944</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18750,7 +18750,7 @@
         <v>43944</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18807,7 +18807,7 @@
         <v>43956</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18864,7 +18864,7 @@
         <v>43956</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18921,7 +18921,7 @@
         <v>43988</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18978,7 +18978,7 @@
         <v>43988</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19035,7 +19035,7 @@
         <v>44012</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19092,7 +19092,7 @@
         <v>44013</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19149,7 +19149,7 @@
         <v>44013</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19206,7 +19206,7 @@
         <v>44019</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19263,7 +19263,7 @@
         <v>44019</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19320,7 +19320,7 @@
         <v>44025</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19377,7 +19377,7 @@
         <v>44025</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19434,7 +19434,7 @@
         <v>44035</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19496,7 +19496,7 @@
         <v>44041</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19553,7 +19553,7 @@
         <v>44046</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19610,7 +19610,7 @@
         <v>44055</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19667,7 +19667,7 @@
         <v>44055</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>44055</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>44057</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44057</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19915,7 +19915,7 @@
         <v>44057</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         <v>44057</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>44057</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20086,7 +20086,7 @@
         <v>44057</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20143,7 +20143,7 @@
         <v>44057</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20200,7 +20200,7 @@
         <v>44057</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20257,7 +20257,7 @@
         <v>44063</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>44068</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>44074</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>44077</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>44078</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>44078</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>44095</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>44096</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>44098</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>44098</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>44102</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>44104</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>44105</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>44107</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>44107</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>44109</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>44110</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>44110</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>44110</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>44111</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44111</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44111</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44118</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44118</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44131</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>44134</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>44134</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
         <v>44138</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>44140</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44144</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>44146</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22029,7 +22029,7 @@
         <v>44150</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22086,7 +22086,7 @@
         <v>44152</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22143,7 +22143,7 @@
         <v>44155</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22205,7 +22205,7 @@
         <v>44155</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>44165</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>44172</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
         <v>44172</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>44173</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22495,7 +22495,7 @@
         <v>44174</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22552,7 +22552,7 @@
         <v>44181</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22609,7 +22609,7 @@
         <v>44182</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22666,7 +22666,7 @@
         <v>44187</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22723,7 +22723,7 @@
         <v>44201</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22780,7 +22780,7 @@
         <v>44207</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>44208</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22894,7 +22894,7 @@
         <v>44208</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22951,7 +22951,7 @@
         <v>44208</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>44208</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
         <v>44208</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23122,7 +23122,7 @@
         <v>44210</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23179,7 +23179,7 @@
         <v>44211</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23236,7 +23236,7 @@
         <v>44211</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23293,7 +23293,7 @@
         <v>44214</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23350,7 +23350,7 @@
         <v>44217</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23407,7 +23407,7 @@
         <v>44217</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23464,7 +23464,7 @@
         <v>44224</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23521,7 +23521,7 @@
         <v>44228</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23578,7 +23578,7 @@
         <v>44235</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         <v>44242</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23692,7 +23692,7 @@
         <v>44243</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23749,7 +23749,7 @@
         <v>44245</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23806,7 +23806,7 @@
         <v>44250</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23863,7 +23863,7 @@
         <v>44250</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23920,7 +23920,7 @@
         <v>44250</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23977,7 +23977,7 @@
         <v>44252</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44252</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44252</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44259</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24205,7 +24205,7 @@
         <v>44260</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24262,7 +24262,7 @@
         <v>44266</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24319,7 +24319,7 @@
         <v>44275</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24376,7 +24376,7 @@
         <v>44277</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24433,7 +24433,7 @@
         <v>44277</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24490,7 +24490,7 @@
         <v>44278</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24547,7 +24547,7 @@
         <v>44280</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24604,7 +24604,7 @@
         <v>44306</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24661,7 +24661,7 @@
         <v>44308</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24718,7 +24718,7 @@
         <v>44308</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24775,7 +24775,7 @@
         <v>44313</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24832,7 +24832,7 @@
         <v>44313</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24889,7 +24889,7 @@
         <v>44314</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         <v>44315</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         <v>44330</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25060,7 +25060,7 @@
         <v>44347</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25117,7 +25117,7 @@
         <v>44357</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25174,7 +25174,7 @@
         <v>44363</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25231,7 +25231,7 @@
         <v>44368</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25288,7 +25288,7 @@
         <v>44379</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25345,7 +25345,7 @@
         <v>44411</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25402,7 +25402,7 @@
         <v>44420</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25459,7 +25459,7 @@
         <v>44434</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25516,7 +25516,7 @@
         <v>44434</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>44442</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>44445</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>44447</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         <v>44453</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>44457</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25863,7 +25863,7 @@
         <v>44459</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25920,7 +25920,7 @@
         <v>44459</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25977,7 +25977,7 @@
         <v>44466</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>44466</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>44467</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>44467</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>44468</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>44473</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>44474</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26376,7 +26376,7 @@
         <v>44475</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26433,7 +26433,7 @@
         <v>44476</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26490,7 +26490,7 @@
         <v>44476</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26547,7 +26547,7 @@
         <v>44482</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26604,7 +26604,7 @@
         <v>44487</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26661,7 +26661,7 @@
         <v>44502</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26718,7 +26718,7 @@
         <v>44514</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26775,7 +26775,7 @@
         <v>44516</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26832,7 +26832,7 @@
         <v>44516</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26889,7 +26889,7 @@
         <v>44529</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         <v>44530</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27003,7 +27003,7 @@
         <v>44532</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27060,7 +27060,7 @@
         <v>44536</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         <v>44536</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27174,7 +27174,7 @@
         <v>44537</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27231,7 +27231,7 @@
         <v>44546</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27288,7 +27288,7 @@
         <v>44564</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27345,7 +27345,7 @@
         <v>44568</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27402,7 +27402,7 @@
         <v>44580</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27459,7 +27459,7 @@
         <v>44586</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27516,7 +27516,7 @@
         <v>44593</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27573,7 +27573,7 @@
         <v>44599</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27630,7 +27630,7 @@
         <v>44610</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27687,7 +27687,7 @@
         <v>44621</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27744,7 +27744,7 @@
         <v>44636</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27801,7 +27801,7 @@
         <v>44640</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27858,7 +27858,7 @@
         <v>44651</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27915,7 +27915,7 @@
         <v>44652</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27972,7 +27972,7 @@
         <v>44657</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28029,7 +28029,7 @@
         <v>44658</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28086,7 +28086,7 @@
         <v>44670</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28143,7 +28143,7 @@
         <v>44671</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28200,7 +28200,7 @@
         <v>44679</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28257,7 +28257,7 @@
         <v>44706</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28314,7 +28314,7 @@
         <v>44722</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28371,7 +28371,7 @@
         <v>44725</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28428,7 +28428,7 @@
         <v>44739</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         <v>44740</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28542,7 +28542,7 @@
         <v>44748</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>44763</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>44776</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>44788</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         <v>44795</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28827,7 +28827,7 @@
         <v>44795</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28884,7 +28884,7 @@
         <v>44795</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28941,7 +28941,7 @@
         <v>44811</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28998,7 +28998,7 @@
         <v>44811</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29055,7 +29055,7 @@
         <v>44812</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29112,7 +29112,7 @@
         <v>44812</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29169,7 +29169,7 @@
         <v>44816</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29226,7 +29226,7 @@
         <v>44818</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29283,7 +29283,7 @@
         <v>44827</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>44830</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
         <v>44841</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>44845</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>44849</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29568,7 +29568,7 @@
         <v>44851</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29625,7 +29625,7 @@
         <v>44852</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29682,7 +29682,7 @@
         <v>44852</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29739,7 +29739,7 @@
         <v>44861</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29796,7 +29796,7 @@
         <v>44862</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29853,7 +29853,7 @@
         <v>44865</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29910,7 +29910,7 @@
         <v>44865</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29967,7 +29967,7 @@
         <v>44879</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30024,7 +30024,7 @@
         <v>44890</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30081,7 +30081,7 @@
         <v>44896</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30138,7 +30138,7 @@
         <v>44900</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30195,7 +30195,7 @@
         <v>44902</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30252,7 +30252,7 @@
         <v>44902</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30309,7 +30309,7 @@
         <v>44902</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30366,7 +30366,7 @@
         <v>44910</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30423,7 +30423,7 @@
         <v>44928</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30480,7 +30480,7 @@
         <v>44928</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30537,7 +30537,7 @@
         <v>44938</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30594,7 +30594,7 @@
         <v>44942</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30651,7 +30651,7 @@
         <v>44943</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30708,7 +30708,7 @@
         <v>44944</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30765,7 +30765,7 @@
         <v>44949</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30822,7 +30822,7 @@
         <v>44949</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30879,7 +30879,7 @@
         <v>44958</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30936,7 +30936,7 @@
         <v>44965</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30993,7 +30993,7 @@
         <v>44977</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31050,7 +31050,7 @@
         <v>44984</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31107,7 +31107,7 @@
         <v>44985</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31164,7 +31164,7 @@
         <v>44987</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31221,7 +31221,7 @@
         <v>44988</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31278,7 +31278,7 @@
         <v>44988</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31335,7 +31335,7 @@
         <v>44988</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31392,7 +31392,7 @@
         <v>44988</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31449,7 +31449,7 @@
         <v>44992</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31506,7 +31506,7 @@
         <v>44993</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31563,7 +31563,7 @@
         <v>44999</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31620,7 +31620,7 @@
         <v>45006</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31677,7 +31677,7 @@
         <v>45008</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31734,7 +31734,7 @@
         <v>45008</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31791,7 +31791,7 @@
         <v>45008</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31848,7 +31848,7 @@
         <v>45019</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31905,7 +31905,7 @@
         <v>45019</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31962,7 +31962,7 @@
         <v>45036</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32019,7 +32019,7 @@
         <v>45040</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32076,7 +32076,7 @@
         <v>45040</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32133,7 +32133,7 @@
         <v>45040</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32190,7 +32190,7 @@
         <v>45040</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32247,7 +32247,7 @@
         <v>45056</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32304,7 +32304,7 @@
         <v>45063</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32361,7 +32361,7 @@
         <v>45069</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32418,7 +32418,7 @@
         <v>45075</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32475,7 +32475,7 @@
         <v>45075</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32532,7 +32532,7 @@
         <v>45089</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32589,7 +32589,7 @@
         <v>45093</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32646,7 +32646,7 @@
         <v>45113</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32703,7 +32703,7 @@
         <v>45121</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32760,7 +32760,7 @@
         <v>45126</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32817,7 +32817,7 @@
         <v>45132</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32874,7 +32874,7 @@
         <v>45132</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32931,7 +32931,7 @@
         <v>45132</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32988,7 +32988,7 @@
         <v>45139</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33045,7 +33045,7 @@
         <v>45167</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33102,7 +33102,7 @@
         <v>45167</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33159,7 +33159,7 @@
         <v>45182</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33216,7 +33216,7 @@
         <v>45182</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>

--- a/Översikt TORSÅS.xlsx
+++ b/Översikt TORSÅS.xlsx
@@ -572,7 +572,7 @@
         <v>43536</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>43922</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>43693</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>43425</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43682</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
         <v>43840</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>45001</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>43783</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>44459</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>43434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>43608</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>43703</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>43705</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>43712</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>44216</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>44410</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>44568</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44939</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43349</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43363</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43494</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>43579</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>43669</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43682</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>43703</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>44125</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>44231</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>44263</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>44453</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>44454</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>44804</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>45019</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>45079</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>43322</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         <v>43326</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         <v>43326</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>43326</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>43332</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>43339</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>43349</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>43349</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>43361</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         <v>43361</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         <v>43363</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>43363</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v>43376</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>43381</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4247,7 +4247,7 @@
         <v>43389</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         <v>43391</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4361,7 +4361,7 @@
         <v>43396</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
         <v>43396</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43396</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43398</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>43412</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>43419</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>43425</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43425</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43432</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43434</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43455</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43455</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43473</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43475</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43483</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43483</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43486</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43488</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>43488</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43488</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43490</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43490</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>43490</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5957,7 +5957,7 @@
         <v>43493</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43494</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>43497</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>43501</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>43504</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>43504</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>43511</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>43523</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6413,7 +6413,7 @@
         <v>43523</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6470,7 +6470,7 @@
         <v>43524</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>43524</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>43524</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>43528</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>43529</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43529</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43536</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43537</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43537</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43542</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43544</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43563</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>43563</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>43565</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7268,7 +7268,7 @@
         <v>43566</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7325,7 +7325,7 @@
         <v>43571</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>43577</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>43577</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>43578</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>43579</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43579</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43579</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>43598</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>43598</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>43600</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         <v>43612</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>43612</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>43612</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>43613</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>43613</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>43613</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>43614</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>43614</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>43616</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8408,7 +8408,7 @@
         <v>43626</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8465,7 +8465,7 @@
         <v>43627</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>43627</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>43629</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>43629</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8693,7 +8693,7 @@
         <v>43629</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>43629</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>43630</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>43630</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>43640</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>43640</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>43642</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>43643</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9149,7 +9149,7 @@
         <v>43643</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9206,7 +9206,7 @@
         <v>43645</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9263,7 +9263,7 @@
         <v>43648</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9320,7 +9320,7 @@
         <v>43648</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>43648</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9434,7 +9434,7 @@
         <v>43648</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9491,7 +9491,7 @@
         <v>43648</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9548,7 +9548,7 @@
         <v>43650</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9605,7 +9605,7 @@
         <v>43650</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9662,7 +9662,7 @@
         <v>43651</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>43664</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>43670</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9833,7 +9833,7 @@
         <v>43670</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9890,7 +9890,7 @@
         <v>43670</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9947,7 +9947,7 @@
         <v>43672</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10004,7 +10004,7 @@
         <v>43674</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10061,7 +10061,7 @@
         <v>43675</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10118,7 +10118,7 @@
         <v>43675</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10175,7 +10175,7 @@
         <v>43675</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10232,7 +10232,7 @@
         <v>43675</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>43675</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>43675</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>43676</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>43676</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>43676</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>43677</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>43677</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>43677</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>43679</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>43680</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>43682</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>43682</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>43682</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>43683</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>43683</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>43683</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>43683</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11258,7 +11258,7 @@
         <v>43684</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11315,7 +11315,7 @@
         <v>43686</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11372,7 +11372,7 @@
         <v>43689</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11429,7 +11429,7 @@
         <v>43689</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11486,7 +11486,7 @@
         <v>43689</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11543,7 +11543,7 @@
         <v>43689</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11600,7 +11600,7 @@
         <v>43689</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11657,7 +11657,7 @@
         <v>43690</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>43691</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>43691</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11828,7 +11828,7 @@
         <v>43692</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>43692</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>43692</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>43692</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>43692</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         <v>43693</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>43693</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>43693</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>43693</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>43693</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>43696</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>43698</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>43698</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>43705</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>43705</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>43705</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>43710</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>43710</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>43710</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12931,7 +12931,7 @@
         <v>43710</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         <v>43711</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>43711</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>43712</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>43712</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>43712</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13278,7 +13278,7 @@
         <v>43712</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13335,7 +13335,7 @@
         <v>43713</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>43714</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>43717</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>43717</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>43718</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>43718</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>43718</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>43719</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13791,7 +13791,7 @@
         <v>43724</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         <v>43724</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13905,7 +13905,7 @@
         <v>43726</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13962,7 +13962,7 @@
         <v>43728</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14019,7 +14019,7 @@
         <v>43732</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14076,7 +14076,7 @@
         <v>43732</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14133,7 +14133,7 @@
         <v>43732</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>43732</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>43733</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14304,7 +14304,7 @@
         <v>43734</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>43738</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>43740</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14475,7 +14475,7 @@
         <v>43740</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         <v>43747</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         <v>43752</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14646,7 +14646,7 @@
         <v>43753</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>43755</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14760,7 +14760,7 @@
         <v>43755</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14817,7 +14817,7 @@
         <v>43755</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14874,7 +14874,7 @@
         <v>43766</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14931,7 +14931,7 @@
         <v>43766</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14988,7 +14988,7 @@
         <v>43766</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>43766</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15102,7 +15102,7 @@
         <v>43766</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>43766</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15216,7 +15216,7 @@
         <v>43773</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>43775</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>43776</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>43781</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>43781</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>43782</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15558,7 +15558,7 @@
         <v>43789</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15615,7 +15615,7 @@
         <v>43789</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>43790</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>43794</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         <v>43794</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15843,7 +15843,7 @@
         <v>43794</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15900,7 +15900,7 @@
         <v>43795</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15957,7 +15957,7 @@
         <v>43795</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16014,7 +16014,7 @@
         <v>43796</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16071,7 +16071,7 @@
         <v>43796</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16128,7 +16128,7 @@
         <v>43797</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16185,7 +16185,7 @@
         <v>43804</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16242,7 +16242,7 @@
         <v>43810</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16299,7 +16299,7 @@
         <v>43811</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>43815</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16413,7 +16413,7 @@
         <v>43819</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16470,7 +16470,7 @@
         <v>43822</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16527,7 +16527,7 @@
         <v>43837</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16584,7 +16584,7 @@
         <v>43840</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16641,7 +16641,7 @@
         <v>43840</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16698,7 +16698,7 @@
         <v>43846</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>43851</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16812,7 +16812,7 @@
         <v>43857</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>43859</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>43861</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>43866</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>43867</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>43867</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>43878</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17211,7 +17211,7 @@
         <v>43885</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17268,7 +17268,7 @@
         <v>43885</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17325,7 +17325,7 @@
         <v>43887</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17382,7 +17382,7 @@
         <v>43892</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17439,7 +17439,7 @@
         <v>43892</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17496,7 +17496,7 @@
         <v>43892</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>43898</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>43903</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>43907</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>43907</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>43908</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>43908</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>43909</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>43909</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>43911</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         <v>43911</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>43917</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18180,7 +18180,7 @@
         <v>43920</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>43920</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18294,7 +18294,7 @@
         <v>43922</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18351,7 +18351,7 @@
         <v>43923</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18408,7 +18408,7 @@
         <v>43928</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18465,7 +18465,7 @@
         <v>43929</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18522,7 +18522,7 @@
         <v>43936</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18579,7 +18579,7 @@
         <v>43936</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18636,7 +18636,7 @@
         <v>43942</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         <v>43944</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18750,7 +18750,7 @@
         <v>43944</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18807,7 +18807,7 @@
         <v>43956</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18864,7 +18864,7 @@
         <v>43956</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18921,7 +18921,7 @@
         <v>43988</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18978,7 +18978,7 @@
         <v>43988</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19035,7 +19035,7 @@
         <v>44012</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19092,7 +19092,7 @@
         <v>44013</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19149,7 +19149,7 @@
         <v>44013</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19206,7 +19206,7 @@
         <v>44019</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19263,7 +19263,7 @@
         <v>44019</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19320,7 +19320,7 @@
         <v>44025</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19377,7 +19377,7 @@
         <v>44025</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19434,7 +19434,7 @@
         <v>44035</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19496,7 +19496,7 @@
         <v>44041</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19553,7 +19553,7 @@
         <v>44046</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19610,7 +19610,7 @@
         <v>44055</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19667,7 +19667,7 @@
         <v>44055</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>44055</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>44057</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44057</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19915,7 +19915,7 @@
         <v>44057</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         <v>44057</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>44057</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20086,7 +20086,7 @@
         <v>44057</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20143,7 +20143,7 @@
         <v>44057</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20200,7 +20200,7 @@
         <v>44057</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20257,7 +20257,7 @@
         <v>44063</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>44068</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>44074</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>44077</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>44078</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>44078</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>44095</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>44096</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>44098</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>44098</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>44102</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>44104</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>44105</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>44107</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>44107</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>44109</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>44110</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>44110</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>44110</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>44111</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44111</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44111</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44118</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44118</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44131</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>44134</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>44134</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
         <v>44138</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>44140</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44144</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>44146</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22029,7 +22029,7 @@
         <v>44150</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22086,7 +22086,7 @@
         <v>44152</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22143,7 +22143,7 @@
         <v>44155</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22205,7 +22205,7 @@
         <v>44155</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>44165</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>44172</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
         <v>44172</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>44173</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22495,7 +22495,7 @@
         <v>44174</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22552,7 +22552,7 @@
         <v>44181</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22609,7 +22609,7 @@
         <v>44182</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22666,7 +22666,7 @@
         <v>44187</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22723,7 +22723,7 @@
         <v>44201</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22780,7 +22780,7 @@
         <v>44207</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>44208</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22894,7 +22894,7 @@
         <v>44208</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22951,7 +22951,7 @@
         <v>44208</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>44208</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
         <v>44208</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23122,7 +23122,7 @@
         <v>44210</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23179,7 +23179,7 @@
         <v>44211</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23236,7 +23236,7 @@
         <v>44211</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23293,7 +23293,7 @@
         <v>44214</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23350,7 +23350,7 @@
         <v>44217</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23407,7 +23407,7 @@
         <v>44217</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23464,7 +23464,7 @@
         <v>44224</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23521,7 +23521,7 @@
         <v>44228</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23578,7 +23578,7 @@
         <v>44235</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         <v>44242</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23692,7 +23692,7 @@
         <v>44243</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23749,7 +23749,7 @@
         <v>44245</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23806,7 +23806,7 @@
         <v>44250</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23863,7 +23863,7 @@
         <v>44250</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23920,7 +23920,7 @@
         <v>44250</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23977,7 +23977,7 @@
         <v>44252</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44252</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44252</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44259</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24205,7 +24205,7 @@
         <v>44260</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24262,7 +24262,7 @@
         <v>44266</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24319,7 +24319,7 @@
         <v>44275</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24376,7 +24376,7 @@
         <v>44277</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24433,7 +24433,7 @@
         <v>44277</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24490,7 +24490,7 @@
         <v>44278</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24547,7 +24547,7 @@
         <v>44280</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24604,7 +24604,7 @@
         <v>44306</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24661,7 +24661,7 @@
         <v>44308</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24718,7 +24718,7 @@
         <v>44308</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24775,7 +24775,7 @@
         <v>44313</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24832,7 +24832,7 @@
         <v>44313</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24889,7 +24889,7 @@
         <v>44314</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         <v>44315</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         <v>44330</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25060,7 +25060,7 @@
         <v>44347</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25117,7 +25117,7 @@
         <v>44357</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25174,7 +25174,7 @@
         <v>44363</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25231,7 +25231,7 @@
         <v>44368</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25288,7 +25288,7 @@
         <v>44379</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25345,7 +25345,7 @@
         <v>44411</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25402,7 +25402,7 @@
         <v>44420</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25459,7 +25459,7 @@
         <v>44434</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25516,7 +25516,7 @@
         <v>44434</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>44442</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>44445</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>44447</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         <v>44453</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>44457</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25863,7 +25863,7 @@
         <v>44459</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25920,7 +25920,7 @@
         <v>44459</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25977,7 +25977,7 @@
         <v>44466</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>44466</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>44467</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>44467</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>44468</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>44473</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>44474</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26376,7 +26376,7 @@
         <v>44475</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26433,7 +26433,7 @@
         <v>44476</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26490,7 +26490,7 @@
         <v>44476</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26547,7 +26547,7 @@
         <v>44482</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26604,7 +26604,7 @@
         <v>44487</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26661,7 +26661,7 @@
         <v>44502</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26718,7 +26718,7 @@
         <v>44514</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26775,7 +26775,7 @@
         <v>44516</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26832,7 +26832,7 @@
         <v>44516</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26889,7 +26889,7 @@
         <v>44529</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         <v>44530</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27003,7 +27003,7 @@
         <v>44532</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27060,7 +27060,7 @@
         <v>44536</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         <v>44536</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27174,7 +27174,7 @@
         <v>44537</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27231,7 +27231,7 @@
         <v>44546</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27288,7 +27288,7 @@
         <v>44564</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27345,7 +27345,7 @@
         <v>44568</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27402,7 +27402,7 @@
         <v>44580</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27459,7 +27459,7 @@
         <v>44586</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27516,7 +27516,7 @@
         <v>44593</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27573,7 +27573,7 @@
         <v>44599</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27630,7 +27630,7 @@
         <v>44610</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27687,7 +27687,7 @@
         <v>44621</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27744,7 +27744,7 @@
         <v>44636</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27801,7 +27801,7 @@
         <v>44640</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27858,7 +27858,7 @@
         <v>44651</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27915,7 +27915,7 @@
         <v>44652</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27972,7 +27972,7 @@
         <v>44657</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28029,7 +28029,7 @@
         <v>44658</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28086,7 +28086,7 @@
         <v>44670</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28143,7 +28143,7 @@
         <v>44671</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28200,7 +28200,7 @@
         <v>44679</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28257,7 +28257,7 @@
         <v>44706</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28314,7 +28314,7 @@
         <v>44722</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28371,7 +28371,7 @@
         <v>44725</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28428,7 +28428,7 @@
         <v>44739</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         <v>44740</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28542,7 +28542,7 @@
         <v>44748</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>44763</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>44776</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>44788</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         <v>44795</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28827,7 +28827,7 @@
         <v>44795</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28884,7 +28884,7 @@
         <v>44795</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28941,7 +28941,7 @@
         <v>44811</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28998,7 +28998,7 @@
         <v>44811</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29055,7 +29055,7 @@
         <v>44812</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29112,7 +29112,7 @@
         <v>44812</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29169,7 +29169,7 @@
         <v>44816</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29226,7 +29226,7 @@
         <v>44818</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29283,7 +29283,7 @@
         <v>44827</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>44830</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
         <v>44841</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>44845</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>44849</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29568,7 +29568,7 @@
         <v>44851</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29625,7 +29625,7 @@
         <v>44852</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29682,7 +29682,7 @@
         <v>44852</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29739,7 +29739,7 @@
         <v>44861</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29796,7 +29796,7 @@
         <v>44862</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29853,7 +29853,7 @@
         <v>44865</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29910,7 +29910,7 @@
         <v>44865</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29967,7 +29967,7 @@
         <v>44879</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30024,7 +30024,7 @@
         <v>44890</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30081,7 +30081,7 @@
         <v>44896</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30138,7 +30138,7 @@
         <v>44900</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30195,7 +30195,7 @@
         <v>44902</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30252,7 +30252,7 @@
         <v>44902</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30309,7 +30309,7 @@
         <v>44902</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30366,7 +30366,7 @@
         <v>44910</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30423,7 +30423,7 @@
         <v>44928</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30480,7 +30480,7 @@
         <v>44928</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30537,7 +30537,7 @@
         <v>44938</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30594,7 +30594,7 @@
         <v>44942</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30651,7 +30651,7 @@
         <v>44943</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30708,7 +30708,7 @@
         <v>44944</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30765,7 +30765,7 @@
         <v>44949</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30822,7 +30822,7 @@
         <v>44949</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30879,7 +30879,7 @@
         <v>44958</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30936,7 +30936,7 @@
         <v>44965</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30993,7 +30993,7 @@
         <v>44977</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31050,7 +31050,7 @@
         <v>44984</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31107,7 +31107,7 @@
         <v>44985</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31164,7 +31164,7 @@
         <v>44987</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31221,7 +31221,7 @@
         <v>44988</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31278,7 +31278,7 @@
         <v>44988</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31335,7 +31335,7 @@
         <v>44988</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31392,7 +31392,7 @@
         <v>44988</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31449,7 +31449,7 @@
         <v>44992</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31506,7 +31506,7 @@
         <v>44993</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31563,7 +31563,7 @@
         <v>44999</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31620,7 +31620,7 @@
         <v>45006</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31677,7 +31677,7 @@
         <v>45008</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31734,7 +31734,7 @@
         <v>45008</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31791,7 +31791,7 @@
         <v>45008</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31848,7 +31848,7 @@
         <v>45019</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31905,7 +31905,7 @@
         <v>45019</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31962,7 +31962,7 @@
         <v>45036</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32019,7 +32019,7 @@
         <v>45040</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32076,7 +32076,7 @@
         <v>45040</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32133,7 +32133,7 @@
         <v>45040</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32190,7 +32190,7 @@
         <v>45040</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32247,7 +32247,7 @@
         <v>45056</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32304,7 +32304,7 @@
         <v>45063</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32361,7 +32361,7 @@
         <v>45069</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32418,7 +32418,7 @@
         <v>45075</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32475,7 +32475,7 @@
         <v>45075</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32532,7 +32532,7 @@
         <v>45089</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32589,7 +32589,7 @@
         <v>45093</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32646,7 +32646,7 @@
         <v>45113</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32703,7 +32703,7 @@
         <v>45121</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32760,7 +32760,7 @@
         <v>45126</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32817,7 +32817,7 @@
         <v>45132</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32874,7 +32874,7 @@
         <v>45132</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32931,7 +32931,7 @@
         <v>45132</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32988,7 +32988,7 @@
         <v>45139</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33045,7 +33045,7 @@
         <v>45167</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33102,7 +33102,7 @@
         <v>45167</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33159,7 +33159,7 @@
         <v>45182</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33216,7 +33216,7 @@
         <v>45182</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>

--- a/Översikt TORSÅS.xlsx
+++ b/Översikt TORSÅS.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y556"/>
+  <dimension ref="A1:Y557"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43536</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>43922</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>43693</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>43425</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43682</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
         <v>43840</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>45001</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>43783</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>44459</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>43434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>43608</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>43703</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>43705</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>43712</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>44216</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>44410</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>44568</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44939</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43349</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43363</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43494</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>43579</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>43669</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43682</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>43703</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>44125</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>44231</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>44263</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>44453</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>44454</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>44804</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>45019</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>45079</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>43322</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         <v>43326</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         <v>43326</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>43326</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>43332</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>43339</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>43349</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>43349</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>43361</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         <v>43361</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         <v>43363</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>43363</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v>43376</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>43381</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4247,7 +4247,7 @@
         <v>43389</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         <v>43391</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4361,7 +4361,7 @@
         <v>43396</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
         <v>43396</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43396</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43398</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>43412</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>43419</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>43425</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43425</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43432</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43434</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43455</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43455</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43473</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43475</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43483</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43483</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43486</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43488</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>43488</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43488</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43490</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43490</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>43490</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5957,7 +5957,7 @@
         <v>43493</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43494</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>43497</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>43501</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>43504</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>43504</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>43511</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>43523</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6413,7 +6413,7 @@
         <v>43523</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6470,7 +6470,7 @@
         <v>43524</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>43524</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>43524</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>43528</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>43529</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43529</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43536</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43537</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43537</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43542</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43544</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43563</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>43563</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>43565</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7268,7 +7268,7 @@
         <v>43566</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7325,7 +7325,7 @@
         <v>43571</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>43577</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>43577</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>43578</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>43579</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43579</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43579</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>43598</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>43598</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>43600</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         <v>43612</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>43612</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>43612</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>43613</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>43613</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>43613</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>43614</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>43614</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>43616</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8408,7 +8408,7 @@
         <v>43626</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8465,7 +8465,7 @@
         <v>43627</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>43627</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>43629</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>43629</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8693,7 +8693,7 @@
         <v>43629</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>43629</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>43630</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>43630</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>43640</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>43640</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>43642</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>43643</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9149,7 +9149,7 @@
         <v>43643</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9206,7 +9206,7 @@
         <v>43645</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9263,7 +9263,7 @@
         <v>43648</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9320,7 +9320,7 @@
         <v>43648</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>43648</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9434,7 +9434,7 @@
         <v>43648</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9491,7 +9491,7 @@
         <v>43648</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9548,7 +9548,7 @@
         <v>43650</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9605,7 +9605,7 @@
         <v>43650</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9662,7 +9662,7 @@
         <v>43651</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>43664</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>43670</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9833,7 +9833,7 @@
         <v>43670</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9890,7 +9890,7 @@
         <v>43670</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9947,7 +9947,7 @@
         <v>43672</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10004,7 +10004,7 @@
         <v>43674</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10061,7 +10061,7 @@
         <v>43675</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10118,7 +10118,7 @@
         <v>43675</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10175,7 +10175,7 @@
         <v>43675</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10232,7 +10232,7 @@
         <v>43675</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>43675</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>43675</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>43676</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>43676</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>43676</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>43677</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>43677</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>43677</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>43679</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>43680</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>43682</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>43682</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>43682</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>43683</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>43683</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>43683</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>43683</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11258,7 +11258,7 @@
         <v>43684</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11315,7 +11315,7 @@
         <v>43686</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11372,7 +11372,7 @@
         <v>43689</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11429,7 +11429,7 @@
         <v>43689</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11486,7 +11486,7 @@
         <v>43689</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11543,7 +11543,7 @@
         <v>43689</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11600,7 +11600,7 @@
         <v>43689</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11657,7 +11657,7 @@
         <v>43690</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>43691</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>43691</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11828,7 +11828,7 @@
         <v>43692</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>43692</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>43692</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>43692</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>43692</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         <v>43693</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>43693</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>43693</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>43693</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>43693</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>43696</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>43698</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>43698</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>43705</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>43705</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>43705</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>43710</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>43710</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>43710</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12931,7 +12931,7 @@
         <v>43710</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         <v>43711</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>43711</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>43712</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>43712</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>43712</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13278,7 +13278,7 @@
         <v>43712</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13335,7 +13335,7 @@
         <v>43713</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>43714</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>43717</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>43717</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>43718</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>43718</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>43718</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>43719</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13791,7 +13791,7 @@
         <v>43724</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         <v>43724</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13905,7 +13905,7 @@
         <v>43726</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13962,7 +13962,7 @@
         <v>43728</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14019,7 +14019,7 @@
         <v>43732</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14076,7 +14076,7 @@
         <v>43732</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14133,7 +14133,7 @@
         <v>43732</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>43732</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>43733</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14304,7 +14304,7 @@
         <v>43734</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>43738</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>43740</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14475,7 +14475,7 @@
         <v>43740</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         <v>43747</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         <v>43752</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14646,7 +14646,7 @@
         <v>43753</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>43755</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14760,7 +14760,7 @@
         <v>43755</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14817,7 +14817,7 @@
         <v>43755</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14874,7 +14874,7 @@
         <v>43766</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14931,7 +14931,7 @@
         <v>43766</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14988,7 +14988,7 @@
         <v>43766</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>43766</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15102,7 +15102,7 @@
         <v>43766</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>43766</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15216,7 +15216,7 @@
         <v>43773</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>43775</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>43776</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>43781</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>43781</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>43782</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15558,7 +15558,7 @@
         <v>43789</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15615,7 +15615,7 @@
         <v>43789</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>43790</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>43794</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         <v>43794</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15843,7 +15843,7 @@
         <v>43794</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15900,7 +15900,7 @@
         <v>43795</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15957,7 +15957,7 @@
         <v>43795</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16014,7 +16014,7 @@
         <v>43796</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16071,7 +16071,7 @@
         <v>43796</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16128,7 +16128,7 @@
         <v>43797</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16185,7 +16185,7 @@
         <v>43804</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16242,7 +16242,7 @@
         <v>43810</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16299,7 +16299,7 @@
         <v>43811</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>43815</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16413,7 +16413,7 @@
         <v>43819</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16470,7 +16470,7 @@
         <v>43822</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16527,7 +16527,7 @@
         <v>43837</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16584,7 +16584,7 @@
         <v>43840</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16641,7 +16641,7 @@
         <v>43840</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16698,7 +16698,7 @@
         <v>43846</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>43851</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16812,7 +16812,7 @@
         <v>43857</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>43859</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>43861</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>43866</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>43867</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>43867</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>43878</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17211,7 +17211,7 @@
         <v>43885</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17268,7 +17268,7 @@
         <v>43885</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17325,7 +17325,7 @@
         <v>43887</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17382,7 +17382,7 @@
         <v>43892</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17439,7 +17439,7 @@
         <v>43892</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17496,7 +17496,7 @@
         <v>43892</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>43898</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>43903</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>43907</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>43907</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>43908</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>43908</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>43909</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>43909</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>43911</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         <v>43911</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>43917</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18180,7 +18180,7 @@
         <v>43920</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>43920</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18294,7 +18294,7 @@
         <v>43922</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18351,7 +18351,7 @@
         <v>43923</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18408,7 +18408,7 @@
         <v>43928</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18465,7 +18465,7 @@
         <v>43929</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18522,7 +18522,7 @@
         <v>43936</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18579,7 +18579,7 @@
         <v>43936</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18636,7 +18636,7 @@
         <v>43942</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         <v>43944</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18750,7 +18750,7 @@
         <v>43944</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18807,7 +18807,7 @@
         <v>43956</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18864,7 +18864,7 @@
         <v>43956</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18921,7 +18921,7 @@
         <v>43988</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18978,7 +18978,7 @@
         <v>43988</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19035,7 +19035,7 @@
         <v>44012</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19092,7 +19092,7 @@
         <v>44013</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19149,7 +19149,7 @@
         <v>44013</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19206,7 +19206,7 @@
         <v>44019</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19263,7 +19263,7 @@
         <v>44019</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19320,7 +19320,7 @@
         <v>44025</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19377,7 +19377,7 @@
         <v>44025</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19434,7 +19434,7 @@
         <v>44035</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19496,7 +19496,7 @@
         <v>44041</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19553,7 +19553,7 @@
         <v>44046</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19610,7 +19610,7 @@
         <v>44055</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19667,7 +19667,7 @@
         <v>44055</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>44055</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>44057</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44057</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19915,7 +19915,7 @@
         <v>44057</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         <v>44057</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>44057</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20086,7 +20086,7 @@
         <v>44057</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20143,7 +20143,7 @@
         <v>44057</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20200,7 +20200,7 @@
         <v>44057</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20257,7 +20257,7 @@
         <v>44063</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>44068</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>44074</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>44077</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>44078</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>44078</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>44095</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>44096</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>44098</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>44098</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>44102</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>44104</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>44105</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>44107</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>44107</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>44109</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>44110</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>44110</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>44110</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>44111</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44111</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44111</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44118</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44118</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44131</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>44134</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>44134</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
         <v>44138</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>44140</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44144</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>44146</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22029,7 +22029,7 @@
         <v>44150</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22086,7 +22086,7 @@
         <v>44152</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22143,7 +22143,7 @@
         <v>44155</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22205,7 +22205,7 @@
         <v>44155</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>44165</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>44172</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
         <v>44172</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>44173</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22495,7 +22495,7 @@
         <v>44174</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22552,7 +22552,7 @@
         <v>44181</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22609,7 +22609,7 @@
         <v>44182</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22666,7 +22666,7 @@
         <v>44187</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22723,7 +22723,7 @@
         <v>44201</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22780,7 +22780,7 @@
         <v>44207</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>44208</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22894,7 +22894,7 @@
         <v>44208</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22951,7 +22951,7 @@
         <v>44208</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>44208</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
         <v>44208</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23122,7 +23122,7 @@
         <v>44210</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23179,7 +23179,7 @@
         <v>44211</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23236,7 +23236,7 @@
         <v>44211</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23293,7 +23293,7 @@
         <v>44214</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23350,7 +23350,7 @@
         <v>44217</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23407,7 +23407,7 @@
         <v>44217</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23464,7 +23464,7 @@
         <v>44224</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23521,7 +23521,7 @@
         <v>44228</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23578,7 +23578,7 @@
         <v>44235</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         <v>44242</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23692,7 +23692,7 @@
         <v>44243</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23749,7 +23749,7 @@
         <v>44245</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23806,7 +23806,7 @@
         <v>44250</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23863,7 +23863,7 @@
         <v>44250</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23920,7 +23920,7 @@
         <v>44250</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23977,7 +23977,7 @@
         <v>44252</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44252</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44252</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44259</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24205,7 +24205,7 @@
         <v>44260</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24262,7 +24262,7 @@
         <v>44266</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24319,7 +24319,7 @@
         <v>44275</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24376,7 +24376,7 @@
         <v>44277</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24433,7 +24433,7 @@
         <v>44277</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24490,7 +24490,7 @@
         <v>44278</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24547,7 +24547,7 @@
         <v>44280</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24604,7 +24604,7 @@
         <v>44306</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24661,7 +24661,7 @@
         <v>44308</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24718,7 +24718,7 @@
         <v>44308</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24775,7 +24775,7 @@
         <v>44313</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24832,7 +24832,7 @@
         <v>44313</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24889,7 +24889,7 @@
         <v>44314</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         <v>44315</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         <v>44330</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25060,7 +25060,7 @@
         <v>44347</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25117,7 +25117,7 @@
         <v>44357</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25174,7 +25174,7 @@
         <v>44363</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25231,7 +25231,7 @@
         <v>44368</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25288,7 +25288,7 @@
         <v>44379</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25345,7 +25345,7 @@
         <v>44411</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25402,7 +25402,7 @@
         <v>44420</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25459,7 +25459,7 @@
         <v>44434</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25516,7 +25516,7 @@
         <v>44434</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>44442</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>44445</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>44447</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         <v>44453</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>44457</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25863,7 +25863,7 @@
         <v>44459</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25920,7 +25920,7 @@
         <v>44459</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25977,7 +25977,7 @@
         <v>44466</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>44466</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>44467</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>44467</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>44468</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>44473</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>44474</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26376,7 +26376,7 @@
         <v>44475</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26433,7 +26433,7 @@
         <v>44476</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26490,7 +26490,7 @@
         <v>44476</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26547,7 +26547,7 @@
         <v>44482</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26604,7 +26604,7 @@
         <v>44487</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26661,7 +26661,7 @@
         <v>44502</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26718,7 +26718,7 @@
         <v>44514</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26775,7 +26775,7 @@
         <v>44516</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26832,7 +26832,7 @@
         <v>44516</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26889,7 +26889,7 @@
         <v>44529</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         <v>44530</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27003,7 +27003,7 @@
         <v>44532</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27060,7 +27060,7 @@
         <v>44536</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         <v>44536</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27174,7 +27174,7 @@
         <v>44537</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27231,7 +27231,7 @@
         <v>44546</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27288,7 +27288,7 @@
         <v>44564</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27345,7 +27345,7 @@
         <v>44568</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27402,7 +27402,7 @@
         <v>44580</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27459,7 +27459,7 @@
         <v>44586</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27516,7 +27516,7 @@
         <v>44593</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27573,7 +27573,7 @@
         <v>44599</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27630,7 +27630,7 @@
         <v>44610</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27687,7 +27687,7 @@
         <v>44621</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27744,7 +27744,7 @@
         <v>44636</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27801,7 +27801,7 @@
         <v>44640</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27858,7 +27858,7 @@
         <v>44651</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27915,7 +27915,7 @@
         <v>44652</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27972,7 +27972,7 @@
         <v>44657</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28029,7 +28029,7 @@
         <v>44658</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28086,7 +28086,7 @@
         <v>44670</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28143,7 +28143,7 @@
         <v>44671</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28200,7 +28200,7 @@
         <v>44679</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28257,7 +28257,7 @@
         <v>44706</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28314,7 +28314,7 @@
         <v>44722</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28371,7 +28371,7 @@
         <v>44725</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28428,7 +28428,7 @@
         <v>44739</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         <v>44740</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28542,7 +28542,7 @@
         <v>44748</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>44763</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>44776</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>44788</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         <v>44795</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28827,7 +28827,7 @@
         <v>44795</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28884,7 +28884,7 @@
         <v>44795</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28941,7 +28941,7 @@
         <v>44811</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28998,7 +28998,7 @@
         <v>44811</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29055,7 +29055,7 @@
         <v>44812</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29112,7 +29112,7 @@
         <v>44812</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29169,7 +29169,7 @@
         <v>44816</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29226,7 +29226,7 @@
         <v>44818</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29283,7 +29283,7 @@
         <v>44827</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>44830</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
         <v>44841</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>44845</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>44849</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29568,7 +29568,7 @@
         <v>44851</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29625,7 +29625,7 @@
         <v>44852</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29682,7 +29682,7 @@
         <v>44852</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29739,7 +29739,7 @@
         <v>44861</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29796,7 +29796,7 @@
         <v>44862</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29853,7 +29853,7 @@
         <v>44865</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29910,7 +29910,7 @@
         <v>44865</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29967,7 +29967,7 @@
         <v>44879</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30024,7 +30024,7 @@
         <v>44890</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30081,7 +30081,7 @@
         <v>44896</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30138,7 +30138,7 @@
         <v>44900</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30195,7 +30195,7 @@
         <v>44902</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30252,7 +30252,7 @@
         <v>44902</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30309,7 +30309,7 @@
         <v>44902</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30366,7 +30366,7 @@
         <v>44910</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30423,7 +30423,7 @@
         <v>44928</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30480,7 +30480,7 @@
         <v>44928</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30537,7 +30537,7 @@
         <v>44938</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30594,7 +30594,7 @@
         <v>44942</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30651,7 +30651,7 @@
         <v>44943</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30708,7 +30708,7 @@
         <v>44944</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30765,7 +30765,7 @@
         <v>44949</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30822,7 +30822,7 @@
         <v>44949</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30879,7 +30879,7 @@
         <v>44958</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30936,7 +30936,7 @@
         <v>44965</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30993,7 +30993,7 @@
         <v>44977</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31050,7 +31050,7 @@
         <v>44984</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31107,7 +31107,7 @@
         <v>44985</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31164,7 +31164,7 @@
         <v>44987</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31221,7 +31221,7 @@
         <v>44988</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31278,7 +31278,7 @@
         <v>44988</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31335,7 +31335,7 @@
         <v>44988</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31392,7 +31392,7 @@
         <v>44988</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31449,7 +31449,7 @@
         <v>44992</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31506,7 +31506,7 @@
         <v>44993</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31563,7 +31563,7 @@
         <v>44999</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31620,7 +31620,7 @@
         <v>45006</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31677,7 +31677,7 @@
         <v>45008</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31734,7 +31734,7 @@
         <v>45008</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31791,7 +31791,7 @@
         <v>45008</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31848,7 +31848,7 @@
         <v>45019</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31905,7 +31905,7 @@
         <v>45019</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31962,7 +31962,7 @@
         <v>45036</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32019,7 +32019,7 @@
         <v>45040</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32076,7 +32076,7 @@
         <v>45040</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32133,7 +32133,7 @@
         <v>45040</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32190,7 +32190,7 @@
         <v>45040</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32247,7 +32247,7 @@
         <v>45056</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32304,7 +32304,7 @@
         <v>45063</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32361,7 +32361,7 @@
         <v>45069</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32418,7 +32418,7 @@
         <v>45075</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32475,7 +32475,7 @@
         <v>45075</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32532,7 +32532,7 @@
         <v>45089</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32589,7 +32589,7 @@
         <v>45093</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32646,7 +32646,7 @@
         <v>45113</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32703,7 +32703,7 @@
         <v>45121</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32760,7 +32760,7 @@
         <v>45126</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32817,7 +32817,7 @@
         <v>45132</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32874,7 +32874,7 @@
         <v>45132</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32931,7 +32931,7 @@
         <v>45132</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32988,7 +32988,7 @@
         <v>45139</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33045,7 +33045,7 @@
         <v>45167</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33102,7 +33102,7 @@
         <v>45167</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33159,7 +33159,7 @@
         <v>45182</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33206,7 +33206,7 @@
       </c>
       <c r="R555" s="2" t="inlineStr"/>
     </row>
-    <row r="556">
+    <row r="556" ht="15" customHeight="1">
       <c r="A556" t="inlineStr">
         <is>
           <t>A 42910-2023</t>
@@ -33216,7 +33216,7 @@
         <v>45182</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33262,6 +33262,63 @@
         <v>0</v>
       </c>
       <c r="R556" s="2" t="inlineStr"/>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>A 46082-2023</t>
+        </is>
+      </c>
+      <c r="B557" s="1" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C557" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E557" t="inlineStr">
+        <is>
+          <t>TORSÅS</t>
+        </is>
+      </c>
+      <c r="G557" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H557" t="n">
+        <v>0</v>
+      </c>
+      <c r="I557" t="n">
+        <v>0</v>
+      </c>
+      <c r="J557" t="n">
+        <v>0</v>
+      </c>
+      <c r="K557" t="n">
+        <v>0</v>
+      </c>
+      <c r="L557" t="n">
+        <v>0</v>
+      </c>
+      <c r="M557" t="n">
+        <v>0</v>
+      </c>
+      <c r="N557" t="n">
+        <v>0</v>
+      </c>
+      <c r="O557" t="n">
+        <v>0</v>
+      </c>
+      <c r="P557" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q557" t="n">
+        <v>0</v>
+      </c>
+      <c r="R557" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt TORSÅS.xlsx
+++ b/Översikt TORSÅS.xlsx
@@ -572,7 +572,7 @@
         <v>43536</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>43922</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>43693</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>43425</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43682</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
         <v>43840</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>45001</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>43783</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>44459</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>43434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>43608</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>43703</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>43705</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>43712</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>44216</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>44410</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>44568</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44939</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43349</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43363</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43494</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>43579</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>43669</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43682</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>43703</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>44125</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>44231</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>44263</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>44453</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>44454</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>44804</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>45019</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>45079</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>43322</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         <v>43326</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         <v>43326</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>43326</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>43332</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>43339</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>43349</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>43349</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>43361</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         <v>43361</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         <v>43363</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>43363</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v>43376</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>43381</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4247,7 +4247,7 @@
         <v>43389</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         <v>43391</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4361,7 +4361,7 @@
         <v>43396</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
         <v>43396</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43396</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43398</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>43412</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>43419</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>43425</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43425</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43432</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43434</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43455</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43455</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43473</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43475</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43483</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43483</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43486</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43488</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>43488</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43488</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43490</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43490</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>43490</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5957,7 +5957,7 @@
         <v>43493</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43494</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>43497</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>43501</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>43504</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>43504</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>43511</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>43523</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6413,7 +6413,7 @@
         <v>43523</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6470,7 +6470,7 @@
         <v>43524</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>43524</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>43524</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>43528</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>43529</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43529</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43536</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43537</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43537</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43542</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43544</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43563</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>43563</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>43565</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7268,7 +7268,7 @@
         <v>43566</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7325,7 +7325,7 @@
         <v>43571</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>43577</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>43577</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>43578</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>43579</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43579</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43579</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>43598</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>43598</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>43600</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         <v>43612</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>43612</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>43612</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>43613</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>43613</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>43613</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>43614</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>43614</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>43616</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8408,7 +8408,7 @@
         <v>43626</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8465,7 +8465,7 @@
         <v>43627</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>43627</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>43629</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>43629</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8693,7 +8693,7 @@
         <v>43629</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>43629</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>43630</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>43630</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>43640</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>43640</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>43642</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>43643</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9149,7 +9149,7 @@
         <v>43643</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9206,7 +9206,7 @@
         <v>43645</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9263,7 +9263,7 @@
         <v>43648</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9320,7 +9320,7 @@
         <v>43648</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>43648</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9434,7 +9434,7 @@
         <v>43648</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9491,7 +9491,7 @@
         <v>43648</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9548,7 +9548,7 @@
         <v>43650</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9605,7 +9605,7 @@
         <v>43650</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9662,7 +9662,7 @@
         <v>43651</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>43664</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>43670</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9833,7 +9833,7 @@
         <v>43670</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9890,7 +9890,7 @@
         <v>43670</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9947,7 +9947,7 @@
         <v>43672</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10004,7 +10004,7 @@
         <v>43674</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10061,7 +10061,7 @@
         <v>43675</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10118,7 +10118,7 @@
         <v>43675</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10175,7 +10175,7 @@
         <v>43675</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10232,7 +10232,7 @@
         <v>43675</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>43675</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>43675</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>43676</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>43676</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>43676</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>43677</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>43677</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>43677</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>43679</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>43680</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>43682</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>43682</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>43682</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>43683</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>43683</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>43683</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>43683</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11258,7 +11258,7 @@
         <v>43684</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11315,7 +11315,7 @@
         <v>43686</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11372,7 +11372,7 @@
         <v>43689</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11429,7 +11429,7 @@
         <v>43689</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11486,7 +11486,7 @@
         <v>43689</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11543,7 +11543,7 @@
         <v>43689</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11600,7 +11600,7 @@
         <v>43689</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11657,7 +11657,7 @@
         <v>43690</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>43691</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>43691</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11828,7 +11828,7 @@
         <v>43692</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>43692</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>43692</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>43692</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>43692</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         <v>43693</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>43693</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>43693</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>43693</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>43693</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>43696</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>43698</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>43698</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>43705</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>43705</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>43705</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>43710</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>43710</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>43710</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12931,7 +12931,7 @@
         <v>43710</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         <v>43711</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>43711</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>43712</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>43712</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>43712</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13278,7 +13278,7 @@
         <v>43712</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13335,7 +13335,7 @@
         <v>43713</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>43714</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>43717</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>43717</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>43718</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>43718</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>43718</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>43719</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13791,7 +13791,7 @@
         <v>43724</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         <v>43724</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13905,7 +13905,7 @@
         <v>43726</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13962,7 +13962,7 @@
         <v>43728</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14019,7 +14019,7 @@
         <v>43732</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14076,7 +14076,7 @@
         <v>43732</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14133,7 +14133,7 @@
         <v>43732</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>43732</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>43733</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14304,7 +14304,7 @@
         <v>43734</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>43738</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>43740</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14475,7 +14475,7 @@
         <v>43740</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         <v>43747</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         <v>43752</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14646,7 +14646,7 @@
         <v>43753</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>43755</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14760,7 +14760,7 @@
         <v>43755</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14817,7 +14817,7 @@
         <v>43755</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14874,7 +14874,7 @@
         <v>43766</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14931,7 +14931,7 @@
         <v>43766</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14988,7 +14988,7 @@
         <v>43766</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>43766</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15102,7 +15102,7 @@
         <v>43766</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>43766</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15216,7 +15216,7 @@
         <v>43773</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>43775</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>43776</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>43781</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>43781</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>43782</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15558,7 +15558,7 @@
         <v>43789</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15615,7 +15615,7 @@
         <v>43789</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>43790</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>43794</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         <v>43794</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15843,7 +15843,7 @@
         <v>43794</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15900,7 +15900,7 @@
         <v>43795</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15957,7 +15957,7 @@
         <v>43795</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16014,7 +16014,7 @@
         <v>43796</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16071,7 +16071,7 @@
         <v>43796</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16128,7 +16128,7 @@
         <v>43797</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16185,7 +16185,7 @@
         <v>43804</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16242,7 +16242,7 @@
         <v>43810</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16299,7 +16299,7 @@
         <v>43811</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>43815</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16413,7 +16413,7 @@
         <v>43819</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16470,7 +16470,7 @@
         <v>43822</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16527,7 +16527,7 @@
         <v>43837</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16584,7 +16584,7 @@
         <v>43840</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16641,7 +16641,7 @@
         <v>43840</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16698,7 +16698,7 @@
         <v>43846</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>43851</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16812,7 +16812,7 @@
         <v>43857</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>43859</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>43861</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>43866</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>43867</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>43867</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>43878</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17211,7 +17211,7 @@
         <v>43885</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17268,7 +17268,7 @@
         <v>43885</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17325,7 +17325,7 @@
         <v>43887</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17382,7 +17382,7 @@
         <v>43892</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17439,7 +17439,7 @@
         <v>43892</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17496,7 +17496,7 @@
         <v>43892</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>43898</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>43903</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>43907</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>43907</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>43908</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>43908</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>43909</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>43909</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>43911</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         <v>43911</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>43917</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18180,7 +18180,7 @@
         <v>43920</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>43920</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18294,7 +18294,7 @@
         <v>43922</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18351,7 +18351,7 @@
         <v>43923</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18408,7 +18408,7 @@
         <v>43928</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18465,7 +18465,7 @@
         <v>43929</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18522,7 +18522,7 @@
         <v>43936</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18579,7 +18579,7 @@
         <v>43936</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18636,7 +18636,7 @@
         <v>43942</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         <v>43944</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18750,7 +18750,7 @@
         <v>43944</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18807,7 +18807,7 @@
         <v>43956</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18864,7 +18864,7 @@
         <v>43956</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18921,7 +18921,7 @@
         <v>43988</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18978,7 +18978,7 @@
         <v>43988</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19035,7 +19035,7 @@
         <v>44012</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19092,7 +19092,7 @@
         <v>44013</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19149,7 +19149,7 @@
         <v>44013</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19206,7 +19206,7 @@
         <v>44019</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19263,7 +19263,7 @@
         <v>44019</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19320,7 +19320,7 @@
         <v>44025</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19377,7 +19377,7 @@
         <v>44025</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19434,7 +19434,7 @@
         <v>44035</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19496,7 +19496,7 @@
         <v>44041</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19553,7 +19553,7 @@
         <v>44046</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19610,7 +19610,7 @@
         <v>44055</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19667,7 +19667,7 @@
         <v>44055</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>44055</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>44057</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44057</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19915,7 +19915,7 @@
         <v>44057</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         <v>44057</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>44057</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20086,7 +20086,7 @@
         <v>44057</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20143,7 +20143,7 @@
         <v>44057</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20200,7 +20200,7 @@
         <v>44057</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20257,7 +20257,7 @@
         <v>44063</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>44068</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>44074</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>44077</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>44078</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>44078</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>44095</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>44096</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>44098</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>44098</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>44102</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>44104</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>44105</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>44107</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>44107</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>44109</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>44110</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>44110</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>44110</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>44111</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44111</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44111</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44118</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44118</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44131</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>44134</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>44134</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
         <v>44138</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>44140</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44144</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>44146</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22029,7 +22029,7 @@
         <v>44150</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22086,7 +22086,7 @@
         <v>44152</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22143,7 +22143,7 @@
         <v>44155</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22205,7 +22205,7 @@
         <v>44155</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>44165</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>44172</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
         <v>44172</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>44173</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22495,7 +22495,7 @@
         <v>44174</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22552,7 +22552,7 @@
         <v>44181</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22609,7 +22609,7 @@
         <v>44182</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22666,7 +22666,7 @@
         <v>44187</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22723,7 +22723,7 @@
         <v>44201</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22780,7 +22780,7 @@
         <v>44207</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>44208</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22894,7 +22894,7 @@
         <v>44208</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22951,7 +22951,7 @@
         <v>44208</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>44208</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
         <v>44208</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23122,7 +23122,7 @@
         <v>44210</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23179,7 +23179,7 @@
         <v>44211</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23236,7 +23236,7 @@
         <v>44211</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23293,7 +23293,7 @@
         <v>44214</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23350,7 +23350,7 @@
         <v>44217</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23407,7 +23407,7 @@
         <v>44217</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23464,7 +23464,7 @@
         <v>44224</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23521,7 +23521,7 @@
         <v>44228</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23578,7 +23578,7 @@
         <v>44235</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         <v>44242</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23692,7 +23692,7 @@
         <v>44243</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23749,7 +23749,7 @@
         <v>44245</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23806,7 +23806,7 @@
         <v>44250</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23863,7 +23863,7 @@
         <v>44250</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23920,7 +23920,7 @@
         <v>44250</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23977,7 +23977,7 @@
         <v>44252</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44252</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44252</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44259</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24205,7 +24205,7 @@
         <v>44260</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24262,7 +24262,7 @@
         <v>44266</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24319,7 +24319,7 @@
         <v>44275</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24376,7 +24376,7 @@
         <v>44277</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24433,7 +24433,7 @@
         <v>44277</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24490,7 +24490,7 @@
         <v>44278</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24547,7 +24547,7 @@
         <v>44280</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24604,7 +24604,7 @@
         <v>44306</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24661,7 +24661,7 @@
         <v>44308</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24718,7 +24718,7 @@
         <v>44308</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24775,7 +24775,7 @@
         <v>44313</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24832,7 +24832,7 @@
         <v>44313</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24889,7 +24889,7 @@
         <v>44314</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         <v>44315</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         <v>44330</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25060,7 +25060,7 @@
         <v>44347</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25117,7 +25117,7 @@
         <v>44357</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25174,7 +25174,7 @@
         <v>44363</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25231,7 +25231,7 @@
         <v>44368</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25288,7 +25288,7 @@
         <v>44379</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25345,7 +25345,7 @@
         <v>44411</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25402,7 +25402,7 @@
         <v>44420</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25459,7 +25459,7 @@
         <v>44434</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25516,7 +25516,7 @@
         <v>44434</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>44442</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>44445</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>44447</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         <v>44453</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>44457</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25863,7 +25863,7 @@
         <v>44459</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25920,7 +25920,7 @@
         <v>44459</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25977,7 +25977,7 @@
         <v>44466</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>44466</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>44467</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>44467</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>44468</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>44473</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>44474</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26376,7 +26376,7 @@
         <v>44475</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26433,7 +26433,7 @@
         <v>44476</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26490,7 +26490,7 @@
         <v>44476</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26547,7 +26547,7 @@
         <v>44482</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26604,7 +26604,7 @@
         <v>44487</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26661,7 +26661,7 @@
         <v>44502</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26718,7 +26718,7 @@
         <v>44514</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26775,7 +26775,7 @@
         <v>44516</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26832,7 +26832,7 @@
         <v>44516</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26889,7 +26889,7 @@
         <v>44529</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         <v>44530</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27003,7 +27003,7 @@
         <v>44532</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27060,7 +27060,7 @@
         <v>44536</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         <v>44536</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27174,7 +27174,7 @@
         <v>44537</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27231,7 +27231,7 @@
         <v>44546</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27288,7 +27288,7 @@
         <v>44564</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27345,7 +27345,7 @@
         <v>44568</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27402,7 +27402,7 @@
         <v>44580</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27459,7 +27459,7 @@
         <v>44586</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27516,7 +27516,7 @@
         <v>44593</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27573,7 +27573,7 @@
         <v>44599</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27630,7 +27630,7 @@
         <v>44610</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27687,7 +27687,7 @@
         <v>44621</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27744,7 +27744,7 @@
         <v>44636</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27801,7 +27801,7 @@
         <v>44640</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27858,7 +27858,7 @@
         <v>44651</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27915,7 +27915,7 @@
         <v>44652</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27972,7 +27972,7 @@
         <v>44657</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28029,7 +28029,7 @@
         <v>44658</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28086,7 +28086,7 @@
         <v>44670</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28143,7 +28143,7 @@
         <v>44671</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28200,7 +28200,7 @@
         <v>44679</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28257,7 +28257,7 @@
         <v>44706</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28314,7 +28314,7 @@
         <v>44722</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28371,7 +28371,7 @@
         <v>44725</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28428,7 +28428,7 @@
         <v>44739</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         <v>44740</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28542,7 +28542,7 @@
         <v>44748</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>44763</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>44776</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>44788</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         <v>44795</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28827,7 +28827,7 @@
         <v>44795</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28884,7 +28884,7 @@
         <v>44795</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28941,7 +28941,7 @@
         <v>44811</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28998,7 +28998,7 @@
         <v>44811</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29055,7 +29055,7 @@
         <v>44812</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29112,7 +29112,7 @@
         <v>44812</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29169,7 +29169,7 @@
         <v>44816</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29226,7 +29226,7 @@
         <v>44818</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29283,7 +29283,7 @@
         <v>44827</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>44830</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
         <v>44841</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>44845</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>44849</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29568,7 +29568,7 @@
         <v>44851</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29625,7 +29625,7 @@
         <v>44852</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29682,7 +29682,7 @@
         <v>44852</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29739,7 +29739,7 @@
         <v>44861</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29796,7 +29796,7 @@
         <v>44862</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29853,7 +29853,7 @@
         <v>44865</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29910,7 +29910,7 @@
         <v>44865</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29967,7 +29967,7 @@
         <v>44879</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30024,7 +30024,7 @@
         <v>44890</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30081,7 +30081,7 @@
         <v>44896</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30138,7 +30138,7 @@
         <v>44900</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30195,7 +30195,7 @@
         <v>44902</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30252,7 +30252,7 @@
         <v>44902</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30309,7 +30309,7 @@
         <v>44902</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30366,7 +30366,7 @@
         <v>44910</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30423,7 +30423,7 @@
         <v>44928</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30480,7 +30480,7 @@
         <v>44928</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30537,7 +30537,7 @@
         <v>44938</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30594,7 +30594,7 @@
         <v>44942</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30651,7 +30651,7 @@
         <v>44943</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30708,7 +30708,7 @@
         <v>44944</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30765,7 +30765,7 @@
         <v>44949</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30822,7 +30822,7 @@
         <v>44949</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30879,7 +30879,7 @@
         <v>44958</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30936,7 +30936,7 @@
         <v>44965</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30993,7 +30993,7 @@
         <v>44977</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31050,7 +31050,7 @@
         <v>44984</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31107,7 +31107,7 @@
         <v>44985</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31164,7 +31164,7 @@
         <v>44987</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31221,7 +31221,7 @@
         <v>44988</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31278,7 +31278,7 @@
         <v>44988</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31335,7 +31335,7 @@
         <v>44988</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31392,7 +31392,7 @@
         <v>44988</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31449,7 +31449,7 @@
         <v>44992</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31506,7 +31506,7 @@
         <v>44993</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31563,7 +31563,7 @@
         <v>44999</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31620,7 +31620,7 @@
         <v>45006</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31677,7 +31677,7 @@
         <v>45008</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31734,7 +31734,7 @@
         <v>45008</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31791,7 +31791,7 @@
         <v>45008</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31848,7 +31848,7 @@
         <v>45019</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31905,7 +31905,7 @@
         <v>45019</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31962,7 +31962,7 @@
         <v>45036</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32019,7 +32019,7 @@
         <v>45040</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32076,7 +32076,7 @@
         <v>45040</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32133,7 +32133,7 @@
         <v>45040</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32190,7 +32190,7 @@
         <v>45040</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32247,7 +32247,7 @@
         <v>45056</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32304,7 +32304,7 @@
         <v>45063</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32361,7 +32361,7 @@
         <v>45069</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32418,7 +32418,7 @@
         <v>45075</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32475,7 +32475,7 @@
         <v>45075</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32532,7 +32532,7 @@
         <v>45089</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32589,7 +32589,7 @@
         <v>45093</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32646,7 +32646,7 @@
         <v>45113</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32703,7 +32703,7 @@
         <v>45121</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32760,7 +32760,7 @@
         <v>45126</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32817,7 +32817,7 @@
         <v>45132</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32874,7 +32874,7 @@
         <v>45132</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32931,7 +32931,7 @@
         <v>45132</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32988,7 +32988,7 @@
         <v>45139</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33045,7 +33045,7 @@
         <v>45167</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33102,7 +33102,7 @@
         <v>45167</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33159,7 +33159,7 @@
         <v>45182</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33216,7 +33216,7 @@
         <v>45182</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33273,7 +33273,7 @@
         <v>45196</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>

--- a/Översikt TORSÅS.xlsx
+++ b/Översikt TORSÅS.xlsx
@@ -572,7 +572,7 @@
         <v>43536</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>43922</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>43693</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>43425</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43682</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
         <v>43840</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>45001</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>43783</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>44459</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>43434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>43608</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>43703</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>43705</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>43712</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>44216</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>44410</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>44568</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44939</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43349</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43363</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43494</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>43579</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>43669</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43682</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>43703</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>44125</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>44231</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>44263</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>44453</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>44454</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>44804</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>45019</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>45079</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>43322</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         <v>43326</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         <v>43326</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>43326</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>43332</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>43339</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>43349</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>43349</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>43361</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         <v>43361</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         <v>43363</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>43363</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v>43376</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>43381</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4247,7 +4247,7 @@
         <v>43389</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         <v>43391</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4361,7 +4361,7 @@
         <v>43396</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
         <v>43396</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43396</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43398</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>43412</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>43419</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>43425</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43425</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43432</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43434</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43455</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43455</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43473</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43475</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43483</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43483</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43486</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43488</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>43488</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43488</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43490</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43490</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>43490</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5957,7 +5957,7 @@
         <v>43493</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43494</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>43497</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>43501</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>43504</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>43504</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>43511</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>43523</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6413,7 +6413,7 @@
         <v>43523</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6470,7 +6470,7 @@
         <v>43524</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>43524</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>43524</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>43528</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>43529</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43529</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43536</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43537</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43537</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43542</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43544</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43563</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>43563</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>43565</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7268,7 +7268,7 @@
         <v>43566</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7325,7 +7325,7 @@
         <v>43571</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>43577</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>43577</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>43578</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>43579</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43579</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43579</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>43598</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>43598</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>43600</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         <v>43612</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>43612</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>43612</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>43613</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>43613</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>43613</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>43614</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>43614</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>43616</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8408,7 +8408,7 @@
         <v>43626</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8465,7 +8465,7 @@
         <v>43627</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>43627</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>43629</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>43629</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8693,7 +8693,7 @@
         <v>43629</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>43629</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>43630</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>43630</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>43640</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>43640</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>43642</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>43643</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9149,7 +9149,7 @@
         <v>43643</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9206,7 +9206,7 @@
         <v>43645</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9263,7 +9263,7 @@
         <v>43648</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9320,7 +9320,7 @@
         <v>43648</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>43648</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9434,7 +9434,7 @@
         <v>43648</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9491,7 +9491,7 @@
         <v>43648</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9548,7 +9548,7 @@
         <v>43650</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9605,7 +9605,7 @@
         <v>43650</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9662,7 +9662,7 @@
         <v>43651</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>43664</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>43670</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9833,7 +9833,7 @@
         <v>43670</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9890,7 +9890,7 @@
         <v>43670</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9947,7 +9947,7 @@
         <v>43672</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10004,7 +10004,7 @@
         <v>43674</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10061,7 +10061,7 @@
         <v>43675</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10118,7 +10118,7 @@
         <v>43675</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10175,7 +10175,7 @@
         <v>43675</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10232,7 +10232,7 @@
         <v>43675</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>43675</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>43675</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>43676</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>43676</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>43676</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>43677</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>43677</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>43677</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>43679</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>43680</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>43682</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>43682</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>43682</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>43683</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>43683</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>43683</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>43683</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11258,7 +11258,7 @@
         <v>43684</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11315,7 +11315,7 @@
         <v>43686</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11372,7 +11372,7 @@
         <v>43689</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11429,7 +11429,7 @@
         <v>43689</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11486,7 +11486,7 @@
         <v>43689</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11543,7 +11543,7 @@
         <v>43689</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11600,7 +11600,7 @@
         <v>43689</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11657,7 +11657,7 @@
         <v>43690</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>43691</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>43691</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11828,7 +11828,7 @@
         <v>43692</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>43692</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>43692</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>43692</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>43692</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         <v>43693</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>43693</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>43693</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>43693</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>43693</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>43696</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>43698</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>43698</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>43705</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>43705</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>43705</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>43710</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>43710</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>43710</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12931,7 +12931,7 @@
         <v>43710</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         <v>43711</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>43711</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>43712</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>43712</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>43712</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13278,7 +13278,7 @@
         <v>43712</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13335,7 +13335,7 @@
         <v>43713</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>43714</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>43717</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>43717</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>43718</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>43718</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>43718</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>43719</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13791,7 +13791,7 @@
         <v>43724</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         <v>43724</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13905,7 +13905,7 @@
         <v>43726</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13962,7 +13962,7 @@
         <v>43728</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14019,7 +14019,7 @@
         <v>43732</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14076,7 +14076,7 @@
         <v>43732</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14133,7 +14133,7 @@
         <v>43732</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>43732</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>43733</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14304,7 +14304,7 @@
         <v>43734</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>43738</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>43740</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14475,7 +14475,7 @@
         <v>43740</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         <v>43747</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         <v>43752</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14646,7 +14646,7 @@
         <v>43753</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>43755</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14760,7 +14760,7 @@
         <v>43755</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14817,7 +14817,7 @@
         <v>43755</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14874,7 +14874,7 @@
         <v>43766</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14931,7 +14931,7 @@
         <v>43766</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14988,7 +14988,7 @@
         <v>43766</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>43766</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15102,7 +15102,7 @@
         <v>43766</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>43766</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15216,7 +15216,7 @@
         <v>43773</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>43775</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>43776</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>43781</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>43781</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>43782</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15558,7 +15558,7 @@
         <v>43789</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15615,7 +15615,7 @@
         <v>43789</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>43790</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>43794</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         <v>43794</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15843,7 +15843,7 @@
         <v>43794</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15900,7 +15900,7 @@
         <v>43795</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15957,7 +15957,7 @@
         <v>43795</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16014,7 +16014,7 @@
         <v>43796</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16071,7 +16071,7 @@
         <v>43796</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16128,7 +16128,7 @@
         <v>43797</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16185,7 +16185,7 @@
         <v>43804</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16242,7 +16242,7 @@
         <v>43810</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16299,7 +16299,7 @@
         <v>43811</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>43815</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16413,7 +16413,7 @@
         <v>43819</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16470,7 +16470,7 @@
         <v>43822</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16527,7 +16527,7 @@
         <v>43837</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16584,7 +16584,7 @@
         <v>43840</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16641,7 +16641,7 @@
         <v>43840</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16698,7 +16698,7 @@
         <v>43846</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>43851</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16812,7 +16812,7 @@
         <v>43857</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>43859</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>43861</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>43866</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>43867</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>43867</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>43878</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17211,7 +17211,7 @@
         <v>43885</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17268,7 +17268,7 @@
         <v>43885</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17325,7 +17325,7 @@
         <v>43887</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17382,7 +17382,7 @@
         <v>43892</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17439,7 +17439,7 @@
         <v>43892</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17496,7 +17496,7 @@
         <v>43892</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>43898</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>43903</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>43907</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>43907</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>43908</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>43908</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>43909</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>43909</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>43911</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         <v>43911</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>43917</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18180,7 +18180,7 @@
         <v>43920</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>43920</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18294,7 +18294,7 @@
         <v>43922</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18351,7 +18351,7 @@
         <v>43923</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18408,7 +18408,7 @@
         <v>43928</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18465,7 +18465,7 @@
         <v>43929</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18522,7 +18522,7 @@
         <v>43936</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18579,7 +18579,7 @@
         <v>43936</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18636,7 +18636,7 @@
         <v>43942</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         <v>43944</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18750,7 +18750,7 @@
         <v>43944</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18807,7 +18807,7 @@
         <v>43956</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18864,7 +18864,7 @@
         <v>43956</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18921,7 +18921,7 @@
         <v>43988</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18978,7 +18978,7 @@
         <v>43988</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19035,7 +19035,7 @@
         <v>44012</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19092,7 +19092,7 @@
         <v>44013</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19149,7 +19149,7 @@
         <v>44013</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19206,7 +19206,7 @@
         <v>44019</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19263,7 +19263,7 @@
         <v>44019</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19320,7 +19320,7 @@
         <v>44025</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19377,7 +19377,7 @@
         <v>44025</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19434,7 +19434,7 @@
         <v>44035</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19496,7 +19496,7 @@
         <v>44041</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19553,7 +19553,7 @@
         <v>44046</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19610,7 +19610,7 @@
         <v>44055</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19667,7 +19667,7 @@
         <v>44055</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>44055</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>44057</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44057</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19915,7 +19915,7 @@
         <v>44057</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         <v>44057</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>44057</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20086,7 +20086,7 @@
         <v>44057</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20143,7 +20143,7 @@
         <v>44057</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20200,7 +20200,7 @@
         <v>44057</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20257,7 +20257,7 @@
         <v>44063</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>44068</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>44074</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>44077</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>44078</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>44078</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>44095</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>44096</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>44098</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>44098</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>44102</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>44104</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>44105</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>44107</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>44107</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>44109</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>44110</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>44110</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>44110</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>44111</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44111</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44111</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44118</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44118</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44131</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>44134</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>44134</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
         <v>44138</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>44140</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44144</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>44146</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22029,7 +22029,7 @@
         <v>44150</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22086,7 +22086,7 @@
         <v>44152</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22143,7 +22143,7 @@
         <v>44155</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22205,7 +22205,7 @@
         <v>44155</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>44165</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>44172</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
         <v>44172</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>44173</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22495,7 +22495,7 @@
         <v>44174</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22552,7 +22552,7 @@
         <v>44181</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22609,7 +22609,7 @@
         <v>44182</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22666,7 +22666,7 @@
         <v>44187</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22723,7 +22723,7 @@
         <v>44201</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22780,7 +22780,7 @@
         <v>44207</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>44208</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22894,7 +22894,7 @@
         <v>44208</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22951,7 +22951,7 @@
         <v>44208</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>44208</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
         <v>44208</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23122,7 +23122,7 @@
         <v>44210</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23179,7 +23179,7 @@
         <v>44211</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23236,7 +23236,7 @@
         <v>44211</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23293,7 +23293,7 @@
         <v>44214</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23350,7 +23350,7 @@
         <v>44217</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23407,7 +23407,7 @@
         <v>44217</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23464,7 +23464,7 @@
         <v>44224</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23521,7 +23521,7 @@
         <v>44228</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23578,7 +23578,7 @@
         <v>44235</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         <v>44242</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23692,7 +23692,7 @@
         <v>44243</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23749,7 +23749,7 @@
         <v>44245</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23806,7 +23806,7 @@
         <v>44250</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23863,7 +23863,7 @@
         <v>44250</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23920,7 +23920,7 @@
         <v>44250</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23977,7 +23977,7 @@
         <v>44252</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44252</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44252</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44259</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24205,7 +24205,7 @@
         <v>44260</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24262,7 +24262,7 @@
         <v>44266</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24319,7 +24319,7 @@
         <v>44275</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24376,7 +24376,7 @@
         <v>44277</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24433,7 +24433,7 @@
         <v>44277</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24490,7 +24490,7 @@
         <v>44278</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24547,7 +24547,7 @@
         <v>44280</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24604,7 +24604,7 @@
         <v>44306</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24661,7 +24661,7 @@
         <v>44308</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24718,7 +24718,7 @@
         <v>44308</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24775,7 +24775,7 @@
         <v>44313</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24832,7 +24832,7 @@
         <v>44313</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24889,7 +24889,7 @@
         <v>44314</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         <v>44315</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         <v>44330</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25060,7 +25060,7 @@
         <v>44347</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25117,7 +25117,7 @@
         <v>44357</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25174,7 +25174,7 @@
         <v>44363</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25231,7 +25231,7 @@
         <v>44368</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25288,7 +25288,7 @@
         <v>44379</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25345,7 +25345,7 @@
         <v>44411</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25402,7 +25402,7 @@
         <v>44420</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25459,7 +25459,7 @@
         <v>44434</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25516,7 +25516,7 @@
         <v>44434</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>44442</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>44445</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>44447</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         <v>44453</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>44457</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25863,7 +25863,7 @@
         <v>44459</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25920,7 +25920,7 @@
         <v>44459</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25977,7 +25977,7 @@
         <v>44466</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>44466</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>44467</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>44467</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>44468</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>44473</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>44474</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26376,7 +26376,7 @@
         <v>44475</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26433,7 +26433,7 @@
         <v>44476</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26490,7 +26490,7 @@
         <v>44476</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26547,7 +26547,7 @@
         <v>44482</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26604,7 +26604,7 @@
         <v>44487</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26661,7 +26661,7 @@
         <v>44502</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26718,7 +26718,7 @@
         <v>44514</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26775,7 +26775,7 @@
         <v>44516</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26832,7 +26832,7 @@
         <v>44516</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26889,7 +26889,7 @@
         <v>44529</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         <v>44530</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27003,7 +27003,7 @@
         <v>44532</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27060,7 +27060,7 @@
         <v>44536</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         <v>44536</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27174,7 +27174,7 @@
         <v>44537</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27231,7 +27231,7 @@
         <v>44546</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27288,7 +27288,7 @@
         <v>44564</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27345,7 +27345,7 @@
         <v>44568</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27402,7 +27402,7 @@
         <v>44580</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27459,7 +27459,7 @@
         <v>44586</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27516,7 +27516,7 @@
         <v>44593</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27573,7 +27573,7 @@
         <v>44599</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27630,7 +27630,7 @@
         <v>44610</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27687,7 +27687,7 @@
         <v>44621</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27744,7 +27744,7 @@
         <v>44636</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27801,7 +27801,7 @@
         <v>44640</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27858,7 +27858,7 @@
         <v>44651</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27915,7 +27915,7 @@
         <v>44652</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27972,7 +27972,7 @@
         <v>44657</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28029,7 +28029,7 @@
         <v>44658</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28086,7 +28086,7 @@
         <v>44670</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28143,7 +28143,7 @@
         <v>44671</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28200,7 +28200,7 @@
         <v>44679</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28257,7 +28257,7 @@
         <v>44706</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28314,7 +28314,7 @@
         <v>44722</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28371,7 +28371,7 @@
         <v>44725</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28428,7 +28428,7 @@
         <v>44739</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         <v>44740</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28542,7 +28542,7 @@
         <v>44748</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>44763</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>44776</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>44788</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         <v>44795</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28827,7 +28827,7 @@
         <v>44795</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28884,7 +28884,7 @@
         <v>44795</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28941,7 +28941,7 @@
         <v>44811</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28998,7 +28998,7 @@
         <v>44811</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29055,7 +29055,7 @@
         <v>44812</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29112,7 +29112,7 @@
         <v>44812</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29169,7 +29169,7 @@
         <v>44816</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29226,7 +29226,7 @@
         <v>44818</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29283,7 +29283,7 @@
         <v>44827</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>44830</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
         <v>44841</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>44845</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>44849</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29568,7 +29568,7 @@
         <v>44851</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29625,7 +29625,7 @@
         <v>44852</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29682,7 +29682,7 @@
         <v>44852</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29739,7 +29739,7 @@
         <v>44861</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29796,7 +29796,7 @@
         <v>44862</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29853,7 +29853,7 @@
         <v>44865</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29910,7 +29910,7 @@
         <v>44865</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29967,7 +29967,7 @@
         <v>44879</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30024,7 +30024,7 @@
         <v>44890</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30081,7 +30081,7 @@
         <v>44896</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30138,7 +30138,7 @@
         <v>44900</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30195,7 +30195,7 @@
         <v>44902</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30252,7 +30252,7 @@
         <v>44902</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30309,7 +30309,7 @@
         <v>44902</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30366,7 +30366,7 @@
         <v>44910</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30423,7 +30423,7 @@
         <v>44928</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30480,7 +30480,7 @@
         <v>44928</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30537,7 +30537,7 @@
         <v>44938</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30594,7 +30594,7 @@
         <v>44942</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30651,7 +30651,7 @@
         <v>44943</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30708,7 +30708,7 @@
         <v>44944</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30765,7 +30765,7 @@
         <v>44949</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30822,7 +30822,7 @@
         <v>44949</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30879,7 +30879,7 @@
         <v>44958</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30936,7 +30936,7 @@
         <v>44965</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30993,7 +30993,7 @@
         <v>44977</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31050,7 +31050,7 @@
         <v>44984</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31107,7 +31107,7 @@
         <v>44985</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31164,7 +31164,7 @@
         <v>44987</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31221,7 +31221,7 @@
         <v>44988</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31278,7 +31278,7 @@
         <v>44988</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31335,7 +31335,7 @@
         <v>44988</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31392,7 +31392,7 @@
         <v>44988</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31449,7 +31449,7 @@
         <v>44992</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31506,7 +31506,7 @@
         <v>44993</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31563,7 +31563,7 @@
         <v>44999</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31620,7 +31620,7 @@
         <v>45006</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31677,7 +31677,7 @@
         <v>45008</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31734,7 +31734,7 @@
         <v>45008</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31791,7 +31791,7 @@
         <v>45008</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31848,7 +31848,7 @@
         <v>45019</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31905,7 +31905,7 @@
         <v>45019</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31962,7 +31962,7 @@
         <v>45036</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32019,7 +32019,7 @@
         <v>45040</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32076,7 +32076,7 @@
         <v>45040</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32133,7 +32133,7 @@
         <v>45040</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32190,7 +32190,7 @@
         <v>45040</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32247,7 +32247,7 @@
         <v>45056</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32304,7 +32304,7 @@
         <v>45063</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32361,7 +32361,7 @@
         <v>45069</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32418,7 +32418,7 @@
         <v>45075</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32475,7 +32475,7 @@
         <v>45075</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32532,7 +32532,7 @@
         <v>45089</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32589,7 +32589,7 @@
         <v>45093</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32646,7 +32646,7 @@
         <v>45113</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32703,7 +32703,7 @@
         <v>45121</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32760,7 +32760,7 @@
         <v>45126</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32817,7 +32817,7 @@
         <v>45132</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32874,7 +32874,7 @@
         <v>45132</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32931,7 +32931,7 @@
         <v>45132</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32988,7 +32988,7 @@
         <v>45139</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33045,7 +33045,7 @@
         <v>45167</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33102,7 +33102,7 @@
         <v>45167</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33159,7 +33159,7 @@
         <v>45182</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33216,7 +33216,7 @@
         <v>45182</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33273,7 +33273,7 @@
         <v>45196</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>

--- a/Översikt TORSÅS.xlsx
+++ b/Översikt TORSÅS.xlsx
@@ -572,7 +572,7 @@
         <v>43536</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>43922</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>43693</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>43425</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43682</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
         <v>43840</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>45001</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>43783</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>44459</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>43434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>43608</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>43703</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>43705</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>43712</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>44216</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>44410</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>44568</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44939</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43349</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43363</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43494</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>43579</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>43669</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43682</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>43703</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>44125</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>44231</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>44263</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>44453</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>44454</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>44804</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>45019</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>45079</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>43322</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         <v>43326</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         <v>43326</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>43326</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>43332</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>43339</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>43349</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>43349</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>43361</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         <v>43361</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         <v>43363</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>43363</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v>43376</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>43381</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4247,7 +4247,7 @@
         <v>43389</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         <v>43391</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4361,7 +4361,7 @@
         <v>43396</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
         <v>43396</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43396</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43398</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>43412</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>43419</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>43425</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43425</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43432</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43434</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43455</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43455</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43473</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43475</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43483</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43483</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43486</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43488</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>43488</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43488</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43490</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43490</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>43490</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5957,7 +5957,7 @@
         <v>43493</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>43494</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         <v>43497</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>43501</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>43504</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>43504</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>43511</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>43523</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6413,7 +6413,7 @@
         <v>43523</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6470,7 +6470,7 @@
         <v>43524</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>43524</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>43524</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>43528</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         <v>43529</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         <v>43529</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43536</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43537</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43537</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43542</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43544</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43563</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>43563</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>43565</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7268,7 +7268,7 @@
         <v>43566</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7325,7 +7325,7 @@
         <v>43571</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>43577</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>43577</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>43578</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>43579</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43579</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43579</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>43598</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>43598</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>43600</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         <v>43612</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>43612</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>43612</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>43613</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>43613</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>43613</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>43614</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>43614</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>43616</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8408,7 +8408,7 @@
         <v>43626</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8465,7 +8465,7 @@
         <v>43627</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>43627</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>43629</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>43629</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8693,7 +8693,7 @@
         <v>43629</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>43629</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>43630</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>43630</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>43640</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>43640</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>43642</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>43643</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9149,7 +9149,7 @@
         <v>43643</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9206,7 +9206,7 @@
         <v>43645</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9263,7 +9263,7 @@
         <v>43648</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9320,7 +9320,7 @@
         <v>43648</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>43648</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9434,7 +9434,7 @@
         <v>43648</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9491,7 +9491,7 @@
         <v>43648</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9548,7 +9548,7 @@
         <v>43650</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9605,7 +9605,7 @@
         <v>43650</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9662,7 +9662,7 @@
         <v>43651</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>43664</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>43670</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9833,7 +9833,7 @@
         <v>43670</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9890,7 +9890,7 @@
         <v>43670</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9947,7 +9947,7 @@
         <v>43672</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10004,7 +10004,7 @@
         <v>43674</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10061,7 +10061,7 @@
         <v>43675</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10118,7 +10118,7 @@
         <v>43675</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10175,7 +10175,7 @@
         <v>43675</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10232,7 +10232,7 @@
         <v>43675</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>43675</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>43675</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>43676</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>43676</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>43676</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10574,7 +10574,7 @@
         <v>43677</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10631,7 +10631,7 @@
         <v>43677</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10688,7 +10688,7 @@
         <v>43677</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         <v>43679</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         <v>43680</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10859,7 +10859,7 @@
         <v>43682</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>43682</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>43682</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>43683</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>43683</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>43683</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>43683</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11258,7 +11258,7 @@
         <v>43684</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11315,7 +11315,7 @@
         <v>43686</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11372,7 +11372,7 @@
         <v>43689</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11429,7 +11429,7 @@
         <v>43689</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11486,7 +11486,7 @@
         <v>43689</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11543,7 +11543,7 @@
         <v>43689</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11600,7 +11600,7 @@
         <v>43689</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11657,7 +11657,7 @@
         <v>43690</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>43691</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>43691</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11828,7 +11828,7 @@
         <v>43692</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>43692</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>43692</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
         <v>43692</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         <v>43692</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         <v>43693</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>43693</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>43693</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>43693</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>43693</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>43696</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>43698</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>43698</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>43705</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>43705</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>43705</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>43710</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>43710</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>43710</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12931,7 +12931,7 @@
         <v>43710</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         <v>43711</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>43711</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>43712</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>43712</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>43712</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13278,7 +13278,7 @@
         <v>43712</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13335,7 +13335,7 @@
         <v>43713</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>43714</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>43717</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>43717</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>43718</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>43718</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>43718</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>43719</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13791,7 +13791,7 @@
         <v>43724</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13848,7 +13848,7 @@
         <v>43724</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13905,7 +13905,7 @@
         <v>43726</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13962,7 +13962,7 @@
         <v>43728</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14019,7 +14019,7 @@
         <v>43732</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14076,7 +14076,7 @@
         <v>43732</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14133,7 +14133,7 @@
         <v>43732</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>43732</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>43733</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14304,7 +14304,7 @@
         <v>43734</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
         <v>43738</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>43740</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14475,7 +14475,7 @@
         <v>43740</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14532,7 +14532,7 @@
         <v>43747</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         <v>43752</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14646,7 +14646,7 @@
         <v>43753</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>43755</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14760,7 +14760,7 @@
         <v>43755</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14817,7 +14817,7 @@
         <v>43755</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14874,7 +14874,7 @@
         <v>43766</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14931,7 +14931,7 @@
         <v>43766</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14988,7 +14988,7 @@
         <v>43766</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>43766</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15102,7 +15102,7 @@
         <v>43766</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>43766</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15216,7 +15216,7 @@
         <v>43773</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>43775</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>43776</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>43781</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>43781</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>43782</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15558,7 +15558,7 @@
         <v>43789</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15615,7 +15615,7 @@
         <v>43789</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>43790</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>43794</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         <v>43794</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15843,7 +15843,7 @@
         <v>43794</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15900,7 +15900,7 @@
         <v>43795</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15957,7 +15957,7 @@
         <v>43795</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16014,7 +16014,7 @@
         <v>43796</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16071,7 +16071,7 @@
         <v>43796</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16128,7 +16128,7 @@
         <v>43797</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16185,7 +16185,7 @@
         <v>43804</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16242,7 +16242,7 @@
         <v>43810</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16299,7 +16299,7 @@
         <v>43811</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16356,7 +16356,7 @@
         <v>43815</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16413,7 +16413,7 @@
         <v>43819</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16470,7 +16470,7 @@
         <v>43822</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16527,7 +16527,7 @@
         <v>43837</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16584,7 +16584,7 @@
         <v>43840</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16641,7 +16641,7 @@
         <v>43840</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16698,7 +16698,7 @@
         <v>43846</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16755,7 +16755,7 @@
         <v>43851</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16812,7 +16812,7 @@
         <v>43857</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>43859</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16926,7 +16926,7 @@
         <v>43861</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16983,7 +16983,7 @@
         <v>43866</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17040,7 +17040,7 @@
         <v>43867</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17097,7 +17097,7 @@
         <v>43867</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17154,7 +17154,7 @@
         <v>43878</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17211,7 +17211,7 @@
         <v>43885</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17268,7 +17268,7 @@
         <v>43885</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17325,7 +17325,7 @@
         <v>43887</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17382,7 +17382,7 @@
         <v>43892</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17439,7 +17439,7 @@
         <v>43892</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17496,7 +17496,7 @@
         <v>43892</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>43898</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>43903</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>43907</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>43907</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>43908</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>43908</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>43909</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>43909</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>43911</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         <v>43911</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>43917</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18180,7 +18180,7 @@
         <v>43920</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>43920</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18294,7 +18294,7 @@
         <v>43922</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18351,7 +18351,7 @@
         <v>43923</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18408,7 +18408,7 @@
         <v>43928</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18465,7 +18465,7 @@
         <v>43929</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18522,7 +18522,7 @@
         <v>43936</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18579,7 +18579,7 @@
         <v>43936</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18636,7 +18636,7 @@
         <v>43942</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         <v>43944</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18750,7 +18750,7 @@
         <v>43944</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18807,7 +18807,7 @@
         <v>43956</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18864,7 +18864,7 @@
         <v>43956</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18921,7 +18921,7 @@
         <v>43988</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18978,7 +18978,7 @@
         <v>43988</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19035,7 +19035,7 @@
         <v>44012</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19092,7 +19092,7 @@
         <v>44013</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19149,7 +19149,7 @@
         <v>44013</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19206,7 +19206,7 @@
         <v>44019</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19263,7 +19263,7 @@
         <v>44019</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19320,7 +19320,7 @@
         <v>44025</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19377,7 +19377,7 @@
         <v>44025</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19434,7 +19434,7 @@
         <v>44035</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19496,7 +19496,7 @@
         <v>44041</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19553,7 +19553,7 @@
         <v>44046</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19610,7 +19610,7 @@
         <v>44055</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19667,7 +19667,7 @@
         <v>44055</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>44055</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>44057</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44057</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19915,7 +19915,7 @@
         <v>44057</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         <v>44057</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
         <v>44057</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20086,7 +20086,7 @@
         <v>44057</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20143,7 +20143,7 @@
         <v>44057</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20200,7 +20200,7 @@
         <v>44057</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20257,7 +20257,7 @@
         <v>44063</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>44068</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>44074</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>44077</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>44078</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>44078</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>44095</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>44096</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>44098</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>44098</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>44102</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>44104</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>44105</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>44107</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>44107</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>44109</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>44110</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>44110</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>44110</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>44111</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44111</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44111</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44118</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>44118</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21630,7 +21630,7 @@
         <v>44131</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21687,7 +21687,7 @@
         <v>44134</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21744,7 +21744,7 @@
         <v>44134</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
         <v>44138</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21858,7 +21858,7 @@
         <v>44140</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         <v>44144</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>44146</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22029,7 +22029,7 @@
         <v>44150</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22086,7 +22086,7 @@
         <v>44152</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22143,7 +22143,7 @@
         <v>44155</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22205,7 +22205,7 @@
         <v>44155</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>44165</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>44172</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
         <v>44172</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>44173</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22495,7 +22495,7 @@
         <v>44174</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22552,7 +22552,7 @@
         <v>44181</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22609,7 +22609,7 @@
         <v>44182</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22666,7 +22666,7 @@
         <v>44187</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22723,7 +22723,7 @@
         <v>44201</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22780,7 +22780,7 @@
         <v>44207</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>44208</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22894,7 +22894,7 @@
         <v>44208</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22951,7 +22951,7 @@
         <v>44208</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23008,7 +23008,7 @@
         <v>44208</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
         <v>44208</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23122,7 +23122,7 @@
         <v>44210</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23179,7 +23179,7 @@
         <v>44211</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23236,7 +23236,7 @@
         <v>44211</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23293,7 +23293,7 @@
         <v>44214</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23350,7 +23350,7 @@
         <v>44217</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23407,7 +23407,7 @@
         <v>44217</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23464,7 +23464,7 @@
         <v>44224</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23521,7 +23521,7 @@
         <v>44228</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23578,7 +23578,7 @@
         <v>44235</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         <v>44242</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23692,7 +23692,7 @@
         <v>44243</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23749,7 +23749,7 @@
         <v>44245</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23806,7 +23806,7 @@
         <v>44250</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23863,7 +23863,7 @@
         <v>44250</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23920,7 +23920,7 @@
         <v>44250</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23977,7 +23977,7 @@
         <v>44252</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44252</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44252</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44259</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24205,7 +24205,7 @@
         <v>44260</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24262,7 +24262,7 @@
         <v>44266</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24319,7 +24319,7 @@
         <v>44275</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24376,7 +24376,7 @@
         <v>44277</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24433,7 +24433,7 @@
         <v>44277</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24490,7 +24490,7 @@
         <v>44278</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24547,7 +24547,7 @@
         <v>44280</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24604,7 +24604,7 @@
         <v>44306</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24661,7 +24661,7 @@
         <v>44308</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24718,7 +24718,7 @@
         <v>44308</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24775,7 +24775,7 @@
         <v>44313</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24832,7 +24832,7 @@
         <v>44313</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24889,7 +24889,7 @@
         <v>44314</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         <v>44315</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         <v>44330</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25060,7 +25060,7 @@
         <v>44347</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25117,7 +25117,7 @@
         <v>44357</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25174,7 +25174,7 @@
         <v>44363</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25231,7 +25231,7 @@
         <v>44368</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25288,7 +25288,7 @@
         <v>44379</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25345,7 +25345,7 @@
         <v>44411</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25402,7 +25402,7 @@
         <v>44420</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25459,7 +25459,7 @@
         <v>44434</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25516,7 +25516,7 @@
         <v>44434</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>44442</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>44445</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>44447</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         <v>44453</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25806,7 +25806,7 @@
         <v>44457</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25863,7 +25863,7 @@
         <v>44459</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25920,7 +25920,7 @@
         <v>44459</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25977,7 +25977,7 @@
         <v>44466</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>44466</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26091,7 +26091,7 @@
         <v>44467</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>44467</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>44468</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>44473</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>44474</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26376,7 +26376,7 @@
         <v>44475</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26433,7 +26433,7 @@
         <v>44476</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26490,7 +26490,7 @@
         <v>44476</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26547,7 +26547,7 @@
         <v>44482</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26604,7 +26604,7 @@
         <v>44487</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26661,7 +26661,7 @@
         <v>44502</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26718,7 +26718,7 @@
         <v>44514</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26775,7 +26775,7 @@
         <v>44516</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26832,7 +26832,7 @@
         <v>44516</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26889,7 +26889,7 @@
         <v>44529</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         <v>44530</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27003,7 +27003,7 @@
         <v>44532</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27060,7 +27060,7 @@
         <v>44536</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         <v>44536</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27174,7 +27174,7 @@
         <v>44537</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27231,7 +27231,7 @@
         <v>44546</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27288,7 +27288,7 @@
         <v>44564</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27345,7 +27345,7 @@
         <v>44568</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27402,7 +27402,7 @@
         <v>44580</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27459,7 +27459,7 @@
         <v>44586</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27516,7 +27516,7 @@
         <v>44593</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27573,7 +27573,7 @@
         <v>44599</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27630,7 +27630,7 @@
         <v>44610</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27687,7 +27687,7 @@
         <v>44621</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27744,7 +27744,7 @@
         <v>44636</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27801,7 +27801,7 @@
         <v>44640</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27858,7 +27858,7 @@
         <v>44651</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27915,7 +27915,7 @@
         <v>44652</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27972,7 +27972,7 @@
         <v>44657</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28029,7 +28029,7 @@
         <v>44658</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28086,7 +28086,7 @@
         <v>44670</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28143,7 +28143,7 @@
         <v>44671</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28200,7 +28200,7 @@
         <v>44679</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28257,7 +28257,7 @@
         <v>44706</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28314,7 +28314,7 @@
         <v>44722</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28371,7 +28371,7 @@
         <v>44725</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28428,7 +28428,7 @@
         <v>44739</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         <v>44740</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28542,7 +28542,7 @@
         <v>44748</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28599,7 +28599,7 @@
         <v>44763</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
         <v>44776</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>44788</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         <v>44795</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28827,7 +28827,7 @@
         <v>44795</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28884,7 +28884,7 @@
         <v>44795</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28941,7 +28941,7 @@
         <v>44811</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28998,7 +28998,7 @@
         <v>44811</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29055,7 +29055,7 @@
         <v>44812</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29112,7 +29112,7 @@
         <v>44812</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29169,7 +29169,7 @@
         <v>44816</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29226,7 +29226,7 @@
         <v>44818</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29283,7 +29283,7 @@
         <v>44827</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>44830</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
         <v>44841</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>44845</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>44849</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29568,7 +29568,7 @@
         <v>44851</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29625,7 +29625,7 @@
         <v>44852</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29682,7 +29682,7 @@
         <v>44852</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29739,7 +29739,7 @@
         <v>44861</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29796,7 +29796,7 @@
         <v>44862</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29853,7 +29853,7 @@
         <v>44865</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29910,7 +29910,7 @@
         <v>44865</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29967,7 +29967,7 @@
         <v>44879</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30024,7 +30024,7 @@
         <v>44890</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30081,7 +30081,7 @@
         <v>44896</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30138,7 +30138,7 @@
         <v>44900</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30195,7 +30195,7 @@
         <v>44902</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30252,7 +30252,7 @@
         <v>44902</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30309,7 +30309,7 @@
         <v>44902</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30366,7 +30366,7 @@
         <v>44910</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30423,7 +30423,7 @@
         <v>44928</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30480,7 +30480,7 @@
         <v>44928</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30537,7 +30537,7 @@
         <v>44938</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30594,7 +30594,7 @@
         <v>44942</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30651,7 +30651,7 @@
         <v>44943</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30708,7 +30708,7 @@
         <v>44944</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30765,7 +30765,7 @@
         <v>44949</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30822,7 +30822,7 @@
         <v>44949</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30879,7 +30879,7 @@
         <v>44958</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30936,7 +30936,7 @@
         <v>44965</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30993,7 +30993,7 @@
         <v>44977</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31050,7 +31050,7 @@
         <v>44984</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31107,7 +31107,7 @@
         <v>44985</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31164,7 +31164,7 @@
         <v>44987</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31221,7 +31221,7 @@
         <v>44988</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31278,7 +31278,7 @@
         <v>44988</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31335,7 +31335,7 @@
         <v>44988</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31392,7 +31392,7 @@
         <v>44988</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31449,7 +31449,7 @@
         <v>44992</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31506,7 +31506,7 @@
         <v>44993</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31563,7 +31563,7 @@
         <v>44999</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31620,7 +31620,7 @@
         <v>45006</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31677,7 +31677,7 @@
         <v>45008</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31734,7 +31734,7 @@
         <v>45008</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31791,7 +31791,7 @@
         <v>45008</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31848,7 +31848,7 @@
         <v>45019</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31905,7 +31905,7 @@
         <v>45019</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31962,7 +31962,7 @@
         <v>45036</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32019,7 +32019,7 @@
         <v>45040</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32076,7 +32076,7 @@
         <v>45040</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32133,7 +32133,7 @@
         <v>45040</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32190,7 +32190,7 @@
         <v>45040</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32247,7 +32247,7 @@
         <v>45056</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32304,7 +32304,7 @@
         <v>45063</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32361,7 +32361,7 @@
         <v>45069</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32418,7 +32418,7 @@
         <v>45075</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32475,7 +32475,7 @@
         <v>45075</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32532,7 +32532,7 @@
         <v>45089</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32589,7 +32589,7 @@
         <v>45093</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32646,7 +32646,7 @@
         <v>45113</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32703,7 +32703,7 @@
         <v>45121</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32760,7 +32760,7 @@
         <v>45126</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32817,7 +32817,7 @@
         <v>45132</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32874,7 +32874,7 @@
         <v>45132</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32931,7 +32931,7 @@
         <v>45132</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32988,7 +32988,7 @@
         <v>45139</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33045,7 +33045,7 @@
         <v>45167</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33102,7 +33102,7 @@
         <v>45167</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33159,7 +33159,7 @@
         <v>45182</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33216,7 +33216,7 @@
         <v>45182</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33273,7 +33273,7 @@
         <v>45196</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>

--- a/Översikt TORSÅS.xlsx
+++ b/Översikt TORSÅS.xlsx
@@ -572,7 +572,7 @@
         <v>43536</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>43922</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>43693</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>43425</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>43682</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
         <v>43840</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>45001</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>43783</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>44459</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>43434</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>43608</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>43703</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>43705</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>43712</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>44216</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>44410</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>44568</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44939</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43349</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>43363</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43494</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>43579</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>43669</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>43682</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>43703</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>44125</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>44231</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>44263</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>44453</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>44454</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>44804</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>45019</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>45079</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>43322</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         <v>43326</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         <v>43326</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>43326</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>43332</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>43339</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>43349</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>43349</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>43361</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3962,7 +3962,7 @@
         <v>43361</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         <v>43363</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>43363</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v>43376</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>43381</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4247,7 +4247,7 @@
         <v>43389</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         <v>43391</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4361,7 +4361,7 @@
         <v>43396</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
         <v>43396</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43396</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43398</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>43412</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>43419</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>43425</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43425</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43432</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43434</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43446</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43446</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43455</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43455</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43473</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43475</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43483</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>43483</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>43486</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43488</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>43488</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43488</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43490</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>43490</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205